--- a/data/helpdoc/DND/01_玩家手册PHB.xlsx
+++ b/data/helpdoc/DND/01_玩家手册PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9300" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PHB背景" sheetId="1" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
 你熟知城市中的秘密小路和胡同，能够在其他人容易迷失的混乱街区中寻路。如果你们并非身处战斗状态，则你还可以在市区内引导同伴以两倍的平时速度在两个地点间穿行。</t>
   </si>
   <si>
-    <t>5e 酸液飞溅</t>
+    <t>酸液飞溅</t>
   </si>
   <si>
     <t/>
@@ -1483,7 +1483,7 @@
     <t>玩家手册中的法术</t>
   </si>
   <si>
-    <t>5e 援助术</t>
+    <t>援助术</t>
   </si>
   <si>
     <t>援助术 Aid
@@ -1497,7 +1497,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，每个目标的生命值上限和当前生命值就额外提高5点。</t>
   </si>
   <si>
-    <t>5e 警报术</t>
+    <t>警报术</t>
   </si>
   <si>
     <t>警报术 Alarm
@@ -1512,7 +1512,7 @@
 如果你选择声音警报，则警报触发时其60尺范围内将响起持续10秒摇铃声。</t>
   </si>
   <si>
-    <t>5e 变身术</t>
+    <t>变身术</t>
   </si>
   <si>
     <t>变身术 Alter Self
@@ -1528,7 +1528,7 @@
 天生武器 Natural Weapons。你长出尖牙锐爪、棘刺长角，或是其他类型的一种自选的天生武器。所选的天生武器可以使你的徒手打击造成1d6的钝击、挥砍或穿刺伤害，且你视为具有徒手打击的熟练项。另外，该天生武器视为魔法武器，且你在使用它进行的攻击检定和伤害掷骰均具有+1加值。</t>
   </si>
   <si>
-    <t>5e 化兽为友</t>
+    <t>化兽为友</t>
   </si>
   <si>
     <t>化兽为友 Animal Friendship
@@ -1542,7 +1542,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，就可以多选择一个野兽作为目标。</t>
   </si>
   <si>
-    <t>5e 动物信使</t>
+    <t>动物信使</t>
   </si>
   <si>
     <t>动物信使 Animal Messenger
@@ -1557,7 +1557,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，其法术持续时间就增加48小时。</t>
   </si>
   <si>
-    <t>5e 动物形态</t>
+    <t>动物形态</t>
   </si>
   <si>
     <t>动物形态 Animal Shapes
@@ -1572,7 +1572,7 @@
 目标的装备融入其新形态，而且不能激活或持用装备，也无法以其他任何方式从其装备上获益。</t>
   </si>
   <si>
-    <t>5e 操纵死尸</t>
+    <t>操纵死尸</t>
   </si>
   <si>
     <t>操纵死尸 Animate Dead
@@ -1588,7 +1588,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，就会多唤起两只不死生物，或是多延长对两只不死生物的控制。你无法用同一具骸骨或遗体唤起多个不死生物。</t>
   </si>
   <si>
-    <t>5e 活化物件</t>
+    <t>活化物件</t>
   </si>
   <si>
     <t>活化物件 Animate Objects
@@ -1611,7 +1611,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，就多唤起两个物件。</t>
   </si>
   <si>
-    <t>5e 防活物护罩</t>
+    <t>防活物护罩</t>
   </si>
   <si>
     <t>反活物护罩</t>
@@ -1629,7 +1629,7 @@
 若你移动时迫使受影响生物进入护罩内，则法术随之终止。</t>
   </si>
   <si>
-    <t>5e 反魔法力场</t>
+    <t>反魔法力场</t>
   </si>
   <si>
     <t>反魔法力场 Antimagic Field
@@ -1650,7 +1650,7 @@
 解除魔法 Dispel Magic。法术和其他魔法效应产生的类似法术解除魔法的效应对力场无效。另外，不同来源的反魔法力场之间不会相互抵消。</t>
   </si>
   <si>
-    <t>5e 嫌恶/关怀术</t>
+    <t>嫌恶/关怀术</t>
   </si>
   <si>
     <t>嫌恶术/关怀术</t>
@@ -1670,7 +1670,7 @@
 对本法术效应豁免成功的生物在1分钟内免疫该效应，但随后仍会受该效应影响。</t>
   </si>
   <si>
-    <t>5e 秘法眼</t>
+    <t>秘法眼</t>
   </si>
   <si>
     <t>秘法眼 Arcane Eye
@@ -1684,7 +1684,7 @@
 你可以使用一个动作让秘法眼向任意方向移动30尺。秘法眼远离你的距离没有限制，但它无法进入另一个位面。固体障碍物会阻挡秘法眼的移动，但它可以穿过任何直径大于1尺的缝隙。</t>
   </si>
   <si>
-    <t>5e 秘法门</t>
+    <t>秘法门</t>
   </si>
   <si>
     <t>秘法门 Arcane Gate
@@ -1699,7 +1699,7 @@
 任何进入其中一个传送门的生物将从另一个传送门走出，如同两个传送门邻接一样。从传送门不生效的那一面走过则不会有任何效果。门中满布的迷雾阻挡了视线因此无法看到任何影像。你可以在自己的回合里使用一个附赠动作改变传送门的朝向。</t>
   </si>
   <si>
-    <t>5e 秘法锁</t>
+    <t>秘法锁</t>
   </si>
   <si>
     <t>秘法锁 Arcane Lock
@@ -1713,7 +1713,7 @@
 受本法术影响的物件更难被撬开或破坏。对其进行破坏或撬锁时，其相应DC增加10。</t>
   </si>
   <si>
-    <t>5e 艾嘉西斯之铠</t>
+    <t>艾嘉西斯之铠</t>
   </si>
   <si>
     <t>艾嘉西斯之铠 Armor of Agathys
@@ -1728,7 +1728,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，临时生命和冷冻伤害就各增加5点。</t>
   </si>
   <si>
-    <t>5e 哈达之臂</t>
+    <t>哈达之臂</t>
   </si>
   <si>
     <t>哈达之臂 Arms of Hadar
@@ -1741,7 +1741,7 @@
 你祈求“乌黯之饥渴”，哈达的力量。黑暗能量构成的触须从你身上蔓延而出并痛击10尺内的所有生物。范围内的所有生物都必须进行一次力量豁免，豁免失败者将受到2d6点黯蚀伤害，并其下一回合前都无法执行反应。豁免成功的生物伤害减半，且不受其他效应的影响。</t>
   </si>
   <si>
-    <t>5e 星界投影</t>
+    <t>星界投影</t>
   </si>
   <si>
     <t>星界投影 Astral Projection
@@ -1758,7 +1758,7 @@
 如果你在法术终止前被送回本体，你的同伴将被留在星界，只能自行返回（通常通过生命值降至0的方式）。</t>
   </si>
   <si>
-    <t>5e 卜筮术</t>
+    <t>卜筮术</t>
   </si>
   <si>
     <t>占卜术</t>
@@ -1780,7 +1780,7 @@
 若你在两次长休之间使用两次或更多次的卜筮术，则法术有概率会给出随机的结果。此概率从第二次施放起每次累计25％。具体结果由DM暗骰决定。</t>
   </si>
   <si>
-    <t>5e 生命灵光</t>
+    <t>生命灵光</t>
   </si>
   <si>
     <t>生命灵光 Aura of Life
@@ -1793,7 +1793,7 @@
 护佑的能量自你身上发出并形成30尺半径的灵光，在法术持续时间内，灵光将以你为中心随你移动。灵光范围内的非敌对生物（包括你自己）获得对黯蚀伤害的抗性，其生命值上限也无法被降低。另外，生命值为0的非敌对活体生物，在灵光范围内开始其回合时会恢复1点生命值。</t>
   </si>
   <si>
-    <t>5e 净化灵光</t>
+    <t>净化灵光</t>
   </si>
   <si>
     <t>净化灵光 Aura of Purity
@@ -1806,7 +1806,7 @@
 净化的能量自你身上发出并形成30尺半径的灵光，在法术持续时间内，灵光将以你为中心随你移动。灵光范围内的非敌对生物（包括你自己）不会陷入疾病状态，并获得对毒素伤害的抗性，其进行对抗下列状态的豁免时具有优势：目盲、魅惑、耳聋、恐慌、麻痹、中毒和震慑。</t>
   </si>
   <si>
-    <t>5e 活力灵光</t>
+    <t>活力灵光</t>
   </si>
   <si>
     <t>活力灵光 Aura of Vitality
@@ -1819,7 +1819,7 @@
 你身上发出的治愈能量形成半径30尺的灵光。法术持续时间内灵光将以你为中心随你移动。你可以用一个附赠动作为灵光范围内的一名生物（包括你自己）恢复2d6的生命值。</t>
   </si>
   <si>
-    <t>5e 启蒙术</t>
+    <t>启蒙术</t>
   </si>
   <si>
     <t>启蒙术 Awaken
@@ -1833,7 +1833,7 @@
 被启蒙的植物或野兽在30日内处于被你魅惑的状态，或是直到你或你的盟友做出任何伤害它的举动。魅惑终止后，启蒙生物将根据你对待他的方式决定是否对你保持友善。</t>
   </si>
   <si>
-    <t>5e 灾祸术</t>
+    <t>灾祸术</t>
   </si>
   <si>
     <t>灾祸术 Bane
@@ -1847,7 +1847,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，就能多指定一个目标。</t>
   </si>
   <si>
-    <t>5e 放逐斩</t>
+    <t>放逐斩</t>
   </si>
   <si>
     <t>放逐斩 Banishing Smite
@@ -1860,7 +1860,7 @@
 你在法术终止前的下一次武器攻击命中某生物时将从武器中爆发巨力，使该次攻击对目标额外造成5d10点力场伤害。此外，如果本攻击将目标的生命值降低至50以下，则该生物被放逐。如果目标不是你所处位面的原住民，则他将被放逐回其家园位面。如果目标是你所处位面的原住民，则他将被放逐到一个无害的半位面。在半位面期间，该生物处于失能状态。直至法术终止时，目标将出现在其被放逐前的位置。如果该位置被占据，则目标将出现在距离该位置最近的一个未被占据空间。</t>
   </si>
   <si>
-    <t>5e 放逐术</t>
+    <t>放逐术</t>
   </si>
   <si>
     <t>放逐术 Banishment
@@ -1876,7 +1876,7 @@
 升环施法效应：使用5环或更高法术位施放本法术时，你使用的法术位每比4环高一环，就能多指定一个目标。</t>
   </si>
   <si>
-    <t>5e 树肤术</t>
+    <t>树肤术</t>
   </si>
   <si>
     <t>树肤术 Barkskin
@@ -1889,7 +1889,7 @@
 你触碰一个自愿生物，并使目标的皮肤在法术终止前呈现粗糙的树皮状外观。期间目标无论着装何种护甲，其AC将不会降至16以下。</t>
   </si>
   <si>
-    <t>5e 希望信标</t>
+    <t>希望信标</t>
   </si>
   <si>
     <t>希望信标 Beacon of Hope
@@ -1902,7 +1902,7 @@
 本法术带来活力与希望。在施法距离内指定任意数量的生物，并使其在法术持续时间内进行的感知豁免和死亡豁免具有优势。此外，其获得治疗时均以骰子最大值来决定其恢复的生命值。</t>
   </si>
   <si>
-    <t>5e 野兽知觉</t>
+    <t>野兽知觉</t>
   </si>
   <si>
     <t>野兽知觉 Beast Sense
@@ -1916,7 +1916,7 @@
 通过野兽的感官感知四周时，你还会获得该生物本身具有的特殊感官，不过你对本体周围的状况视为等同于同时陷入目盲和耳聋状态。</t>
   </si>
   <si>
-    <t>5e 降咒</t>
+    <t>降咒</t>
   </si>
   <si>
     <t>降咒 Bestow Curse
@@ -1935,7 +1935,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，法术的持续时间变为：专注，至多10分钟。使用5环或更高法术位时，变为8小时。使用7环或更高法术位时，变为24小时。使用9环法术位时，法术将持续到被解除。使用5环或更高法术位施放本法术时无需在其持续时间内维持专注。</t>
   </si>
   <si>
-    <t>5e 毕格比之手</t>
+    <t>毕格比之手</t>
   </si>
   <si>
     <t>毕格比之手 Bigby's Hand
@@ -1955,7 +1955,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，则金刚拳的伤害提高2d8，擒拿掌的伤害提高2d6。</t>
   </si>
   <si>
-    <t>5e 剑刃护壁</t>
+    <t>剑刃护壁</t>
   </si>
   <si>
     <t>剑刃护壁 Blade Barrier
@@ -1969,7 +1969,7 @@
 任何生物在一个回合内第一次进入墙体区域，或者在区域内开始其回合时，必须进行一次敏捷豁免。豁免失败者将受到6d10点挥砍伤害。豁免成功则伤害减半。</t>
   </si>
   <si>
-    <t>5e 剑刃防护</t>
+    <t>剑刃防护</t>
   </si>
   <si>
     <t>剑刃防护 Blade Ward
@@ -1982,7 +1982,7 @@
 你伸手在空中勾勒出一个防护印记，以令自己在下一回合结束前对武器攻击造成的钝击、穿刺和挥砍伤害具有抗性。</t>
   </si>
   <si>
-    <t>5e 祝福术</t>
+    <t>祝福术</t>
   </si>
   <si>
     <t>祝福术 Bless
@@ -1996,7 +1996,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，就可以多指定一个目标。</t>
   </si>
   <si>
-    <t>5e 枯萎术</t>
+    <t>枯萎术</t>
   </si>
   <si>
     <t>枯萎术 Blight
@@ -2012,7 +2012,7 @@
 升环施法效应：使用5环或更高法术位施放本法术时，你使用的法术位每比4环高一环，法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 致盲斩</t>
+    <t>致盲斩</t>
   </si>
   <si>
     <t>致盲斩 Blinding Smite
@@ -2026,7 +2026,7 @@
 受法术目盲效应影响的生物在其每个回合结束时可以再进行一次体质豁免，豁免成功则其目盲状态终止。</t>
   </si>
   <si>
-    <t>5e 目盲/耳聋术</t>
+    <t>目盲/耳聋术</t>
   </si>
   <si>
     <t>目盲术/耳聋术</t>
@@ -2043,7 +2043,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，就可以多指定一个目标。</t>
   </si>
   <si>
-    <t>5e 闪现术</t>
+    <t>闪现术</t>
   </si>
   <si>
     <t>闪现术 Blink
@@ -2057,7 +2057,7 @@
 身处以太位面时，你可以听见和看见原位面，但只限于60尺之内，且所有事物都是黑白画面。其他生物只有当其身处以太位面时才能对你产生影响，或者被你影响。不处于以太位面的生物无法察觉你也无法和你交流，除非其具有相应的能力。</t>
   </si>
   <si>
-    <t>5e 朦胧术</t>
+    <t>朦胧术</t>
   </si>
   <si>
     <t>朦胧术 Blur
@@ -2070,7 +2070,7 @@
 你的身影变得模糊，并在别人眼里闪烁不定。在法术持续时间内，任何生物对你发动的攻击检定具有劣势。不依赖视觉（例如盲视）或可以看穿幻象（例如真实视觉）的攻击者免疫此效应。</t>
   </si>
   <si>
-    <t>5e 印记斩</t>
+    <t>印记斩</t>
   </si>
   <si>
     <t>印记斩 Branding Smite
@@ -2084,7 +2084,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，法术的伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 燃烧之手</t>
+    <t>燃烧之手</t>
   </si>
   <si>
     <t>燃烧之手 Burning Hands
@@ -2099,7 +2099,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，法术的伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 召雷术</t>
+    <t>召雷术</t>
   </si>
   <si>
     <t>召雷术 Call Lightning
@@ -2115,7 +2115,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，法术的伤害就增加1d10。</t>
   </si>
   <si>
-    <t>5e 安定心神</t>
+    <t>安定心神</t>
   </si>
   <si>
     <t>冷静术</t>
@@ -2132,7 +2132,7 @@
 你可以选择压制任何使目标受魅惑或恐慌的效应。法术终止时，若被压制效应持续时间仍未完结，则该效应继续生效。或者，你也可以选择使目标改变对某个你所指定生物的态度，由敌对变为冷漠。如果目标被攻击，或者被有害法术影响，又或者发现其盟友受到损害，则此效应终止。法术终止时，除非DM另行裁决，否则目标的态度恢复敌对。</t>
   </si>
   <si>
-    <t>5e 连锁闪电</t>
+    <t>连锁闪电</t>
   </si>
   <si>
     <t>连锁闪电 Chain Lightning
@@ -2147,7 +2147,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，跳跃后闪电就多分出一束射向一个不同的目标。</t>
   </si>
   <si>
-    <t>5e 魅惑人类</t>
+    <t>魅惑人类</t>
   </si>
   <si>
     <t>魅惑人类 Charm Person
@@ -2161,7 +2161,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，法术就能多影响一个目标。而各目标之间距离不能超过30尺。</t>
   </si>
   <si>
-    <t>5e 冻寒之触</t>
+    <t>冻寒之触</t>
   </si>
   <si>
     <t>冻寒之触 Chill Touch
@@ -2176,7 +2176,7 @@
 第5级时，本法术的伤害增加1d8（变为2d8）。11级时再增加1d8（变为3d8），17级时再增加1d8（变为4d8）。</t>
   </si>
   <si>
-    <t>5e 繁彩球</t>
+    <t>繁彩球</t>
   </si>
   <si>
     <t>多彩球</t>
@@ -2193,7 +2193,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 死亡法阵</t>
+    <t>死亡法阵</t>
   </si>
   <si>
     <t>死亡法阵 Circle of Death
@@ -2207,7 +2207,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，法术的伤害就增加2d6。</t>
   </si>
   <si>
-    <t>5e 原力法阵</t>
+    <t>原力法阵</t>
   </si>
   <si>
     <t>原力法阵 Circle of Power
@@ -2220,7 +2220,7 @@
 你身上发出神圣能量并以扭曲散溢的魔法能量构成一个半径30尺的球状力场。法术持续时间内力场将以你为中心随你移动。力场范围内的友方生物（包括你自己）为对抗法术或其他魔法效应而进行的豁免检定具有优势。此外，受本法术效应影响的生物在对抗豁免成功则伤害减半的法术或魔法效应时，若成功则不受伤害。</t>
   </si>
   <si>
-    <t>5e 鹰眼术</t>
+    <t>鹰眼术</t>
   </si>
   <si>
     <t>鹰眼术 Clairvoyance
@@ -2235,7 +2235,7 @@
 可以看见传感器的生物（比如生物具有增益如识破隐形 see invisibility 或真实视觉时）会看到检测点是一个拳头大小发着微光的半透球体。</t>
   </si>
   <si>
-    <t>5e 克隆术</t>
+    <t>克隆术</t>
   </si>
   <si>
     <t>克隆术 Clone
@@ -2249,7 +2249,7 @@
 克隆体成长成熟后，如果本体生物死亡，则其灵魂转移到克隆体中，前提是该灵魂必须保持自由且自愿复活。克隆体的肉体特质与本体相同，并具有相同的个性、记忆和能力，但并不拥有本体随身的装备。由于灵魂已经转移到别处，该生物原本的遗体（如果依然存在）失去活力，且不能被复活。</t>
   </si>
   <si>
-    <t>5e 匕首之云</t>
+    <t>匕首之云</t>
   </si>
   <si>
     <t>匕首之云 Cloud of Daggers
@@ -2263,7 +2263,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，法术的伤害就增加2d4。</t>
   </si>
   <si>
-    <t>5e 死云术</t>
+    <t>死云术</t>
   </si>
   <si>
     <t>死云术 Cloudkill
@@ -2279,7 +2279,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 七彩喷射</t>
+    <t>七彩喷射</t>
   </si>
   <si>
     <t>七彩喷射 Colorspray
@@ -2294,7 +2294,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，法术的掷骰时就增加2d10。</t>
   </si>
   <si>
-    <t>5e 命令术</t>
+    <t>命令术</t>
   </si>
   <si>
     <t>命令术 Command
@@ -2314,7 +2314,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，法术就能多影响一个目标。而各目标之间距离不能超过30尺。</t>
   </si>
   <si>
-    <t>5e 通神术</t>
+    <t>通神术</t>
   </si>
   <si>
     <t>通神术 Commune
@@ -2329,7 +2329,7 @@
 若你在两次长休之间两次或更多次的施放本法术，则法术有一定的几率不给任何答复。此概率从第二次施放起每次累计25％。其具体结果由DM暗骰决定。</t>
   </si>
   <si>
-    <t>5e 问道自然</t>
+    <t>问道自然</t>
   </si>
   <si>
     <t>问道自然 Commune with Nature
@@ -2349,7 +2349,7 @@
 例如，你可以侦测到某个强大不死生物在区域中的位置，干净安全的水源所在地，以及附近城镇的方位。</t>
   </si>
   <si>
-    <t>5e 强令对决</t>
+    <t>强令对决</t>
   </si>
   <si>
     <t>强制决斗</t>
@@ -2366,7 +2366,7 @@
 当你攻击另一个生物时，或者当你对另一个敌对生物施放法术时，又或者当一个你的友方生物对该目标造成伤害或者对其施放伤害性法术时，又或者你在距离该目标超过30尺的位置结束你的回合时，本法术终止。</t>
   </si>
   <si>
-    <t>5e 通晓语言</t>
+    <t>通晓语言</t>
   </si>
   <si>
     <t>通晓语言 Comprehend Languages
@@ -2380,7 +2380,7 @@
 某些文字或图形的密语（比如一个奥秘符文）由于不属于书写语言一类所以无法用本法术破译。</t>
   </si>
   <si>
-    <t>5e 强迫术</t>
+    <t>强迫术</t>
   </si>
   <si>
     <t>强迫术 Compulsion
@@ -2394,7 +2394,7 @@
 每个目标不会被强令走向明显致命的危害物中，比如火堆或陷坑里，不过目标在向指定方向移动时同样可以引起借机攻击。</t>
   </si>
   <si>
-    <t>5e 寒冰锥</t>
+    <t>寒冰锥</t>
   </si>
   <si>
     <t>寒冰锥 Cone of Cold
@@ -2409,7 +2409,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，法术伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 困惑术</t>
+    <t>困惑术</t>
   </si>
   <si>
     <t>困惑术 Confusion
@@ -2430,7 +2430,7 @@
 升环施法效应：使用5环或更高法术位施放本法术时，你使用的法术位每比4环高一环，球状区域半径就增加5尺。</t>
   </si>
   <si>
-    <t>5e 召唤动物</t>
+    <t>召唤动物</t>
   </si>
   <si>
     <t>召唤动物 Conjure Animals
@@ -2451,7 +2451,7 @@
 升环施法效应：使用更高法术位施放本法术时，选择上文所述召唤选项之一，并显现更多生物：5环法术位显现两倍生物，7环法术位显现三倍生物，9环法术位显现四倍生物。</t>
   </si>
   <si>
-    <t>5e 召唤箭雨</t>
+    <t>召唤箭雨</t>
   </si>
   <si>
     <t>召唤箭雨 Conjure Barrage
@@ -2464,7 +2464,7 @@
 你向空中射出一发非魔法的弹药或者掷出一把非魔法的投掷武器，并以之为原型向前方锥状区域内射出一片同样的武器，而这些创造出的武器将在攻击完成后消失不见。前方60尺锥状区域内的每个生物都必须进行一次敏捷豁免，豁免失败者将受到3d8点伤害，豁免成功则伤害减半。法术所造成伤害的类型与用作法术成分材料的弹药或武器相同。</t>
   </si>
   <si>
-    <t>5e 召唤天界生物</t>
+    <t>召唤天界生物</t>
   </si>
   <si>
     <t>召唤天界生物 Conjure Celestial
@@ -2480,7 +2480,7 @@
 升环施法效应：使用9环法术位施放本法术时，你将召唤一个挑战等级5或者更低的天界生物。</t>
   </si>
   <si>
-    <t>5e 召唤元素生物</t>
+    <t>召唤元素生物</t>
   </si>
   <si>
     <t>召唤元素生物 Conjure Elemental
@@ -2497,7 +2497,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，召唤生物挑战等级就增加1。</t>
   </si>
   <si>
-    <t>5e 召唤精类生物</t>
+    <t>召唤精类生物</t>
   </si>
   <si>
     <t>召唤精类生物 Conjure Fey
@@ -2513,7 +2513,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，召唤生物挑战等级就增加1。</t>
   </si>
   <si>
-    <t>5e 召唤次级元素生物</t>
+    <t>召唤次级元素生物</t>
   </si>
   <si>
     <t>召唤次级元素生物 Conjure Minor Elementals
@@ -2534,7 +2534,7 @@
 升环施法效应：使用更高法术位施放本法术时，选择上文 所述召唤选项之一，并显现更多生物：6环法术位显现两倍生物，8环法术位显现三倍生物。</t>
   </si>
   <si>
-    <t>5e 万箭齐发</t>
+    <t>万箭齐发</t>
   </si>
   <si>
     <t>万箭齐发 Conjure Volley
@@ -2547,7 +2547,7 @@
 你向空中用远程武器射出一发非魔法的弹药或者掷出一把非魔法的投掷武器，并指定施法距离内一点，随后，无数以所发射弹药或武器为原型的复制体向该点倾盆而下，并在完成攻击后消失不见。箭雨充斥以目标点为中心半径40尺，高20尺的柱状区域，其内的每个生物都必须进行一次敏捷豁免，豁免失败者将受到8d8点伤害，豁免成功则伤害减半。法术所造成伤害的类型与用作法术成分材料的弹药或武器相同。</t>
   </si>
   <si>
-    <t>5e 召唤林地之精</t>
+    <t>召唤林地之精</t>
   </si>
   <si>
     <t>召唤林地之精 Conjure Woodland Beings
@@ -2568,7 +2568,7 @@
 升环施法效应：使用更高法术位施放本法术时，选择上文所述召唤选项之一，并显现更多生物：6环法术位显现两倍生物，8环法术位显现三倍生物。</t>
   </si>
   <si>
-    <t>5e 异界探知</t>
+    <t>异界探知</t>
   </si>
   <si>
     <t>异界探知 Contact Other Plane
@@ -2582,7 +2582,7 @@
 豁免成功时，你可以询问该实体五个问题。你必须在法术结束前提出你的问题。而你所提出的每条问题DM都可以用一个单词作回答，比如“是”“不是”“可能”“不可能”“没关系”或是“不清楚”（如果该实体不知道该问题答案时）。如果一个单词的答案可能导致误导，DM可能会用一句短语来作为问题的答案。</t>
   </si>
   <si>
-    <t>5e 疫病术</t>
+    <t>疫病术</t>
   </si>
   <si>
     <t>疫病术 Contagion
@@ -2603,7 +2603,7 @@
 恶心症 Slimy Doom。患者开始不受控地流血。患病生物进行体质检定和体质豁免时具有劣势。另外每当该生物受到伤害时都会陷入震慑状态，直至其下一回合结束。</t>
   </si>
   <si>
-    <t>5e 触发术</t>
+    <t>触发术</t>
   </si>
   <si>
     <t>触发术 Contingency
@@ -2618,7 +2618,7 @@
 随因法术只能对你起作用，哪怕它通常可以指定其他目标现在也无法再作指定。你一次只能使用一个触发术，如果你在已施放本法术时再次施放本法术，则前一个触发术的效应立即终止。另外，当触发术的材料成分不在你的角色身上时，其法术效应也将立即终止。</t>
   </si>
   <si>
-    <t>5e 不灭明焰</t>
+    <t>不灭明焰</t>
   </si>
   <si>
     <t>不灭明焰 Continual Flame
@@ -2631,7 +2631,7 @@
 你在所触碰物件上制造如火把一样亮的火焰，使其看上去与一般火焰无异，不过其并不会发热，也不需要燃烧氧气。你可以掩盖或隐藏它，但无法将之闷熄或扑灭。</t>
   </si>
   <si>
-    <t>5e 操控水体</t>
+    <t>操控水体</t>
   </si>
   <si>
     <t>操纵水体/控制水体</t>
@@ -2651,7 +2651,7 @@
 漩涡 Whirlpool。该效应需要水体至少为50尺的方形区域并且至少有25尺深。你在区域中央形成一个漩涡。其形态为底部宽5尺顶部宽50尺，且25尺高。水中任何在漩涡25尺范围内的生物或物件将被漩涡向自身拉动10尺。受影响的生物可以进行一次力量（运动）检定来对抗你的法术DC，以通过游泳脱离漩涡控制。任何生物在一个回合内第一次进入漩涡或者在漩涡内开始其回合时，必须进行一次力量豁免。豁免失败者将受到2d8点钝击伤害，并被拖入漩涡中心直至法术终止。豁免成功则伤害减半，且不会被拖入漩涡。被拖入漩涡中心的生物可以用其动作尝试游泳来离开漩涡（如上文所述），但它此时进行的力量（运动）检定具有劣势。物件在一回合里第一次进入漩涡时受2d8点钝击伤害；如果物件保持在漩涡内，该伤害就会在每轮持续发生。</t>
   </si>
   <si>
-    <t>5e 操控天气</t>
+    <t>操控天气</t>
   </si>
   <si>
     <t>操纵天气/控制天气</t>
@@ -2691,7 +2691,7 @@
 5   暴风strom</t>
   </si>
   <si>
-    <t>5e 警戒之箭</t>
+    <t>警戒之箭</t>
   </si>
   <si>
     <t>警戒之箭 Cordon of Arrows
@@ -2706,7 +2706,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你的法术位每比2环高一环，可生效的弹药数量就增加两发。</t>
   </si>
   <si>
-    <t>5e 法术反制</t>
+    <t>法术反制</t>
   </si>
   <si>
     <t>法术反制 Counterspell
@@ -2720,7 +2720,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，如果被打断法术的环阶不高于你所用的法术位环阶，则该目标法术直接被打断。</t>
   </si>
   <si>
-    <t>5e 造粮术</t>
+    <t>造粮术</t>
   </si>
   <si>
     <t>造粮术 Create Food and Water
@@ -2733,7 +2733,7 @@
 你在施法距离内的地面或容器上创造45磅的食物和30加仑的水，其总量可以满足十五个类人生物或者五匹坐骑24小时的补给需求。食物非常清淡但营养丰富，并且如果24小时内不食用即会变坏。创造的水清洁可饮用且不会以该方式变质。</t>
   </si>
   <si>
-    <t>5e 造水/枯水术</t>
+    <t>造水/枯水术</t>
   </si>
   <si>
     <t>造水术/枯水术</t>
@@ -2752,7 +2752,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，法术就多创造或枯竭10加仑额外的水分，或者影响的立方区域边长增加5尺。</t>
   </si>
   <si>
-    <t>5e 唤起死灵</t>
+    <t>唤起死灵</t>
   </si>
   <si>
     <t>唤起死灵 Create Undead
@@ -2768,7 +2768,7 @@
 升环施法效应：使用7环法术位施放本法术时，你可以唤起或者维持四只食尸鬼。使用8环法术位施放本法术时，你可以唤起或维持五只食尸鬼，或者两只妖鬼，或者两个尸妖。当你使用9环法术位施放本法术时，你可以唤起或维持六只食尸鬼，或者三只妖鬼，或者三个尸妖，或者两个木乃伊。</t>
   </si>
   <si>
-    <t>5e 造物术</t>
+    <t>造物术</t>
   </si>
   <si>
     <t>造物术 Creation
@@ -2790,7 +2790,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，创造物尺寸的立方边长就加大5尺。</t>
   </si>
   <si>
-    <t>5e 疯狂冠冕</t>
+    <t>疯狂冠冕</t>
   </si>
   <si>
     <t>疯狂冠冕 Crown of Madness
@@ -2805,7 +2805,7 @@
 施法后你在每个自己回合里必须用你的动作维持对目标的控制，否则法术将提前终止。另外，受术目标还可以在每个自己回合结束时再进行一次感知豁免，豁免成功则法术终止。</t>
   </si>
   <si>
-    <t>5e 十字军披风</t>
+    <t>十字军披风</t>
   </si>
   <si>
     <t>十字军披风 Crusader's Mantle
@@ -2818,7 +2818,7 @@
 神圣的能量自你身上发出并形成30尺半径的灵光，并为友方生物激励勇气。在法术持续时间内，灵光将以你为中心随你移动。灵光范围内的非敌对生物（包括你自己）的武器攻击命中时将额外造成1d4的光耀伤害。</t>
   </si>
   <si>
-    <t>5e 疗伤术</t>
+    <t>疗伤术</t>
   </si>
   <si>
     <t>治疗伤口</t>
@@ -2835,7 +2835,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，恢复量就增加1d8。</t>
   </si>
   <si>
-    <t>5e 舞光术</t>
+    <t>舞光术</t>
   </si>
   <si>
     <t>舞光术 Dancing Lights
@@ -2849,7 +2849,7 @@
 你在自己回合可以用一个附赠动作令这些光源在施法距离内移动至多60尺。每个光源必需在另一个光源周边20尺内，而离开施法距离的光源会随即熄灭。</t>
   </si>
   <si>
-    <t>5e 黑暗术</t>
+    <t>黑暗术</t>
   </si>
   <si>
     <t>黑暗术 Darkness
@@ -2864,7 +2864,7 @@
 如果法术区域内有任何2环或更低环阶法术创造的光源，则这些造光的法术将被解除。</t>
   </si>
   <si>
-    <t>5e 黑暗视觉</t>
+    <t>黑暗视觉</t>
   </si>
   <si>
     <t>黑暗视觉 Darkvision
@@ -2877,7 +2877,7 @@
 你触碰一个自愿的生物，并给予其在黑暗中视物的能力。在法术持续时间内，该生物将拥有60尺的黑暗视觉。</t>
   </si>
   <si>
-    <t>5e 昼明术</t>
+    <t>昼明术</t>
   </si>
   <si>
     <t>日光术</t>
@@ -2895,7 +2895,7 @@
 如果法术区域内有任何3环或更低环阶法术创造的黑暗，则这些造暗的法术将被解除。</t>
   </si>
   <si>
-    <t>5e 防死结界</t>
+    <t>防死结界</t>
   </si>
   <si>
     <t>防死结界 Death Ward
@@ -2910,7 +2910,7 @@
 法术生效时，如果目标受到不造成伤害但直接致死效应影响时，改为该致死效应被取消，并终止本法术效应。</t>
   </si>
   <si>
-    <t>5e 延迟爆裂火球</t>
+    <t>延迟爆裂火球</t>
   </si>
   <si>
     <t>延迟爆裂火球 Delayed Blast Fireball
@@ -2927,7 +2927,7 @@
 升环施法效应：使用8环或更高法术位施放本法术时，你使用的法术位每比7环高一环，基础伤害就提高1d6。</t>
   </si>
   <si>
-    <t>5e 创造半位面</t>
+    <t>创造半位面</t>
   </si>
   <si>
     <t>创造半位面 Demiplane
@@ -2941,7 +2941,7 @@
 你每次施放本法术时都可以创造一个新的半位面，也可以连向用本法术创造的旧有的半位面。另外，如果你知晓了某个其他生物用本法术创造的半位面，则你也可以通过本法术连接到那里。</t>
   </si>
   <si>
-    <t>5e 湮灭波</t>
+    <t>湮灭波</t>
   </si>
   <si>
     <t>湮灭波 Destructive Wave
@@ -2954,7 +2954,7 @@
 你击打地面，并从身上爆发出一阵神圣能量。30尺范围内每个你所指定的生物都必须进行一次体质豁免。豁免失败者将受到5d6点雷鸣伤害以及5d6点光耀或黯蚀伤害（由你选择）并应击倒地，豁免成功则伤害减半且不会应击倒地。</t>
   </si>
   <si>
-    <t>5e 侦测善恶</t>
+    <t>侦测善恶</t>
   </si>
   <si>
     <t>侦测善恶 Detect Evil and Good
@@ -2968,7 +2968,7 @@
 本法术可以穿透大部分障碍，但仍会被1尺厚的石质、1寸厚的金属质、一层薄铅质、3尺厚木质或泥质材料阻隔。</t>
   </si>
   <si>
-    <t>5e 侦测魔法</t>
+    <t>侦测魔法</t>
   </si>
   <si>
     <t>侦测魔法 Detect Magic
@@ -2982,7 +2982,7 @@
 本法术可以穿透大部分障碍，但仍会被1尺厚的石质、1寸厚的金属质、一层薄铅质、3尺厚木质或泥质材料阻隔。</t>
   </si>
   <si>
-    <t>5e 侦测毒性和疾病</t>
+    <t>侦测毒性和疾病</t>
   </si>
   <si>
     <t>侦测毒素与疾病/侦测疾病与毒素/侦测疾病与毒性</t>
@@ -2999,7 +2999,7 @@
 本法术可以穿透大部分障碍，但仍会被1尺厚的石质、1寸厚的金属质、一层薄铅质、3尺厚木质或泥质材料阻隔。</t>
   </si>
   <si>
-    <t>5e 侦测思想</t>
+    <t>侦测思想</t>
   </si>
   <si>
     <t>侦测思想 Detect Thoughts
@@ -3016,7 +3016,7 @@
 以该方式侦测到一个生物后，你可以在法术持续时间内如上文所述的读取其思想。你甚至不需要看见该生物，但其必须在其30尺内。</t>
   </si>
   <si>
-    <t>5e 任意门</t>
+    <t>任意门</t>
   </si>
   <si>
     <t>任意门 Dimension Door
@@ -3031,7 +3031,7 @@
 如果你的目的地已经被生物或物件占据，则你以及任何与你一起传送的生物都将受到4d6点力场伤害，且法术传送失败。</t>
   </si>
   <si>
-    <t>5e 易容术</t>
+    <t>易容术</t>
   </si>
   <si>
     <t>易容术 Disguise Self
@@ -3046,7 +3046,7 @@
 如果一个生物想要分辨你是否易容，则必须使用一个动作揭露你的伪装，并进行一次智力（调查）检定以对抗你的法术豁免DC。</t>
   </si>
   <si>
-    <t>5e 解离术</t>
+    <t>解离术</t>
   </si>
   <si>
     <t>解离术 Disintegrate
@@ -3063,7 +3063,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，伤害就提高3d6。</t>
   </si>
   <si>
-    <t>5e 反制善恶</t>
+    <t>反制善恶</t>
   </si>
   <si>
     <t>反制善恶 Dispel Evil and Good
@@ -3079,7 +3079,7 @@
 驱逐 Dismissal。你使用动作发动一次近战法术攻击，攻击一个天界生物、元素生物、精类生物、邪魔或不死生物。命中时，你可以尝试将该生物驱逐回其原属位面。该生物必须成功通过一此魅力豁免，否则将强制返回其原属位面（若已在原属位面则无效）。比如精类生物会返回妖精荒野，不死生物会返回堕影冥界。</t>
   </si>
   <si>
-    <t>5e 解除魔法</t>
+    <t>解除魔法</t>
   </si>
   <si>
     <t>解除魔法 Dispel Magic
@@ -3093,7 +3093,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你直接终止目标身上小于等于该施法环阶的法术效应。</t>
   </si>
   <si>
-    <t>5e 不谐低语</t>
+    <t>不谐低语</t>
   </si>
   <si>
     <t>不谐低语 Dissonant Whispers
@@ -3107,7 +3107,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，伤害就提高1d6。</t>
   </si>
   <si>
-    <t>5e 预言术</t>
+    <t>预言术</t>
   </si>
   <si>
     <t>预言术 Divination
@@ -3122,7 +3122,7 @@
 若你在两次长休之间两次或更多次的施放本法术，则法术有概率会给出随机的结果。此概率从第二次施放起每次累计25％。其具体结果由DM暗骰决定。</t>
   </si>
   <si>
-    <t>5e 神恩</t>
+    <t>神恩</t>
   </si>
   <si>
     <t>神恩 Divine Favor
@@ -3135,7 +3135,7 @@
 你的祈祷赋予你神圣的光芒。在法术持续时间结束前，你的武器攻击命中时将造成额外1d4点光耀伤害。</t>
   </si>
   <si>
-    <t>5e 圣言术</t>
+    <t>圣言术</t>
   </si>
   <si>
     <t>圣言术 Divine Word
@@ -3153,7 +3153,7 @@
 对于受术的天界生物、元素生物、精类生物或邪魔，其豁免失败时不需考虑其当前生命值，并直接将其遣返回其原属位面（本来就处于原属位面则无效）。在随后24小时内，该生物不能通过任何方式回到当前位面，除非使用祈愿术的效应。</t>
   </si>
   <si>
-    <t>5e 支配野兽</t>
+    <t>支配野兽</t>
   </si>
   <si>
     <t>支配野兽 Dominate Beast
@@ -3170,7 +3170,7 @@
 升环施法效应：使用5环法术位施放本法术时，持续时间变为：专注，至多10分钟。使用6环法术位施放本法术时，持续时间变为：专注，至多1小时。使用7环或更高法术位施放本法术时，持续时间变为：专注，至多8小时。</t>
   </si>
   <si>
-    <t>5e 支配怪物</t>
+    <t>支配怪物</t>
   </si>
   <si>
     <t>支配怪物 Dominate Monster
@@ -3187,7 +3187,7 @@
 升环施法效应：使用9环法术位施放本法术时，持续时间变为：专注，至多8小时。</t>
   </si>
   <si>
-    <t>5e 支配人类</t>
+    <t>支配人类</t>
   </si>
   <si>
     <t>支配人类 Dominate Person
@@ -3204,7 +3204,7 @@
 升环施法效应：使用6环法术位施放本法术时，持续时间变为：专注，至多10分钟。使用7环法术位施放本法术时，持续时间变为：专注，至多1小时。使用8环或更高法术位施放本法术时，持续时间变为：专注，至多8小时。</t>
   </si>
   <si>
-    <t>5e 卓姆吉瞬间召唤</t>
+    <t>卓姆吉瞬间召唤</t>
   </si>
   <si>
     <t>卓姆吉瞬间召唤 Drawmij's Instant Summons
@@ -3220,7 +3220,7 @@
 解除魔法 dispel magic 或成功生效的类似效应作用于这颗蓝宝石时，将提前终止本法术。</t>
   </si>
   <si>
-    <t>5e 托梦术</t>
+    <t>托梦术</t>
   </si>
   <si>
     <t>托梦术 Dream
@@ -3236,7 +3236,7 @@
 如果你拥有目标身体的部分，比如头发，指甲或类似的东西。则目标进行该豁免时具有劣势。</t>
   </si>
   <si>
-    <t>5e 德鲁伊伎俩</t>
+    <t>德鲁伊伎俩</t>
   </si>
   <si>
     <t>德鲁伊伎俩 Druidcraft
@@ -3253,7 +3253,7 @@
 ·你可以立即点亮或熄灭一根蜡烛、一把火把或一处小篝火。</t>
   </si>
   <si>
-    <t>5e 地震术</t>
+    <t>地震术</t>
   </si>
   <si>
     <t>地震术 Earthquake
@@ -3271,7 +3271,7 @@
 建筑 Structures。在你施放本法术及法术终止前你的每个回合开始时，地震对影响区域内的所有建筑都造成50点钝击伤害。建筑生命值降为0时立即崩塌，且可能对附近生物造成伤害。与该建筑距离不大于该建筑高度一半的生物，都必须进行一次敏捷豁免。豁免失败则受5d6的钝击伤害并应击倒地且埋于废墟之下。该生物可用一个动作来进行一次DC20的力量（运动）检定来尝试逃离废墟。DM可根据废墟的情况调整DC高低。豁免成功时伤害减半，且不会倒地或被掩埋。</t>
   </si>
   <si>
-    <t>5e 魔能爆</t>
+    <t>魔能爆</t>
   </si>
   <si>
     <t>魔能爆 Eldritch Blast
@@ -3285,7 +3285,7 @@
 当你到达更高等级时，本法术还可以同时创造更多的射线：5级时两条，11级时三条，17级时四条。你可以决定这些射线攻击同一个目标或分别攻击不同的目标，且为每束射线分别进行攻击检定。</t>
   </si>
   <si>
-    <t>5e 元素武器</t>
+    <t>元素武器</t>
   </si>
   <si>
     <t>元素武器 Elemental Weapon
@@ -3299,7 +3299,7 @@
 升环施法效应：使用5环或6环法术位施放本法术时，攻击检定的加值变为+2，额外伤害变为2d4。使用7环或更高法术位施放本法术时，攻击检定的加值变为+3，额外伤害变为3d4。</t>
   </si>
   <si>
-    <t>5e 强化属性</t>
+    <t>强化属性</t>
   </si>
   <si>
     <t>强化属性 Enhance Ability
@@ -3319,7 +3319,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，就可以多指定一个目标。</t>
   </si>
   <si>
-    <t>5e 变巨/缩小术</t>
+    <t>变巨/缩小术</t>
   </si>
   <si>
     <t>变巨术/缩小术</t>
@@ -3340,7 +3340,7 @@
 其体型也因此降低一级，比如中型变为小型。在法术终止前，目标进行力量检定和力量豁免时具有劣势。目标的武器也会随之变小，而使用这变小的武器攻击时，将减少1d4的伤害（不会使伤害值低于1）。</t>
   </si>
   <si>
-    <t>5e 诱捕打击</t>
+    <t>诱捕打击</t>
   </si>
   <si>
     <t>诱捕打击 Ensnaring Strike
@@ -3355,7 +3355,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，伤害就提高1d6。</t>
   </si>
   <si>
-    <t>5e 纠缠术</t>
+    <t>纠缠术</t>
   </si>
   <si>
     <t>纠缠术 Entangle
@@ -3370,7 +3370,7 @@
 法术终止时，所召唤的植物随即枯萎。</t>
   </si>
   <si>
-    <t>5e 注目术</t>
+    <t>注目术</t>
   </si>
   <si>
     <t>注目术 Enthrall
@@ -3383,7 +3383,7 @@
 你编排了一段使人分心的话语，并指定施法距离内一个你能看见且可以听到你声音的生物作为法术目标。目标生物必须进行一次感知豁免并成功通过。任何不能被魅惑的生物进行该豁免时直接判定为豁免成功。如果你或你的同伴正在和该生物战斗，则其进行该豁免时具有优势。豁免失败时，目标对除你以外其他生物进行的感知（察觉）检定具有劣势，直到法术终止或目标听不到你为止。如果你陷入失能状态或不能再说话，则本法术终止。</t>
   </si>
   <si>
-    <t>5e 以太化</t>
+    <t>以太化</t>
   </si>
   <si>
     <t>以太化 Etherealness
@@ -3401,7 +3401,7 @@
 升环施法效应：使用8环或更高法术位施放本法术时，你使用的法术位每比7环高一环，你就可以多指定三个自愿生物作为法术目标（包括你在内）。这些生物在你施法时必须在你10尺内。</t>
   </si>
   <si>
-    <t>5e 艾伐黑触手</t>
+    <t>艾伐黑触手</t>
   </si>
   <si>
     <t>艾伐黑触手 Evard's Black Tentacles
@@ -3416,7 +3416,7 @@
 受触须束缚的生物可以使用动作进行一次对抗法术豁免DC的力量检定或敏捷检定（自选其一），检定成功则挣脱束缚。</t>
   </si>
   <si>
-    <t>5e 脚底抹油</t>
+    <t>脚底抹油</t>
   </si>
   <si>
     <t>脚底抹油 Expeditious Retreat
@@ -3429,7 +3429,7 @@
 本法术让你以惊人的步速移动。你在施放本法术时可以执行一次“疾走”动作。其后直至法术终止前的每个自己回合，你能以一个附赠动作执行“疾走”动作。</t>
   </si>
   <si>
-    <t>5e 摄心目光</t>
+    <t>摄心目光</t>
   </si>
   <si>
     <t>摄心目光 Eyebite
@@ -3445,7 +3445,7 @@
 患病 Sickened。目标发动攻击检定和进行能力检定时具有劣势。目标在每个其自己回合结束时都可以进行另一个感知豁免，豁免成功则该效应终止。</t>
   </si>
   <si>
-    <t>5e 鬼斧神工</t>
+    <t>鬼斧神工</t>
   </si>
   <si>
     <t>鬼斧神工 Fabricate
@@ -3460,7 +3460,7 @@
 生物或魔法物品不能作为本法术的原料或成品。你只有对制作某物品的工匠工具拥有熟练项时，才能使用本法术制作相应需要高工艺水平制作的物品，如珠宝、武器、玻璃、护甲等。</t>
   </si>
   <si>
-    <t>5e 妖火</t>
+    <t>妖火</t>
   </si>
   <si>
     <t>妖火 Faerie Fire
@@ -3474,7 +3474,7 @@
 受术生物或物件无法受益于隐形，且任何能看见他们的攻击者对其发动攻击检定时具有优势。</t>
   </si>
   <si>
-    <t>5e 虚假生命</t>
+    <t>虚假生命</t>
   </si>
   <si>
     <t>虚假生命 False Life
@@ -3488,7 +3488,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，其给予的临时生命值就增加5。</t>
   </si>
   <si>
-    <t>5e 恐惧术</t>
+    <t>恐惧术</t>
   </si>
   <si>
     <t>恐惧术 Fear
@@ -3502,7 +3502,7 @@
 被法术恐慌的生物必须在其回合内执行疾走Dash 动作，并以此寻找最安全的路线远离施法者，直至其无路可走为止。如果该生物在施法者视线范围外结束其回合，则其可以再进行一次感知豁免，豁免成功则法术对该生物的效应终止。</t>
   </si>
   <si>
-    <t>5e 羽落术</t>
+    <t>羽落术</t>
   </si>
   <si>
     <t>羽落术 Feather Fall
@@ -3515,7 +3515,7 @@
 在施法距离内指定至多五个正坠落的生物。受术生物的坠落速度在法术持续时间内降低至每轮60尺。如果该生物在法术终止前落地，则其不会受到任何坠落伤害，且可以安全的用脚着地。着地后法术对该生物的效应随即终止。</t>
   </si>
   <si>
-    <t>5e 弱智术</t>
+    <t>弱智术</t>
   </si>
   <si>
     <t>弱智术 Feeblemind
@@ -3531,7 +3531,7 @@
 另外，高等复原术 greater restoration，医疗术 heal 或者祈愿术 wish 可直接终止本法术的效应。</t>
   </si>
   <si>
-    <t>5e 假死术</t>
+    <t>假死术</t>
   </si>
   <si>
     <t>假死术 Feign Death
@@ -3545,7 +3545,7 @@
 在法术持续时间内，对目标进行的任何肉体检查和法术检测都显示目标已处于死亡状态。该状态下的目标陷入目盲以及失能状态，且其移动速度降低为0。目标对除了心灵伤害外的所有伤害类型具有抗性。如果目标在受术时正陷入疾病或中毒状态，或者在法术生效时陷入疾病或中毒状态，则这些状态在本法术持续时间内受抑制而无效，直至法术终止时再恢复生效。</t>
   </si>
   <si>
-    <t>5e 获得魔宠</t>
+    <t>获得魔宠</t>
   </si>
   <si>
     <t>取得魔宠/召唤魔宠</t>
@@ -3566,7 +3566,7 @@
 此外，当你施放施法距离为触及的法术时，你的魔宠可以帮你传递法术，其效果就如同本法术由魔宠施放一样。此时你的魔宠必须在你身边100尺范围内，且其必须可以执行反应来传递法术。如果传递的法术需要进行攻击检定，则该检定将使用你自己的攻击调整值。</t>
   </si>
   <si>
-    <t>5e 获得坐骑</t>
+    <t>获得坐骑</t>
   </si>
   <si>
     <t>召唤坐骑</t>
@@ -3586,7 +3586,7 @@
 你不能用本法术同时拥有一匹以上的坐骑，你可以随时用一个动作将坐骑从契约中解放，并使其消失不见。</t>
   </si>
   <si>
-    <t>5e 寻路术</t>
+    <t>寻路术</t>
   </si>
   <si>
     <t>寻路术 Find the Path
@@ -3600,7 +3600,7 @@
 你在法术持续时间内只要和目的地在同一位面，就知晓目的地的远近和所在方向。向目的地移动并遇到岔路时，你会本能的选择通往目的地最近、最直接的路（但不一定最安全）。</t>
   </si>
   <si>
-    <t>5e 寻找陷阱</t>
+    <t>寻找陷阱</t>
   </si>
   <si>
     <t>寻找陷阱 Find Traps
@@ -3614,7 +3614,7 @@
 本法术只单纯揭示陷阱的存在。你并不能以此一一定位每个存在的陷阱，不过你可以知晓所感测到陷阱其能够构成危害的大致形式。</t>
   </si>
   <si>
-    <t>5e 死亡一指</t>
+    <t>死亡一指</t>
   </si>
   <si>
     <t>死亡一指 Finger of Death
@@ -3628,7 +3628,7 @@
 被本法术杀死的类人生物将在你下一回合开始时唤起为一只受你操控的僵尸，并在随后尽力遵循你的语言指令。</t>
   </si>
   <si>
-    <t>5e 火球术</t>
+    <t>火球术</t>
   </si>
   <si>
     <t>火球术 Fireball
@@ -3643,7 +3643,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，其伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 火焰箭</t>
+    <t>火焰箭</t>
   </si>
   <si>
     <t>火焰箭 Fire Bolt
@@ -3657,7 +3657,7 @@
 第5级时，本法术的伤害增加1d10（变为2d10）。11级时再增加1d10（变为3d10），17级时再增加1d10（变为4d10）。</t>
   </si>
   <si>
-    <t>5e 火焰护盾</t>
+    <t>火焰护盾</t>
   </si>
   <si>
     <t>火焰护盾 Fire Shield
@@ -3672,7 +3672,7 @@
 此外，任何生物在你周围5尺范围内对你发动近战攻击时，护盾将对其迸出烈焰，温暖护盾将对攻击者造成2d8点火焰伤害，而冻寒护盾则对其造成2d8点冷冻伤害。</t>
   </si>
   <si>
-    <t>5e 火焰风暴</t>
+    <t>火焰风暴</t>
   </si>
   <si>
     <t>火焰风暴 Fire Storm
@@ -3686,7 +3686,7 @@
 风暴的烈焰将对区域内的物件造成伤害，并点燃区域内所有未被着装或携带的可燃物件。你可以选择让区域内的植物生命免受本法术效应的影响。</t>
   </si>
   <si>
-    <t>5e 火焰刀</t>
+    <t>火焰刀</t>
   </si>
   <si>
     <t>火焰刀 Flame Blade
@@ -3702,7 +3702,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高两环，其伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 焰击术</t>
+    <t>焰击术</t>
   </si>
   <si>
     <t>焰击术 Flame Strike
@@ -3716,7 +3716,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，其火焰伤害或光耀伤害（自选其一）就增加1d6。</t>
   </si>
   <si>
-    <t>5e 炽焰法球</t>
+    <t>炽焰法球</t>
   </si>
   <si>
     <t>炽焰法球 Flamingsphere
@@ -3732,7 +3732,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，其伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 石化术</t>
+    <t>石化术</t>
   </si>
   <si>
     <t>石化术 Flesh to Stone
@@ -3748,7 +3748,7 @@
 如果你在为本法术维持了最长持续时间的专注，则该生物变为石头的效应将保持至被移除为止。</t>
   </si>
   <si>
-    <t>5e 飞行术</t>
+    <t>飞行术</t>
   </si>
   <si>
     <t>飞行术 Fly
@@ -3762,7 +3762,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，就可以额外再指定一个生物作为法术目标。</t>
   </si>
   <si>
-    <t>5e 云雾术</t>
+    <t>云雾术</t>
   </si>
   <si>
     <t>云雾术 Fog Cloud
@@ -3776,7 +3776,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，浓雾的半径就增加20尺。</t>
   </si>
   <si>
-    <t>5e 禁制术</t>
+    <t>禁制术</t>
   </si>
   <si>
     <t>禁制术 Forbiddance
@@ -3792,7 +3792,7 @@
 本法术的效应区域不能与另一个禁制术的区域相重叠。你可以通过对同一区域连续30日每日施放禁制术来使其效应持续至被解除，并在最后一次施法时将本法术的材料成分消耗殆尽。</t>
   </si>
   <si>
-    <t>5e 魔力监牢</t>
+    <t>魔力监牢</t>
   </si>
   <si>
     <t>魔法监狱</t>
@@ -3813,7 +3813,7 @@
 本法术不能被法术解除魔法 dispel magic 所解除。</t>
   </si>
   <si>
-    <t>5e 预警术</t>
+    <t>预警术</t>
   </si>
   <si>
     <t>预警术 Foresight
@@ -3827,7 +3827,7 @@
 如果你在法术持续时间结束前再施放本法术，则原法术效应即时终止。</t>
   </si>
   <si>
-    <t>5e 行动自如</t>
+    <t>行动自如</t>
   </si>
   <si>
     <t>行动自如 Freedom of Movement
@@ -3842,7 +3842,7 @@
 （诸如镣铐或生物的擒抱等）。此外，目标在水下进行移动和攻击时不再受减益规则的限制。</t>
   </si>
   <si>
-    <t>5e 交友术</t>
+    <t>交友术</t>
   </si>
   <si>
     <t>交友术 Friends
@@ -3855,7 +3855,7 @@
 指定一个对你非敌对的生物，你在法术持续时间内对其进行的所有魅力检定均具有优势。当本法术终止时，该生物将意识到你曾使用魔法操弄他的情绪，从而对你的态度转为敌对。此时如果该生物有暴力倾向则会直接对你发动攻击，而非暴力倾向的生物则会寻求其他的报复形式（由DM决定），具体情况视你与其交互时的具体内容而定。</t>
   </si>
   <si>
-    <t>5e 气化形体</t>
+    <t>气化形体</t>
   </si>
   <si>
     <t>气化形体 Gaseous Form
@@ -3870,7 +3870,7 @@
 云雾形态的目标不能讲话或操作物件，其随身携带或持握的物件不会掉落，也不能被使用或与之互动。另外，目标也不能攻击或施法。</t>
   </si>
   <si>
-    <t>5e 异界之门</t>
+    <t>异界之门</t>
   </si>
   <si>
     <t>异界之门 Gate
@@ -3886,7 +3886,7 @@
 施放本法术时，你可以说出某个特定生物的名字（不能是假名、头衔、绰号等）。如果该生物在与你不同的位面，则传送门会紧挨被指名生物打开并将该生物吸进传送门。此时该生物会从你所在的传送门另一头出现，并显现在距传送门最近的未被占据空间。你不会获得任何被传送生物的特殊能力，而它此时可以自由的作任何DM认为合适的行动。它可能离开，也可以攻击你或协助你。</t>
   </si>
   <si>
-    <t>5e 指使术</t>
+    <t>指使术</t>
   </si>
   <si>
     <t>指使术 Geas
@@ -3902,7 +3902,7 @@
 升环施法效应：使用7环或8环法术位施放本法术时，持续时间变为1年。使用9环法术位施放本法术时，法术将一直持续至被上文提及的法术所终止。</t>
   </si>
   <si>
-    <t>5e 遗体防腐</t>
+    <t>遗体防腐</t>
   </si>
   <si>
     <t>遗体防腐 Gentle Repose
@@ -3916,7 +3916,7 @@
 本法术同样可以有效的延长复活目标的时间限制，因为受本法术影响下度过的时间不计入法术如死者复活 raise dead 的时间限制内。</t>
   </si>
   <si>
-    <t>5e 巨虫术</t>
+    <t>巨虫术</t>
   </si>
   <si>
     <t>巨虫术 Giant Insect
@@ -3932,7 +3932,7 @@
 DM可能会允许你指定不同的生物作为法术目标。例如，如果你转化一只蜜蜂，则其巨大版本可能会使用与巨黄蜂一样的属性数据。</t>
   </si>
   <si>
-    <t>5e 花言巧语</t>
+    <t>花言巧语</t>
   </si>
   <si>
     <t>花言巧语 Glibness
@@ -3945,7 +3945,7 @@
 直至法术终止前，你每次进行魅力检定时可以用15代替你掷出的数值。此外，无论你说什么，判断你是否说谎的魔法都会将你的话视为真实。</t>
   </si>
   <si>
-    <t>5e 法术无效结界</t>
+    <t>法术无效结界</t>
   </si>
   <si>
     <t>法术无效结界 Globe of Invulnerability
@@ -3961,7 +3961,7 @@
 升环施法效应：当你使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，屏障能阻挡的法术就高一环。</t>
   </si>
   <si>
-    <t>5e 守卫刻纹</t>
+    <t>守卫刻纹</t>
   </si>
   <si>
     <t>守卫刻文</t>
@@ -3984,7 +3984,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，一个爆炸符文的伤害就增加1d8。如果你创造一个法术符纹，则其储备法术的环阶可以与你施放守卫刻纹时使用的法术位相同。</t>
   </si>
   <si>
-    <t>5e 神莓术</t>
+    <t>神莓术</t>
   </si>
   <si>
     <t>神梅术</t>
@@ -4001,7 +4001,7 @@
 创造的浆果如果在法术施放后的24小时内没有被吃掉就会失去其效力。</t>
   </si>
   <si>
-    <t>5e 擒抱藤</t>
+    <t>擒抱藤</t>
   </si>
   <si>
     <t>擒抱藤 Grasping Vine
@@ -4015,7 +4015,7 @@
 直至本法术终止前，你可以在你的回合里用一个附赠动作指使藤蔓抽拉同一生物或者转向抽拉另一个生物。</t>
   </si>
   <si>
-    <t>5e 油腻术</t>
+    <t>油腻术</t>
   </si>
   <si>
     <t>油腻术 Grease
@@ -4029,7 +4029,7 @@
 油脂出现时，站在其范围内的每个生物必须进行一次敏捷豁免，豁免失败则失足倒地。进入该区域或在区域内结束其回合的生物也必须进行该敏捷豁免，豁免失败则失足倒地。</t>
   </si>
   <si>
-    <t>5e 高等隐形术</t>
+    <t>高等隐形术</t>
   </si>
   <si>
     <t>高等隐身术</t>
@@ -4045,7 +4045,7 @@
 你或一个你触碰的生物变为隐形，直至法术终止。任何保持在目标身上的着装物和携带物也可以维持隐形状态。</t>
   </si>
   <si>
-    <t>5e 高等复原术</t>
+    <t>高等复原术</t>
   </si>
   <si>
     <t>高等复原术 Greater Restoration
@@ -4062,7 +4062,7 @@
 ·一项降低目标生命值上限的效应</t>
   </si>
   <si>
-    <t>5e 信仰守卫</t>
+    <t>信仰守卫</t>
   </si>
   <si>
     <t>信仰守卫 Guardian of Faith
@@ -4076,7 +4076,7 @@
 任何与你敌对的生物在一回合内第一次进入守护者身边10尺范围内时必须进行一次敏捷豁免。豁免失败者将受到20点光耀伤害，豁免成功则伤害减半。守护者在造成总共60点伤害后随即消失。</t>
   </si>
   <si>
-    <t>5e 铜墙铁壁</t>
+    <t>铜墙铁壁</t>
   </si>
   <si>
     <t>铜墙铁壁 Guards and Wards
@@ -4102,7 +4102,7 @@
 当你在一年里对同一处每日连续施放本法术后，将创造出一个永久的铜墙铁壁效果。</t>
   </si>
   <si>
-    <t>5e 神导术</t>
+    <t>神导术</t>
   </si>
   <si>
     <t>神导术 Guidance
@@ -4115,7 +4115,7 @@
 你触碰一个自愿的生物。在法术终止前，目标可以选择在一次属性检定时额外掷一粒d4，并将所得数值加入检定结果中。它可以在进行属性检定之前或之后掷骰。法术随后即终止。</t>
   </si>
   <si>
-    <t>5e 曳光弹</t>
+    <t>曳光弹</t>
   </si>
   <si>
     <t>曳光弹 Guiding Bolt
@@ -4129,7 +4129,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 造风术</t>
+    <t>造风术</t>
   </si>
   <si>
     <t>造风术 Gust of Wind
@@ -4145,7 +4145,7 @@
 在法术终止前，你可以在自己回合内以一个附赠动作改变线状风道的方向。</t>
   </si>
   <si>
-    <t>5e 棘雹术</t>
+    <t>棘雹术</t>
   </si>
   <si>
     <t>棘雹术 Hail of Thorns
@@ -4159,7 +4159,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，伤害就增加1d10（最大伤害6d10）。</t>
   </si>
   <si>
-    <t>5e 圣居</t>
+    <t>圣居</t>
   </si>
   <si>
     <t>邪居</t>
@@ -4186,7 +4186,7 @@
 巧言 Tongues。受影响生物与区域内的任何其他生物即使语言不通也可以随意交流。</t>
   </si>
   <si>
-    <t>5e 幻景</t>
+    <t>幻景</t>
   </si>
   <si>
     <t>幻景 Hallucinatory Terrain
@@ -4200,7 +4200,7 @@
 地形的触觉特征不会改变，所以进入这片区域的生物可能会看穿幻象。如果触觉区别不明显，一个认真调查幻象的生物可以尝试进行一次对抗法术豁免DC的智力（调查）检定以揭穿幻象。对于一个识破了幻象本体的生物，幻象看起来就像是一层模糊的图像叠加在真实地形上。</t>
   </si>
   <si>
-    <t>5e 重伤术</t>
+    <t>重伤术</t>
   </si>
   <si>
     <t>重伤术 Harm
@@ -4213,7 +4213,7 @@
 你将致命的病害释放到施法距离内一个你能看见的生物身上。目标必须进行一次体质豁免，豁免失败则受到14d6的黯蚀伤害，豁免成功则伤害减半。该伤害不能将目标的生命值降至1以下。若目标体质豁免失败，则其生命值上限减损与该黯蚀伤害相等数值。减损效果维持一小时，且任何可移除疾病的效应均可在时限到达前将目标生命值上限恢复至正常值。</t>
   </si>
   <si>
-    <t>5e 加速术</t>
+    <t>加速术</t>
   </si>
   <si>
     <t>加速术 Haste
@@ -4227,7 +4227,7 @@
 法术终止时，目标将泛起一阵倦意使其不能移动也无法执行动作，并持续至其下一回合结束。</t>
   </si>
   <si>
-    <t>5e 医疗术</t>
+    <t>医疗术</t>
   </si>
   <si>
     <t>医疗术 Heal
@@ -4241,7 +4241,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，治疗量就增加10点。</t>
   </si>
   <si>
-    <t>5e 治愈真言</t>
+    <t>治愈真言</t>
   </si>
   <si>
     <t>治愈真言 Healing Word
@@ -4255,7 +4255,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，治疗量就增加1d4点。</t>
   </si>
   <si>
-    <t>5e 灼热金属</t>
+    <t>灼热金属</t>
   </si>
   <si>
     <t>灼热金属 Heat Metal
@@ -4270,7 +4270,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 炼狱叱喝</t>
+    <t>炼狱叱喝</t>
   </si>
   <si>
     <t>炼狱叱喝 Hellish Rebuke
@@ -4284,7 +4284,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，伤害就增加1d10。</t>
   </si>
   <si>
-    <t>5e 英雄宴</t>
+    <t>英雄宴</t>
   </si>
   <si>
     <t>英雄宴 Hero's Feast
@@ -4298,7 +4298,7 @@
 所有享用了大餐的生物都会获得几种增益。这些生物的所有疾病和中毒状态都会被治愈，并且免疫中毒和恐慌状态，其进行感知豁免时具有优势，生命值上限也将提高2d10点，并获得等量的生命值。这些增益将持续24小时。</t>
   </si>
   <si>
-    <t>5e 英雄气概</t>
+    <t>英雄气概</t>
   </si>
   <si>
     <t>英雄气概 Heroism
@@ -4312,7 +4312,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，就可以额外指定一个目标。</t>
   </si>
   <si>
-    <t>5e 脆弱诅咒</t>
+    <t>脆弱诅咒</t>
   </si>
   <si>
     <t>脆弱诅咒 Hex
@@ -4328,7 +4328,7 @@
 升环施法效应：使用3环或4环法术位施放本法术时，其专注可以维持至多8小时。使用5环或更高法术位施放本法术时，其专注可以维持至多24小时。</t>
   </si>
   <si>
-    <t>5e 怪物定身术</t>
+    <t>怪物定身术</t>
   </si>
   <si>
     <t>怪物定身术 Hold Monster
@@ -4343,7 +4343,7 @@
 指定目标时，每个目标生物必须身处其他目标30尺范围内。</t>
   </si>
   <si>
-    <t>5e 人类定身术</t>
+    <t>人类定身术</t>
   </si>
   <si>
     <t>人类定身术 Hold Person
@@ -4357,7 +4357,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，你就可以额外指定一个类人生物。指定目标时，每个目标生物必须身处其他目标30尺范围内。</t>
   </si>
   <si>
-    <t>5e 圣洁灵光</t>
+    <t>圣洁灵光</t>
   </si>
   <si>
     <t>圣洁灵光 Holy Aura
@@ -4370,7 +4370,7 @@
 神圣的光芒从你身体中奔涌而出，在你身边汇聚成半径30尺的柔光。施放本法术时，你指定处于柔光范围内的若干生物。被指定生物散发出半径5尺的微光光照，且其进行的所有豁免均具有优势，而其他生物对它们进行的攻击检定具有劣势。该效应将持续至法术终止。另外，当一个邪魔或不死生物以近战攻击命中受术生物时，其灵光将产生耀眼的爆发，而攻击者必须进行一次体质豁免，豁免失败者将陷入目盲直至法术终止。</t>
   </si>
   <si>
-    <t>5e 哈达之欲</t>
+    <t>哈达之欲</t>
   </si>
   <si>
     <t>哈达之欲 Hunger of Hadar
@@ -4384,7 +4384,7 @@
 虚无扭曲了空间的结构，使该区域内成为困难地形。任何在区域内开始其回合的生物将受到2d6点冷冻伤害。任何在区域内结束其回合的生物必须进行一次敏捷豁免，豁免失败者将因异界软体触手的触碰而受到2d6点强酸伤害。</t>
   </si>
   <si>
-    <t>5e 猎人印记</t>
+    <t>猎人印记</t>
   </si>
   <si>
     <t>猎人印记 Hunter's Mark
@@ -4398,7 +4398,7 @@
 升环施法效应：你使用3环或4环法术位施放本法术时，本法术的专注可以至多维持8小时。你使用5环或更高法术位施放本法术时，本法术的专注可以至多维持24小时。</t>
   </si>
   <si>
-    <t>5e 催眠图纹</t>
+    <t>催眠图纹</t>
   </si>
   <si>
     <t>催眠图纹 Hypnotic Pattern
@@ -4413,7 +4413,7 @@
 如果受术生物受到任何伤害，或者他人将其从恍惚中摇醒，则本法术在其身上的效应终止。</t>
   </si>
   <si>
-    <t>5e 冰风暴</t>
+    <t>冰风暴</t>
   </si>
   <si>
     <t>冰风暴 Ice Storm
@@ -4428,7 +4428,7 @@
 升环施法效应：使用5环或更高法术位施放本法术时，你使用的法术位每比4环高一环，钝击伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 鉴定术</t>
+    <t>鉴定术</t>
   </si>
   <si>
     <t>鉴定术 Identify
@@ -4442,7 +4442,7 @@
 如果你施法过程中一直接触的是一生物，则你将知晓其是否受法术影响，及产生影响的法术效应具体来自哪项法术。</t>
   </si>
   <si>
-    <t>5e 迷幻手稿</t>
+    <t>迷幻手稿</t>
   </si>
   <si>
     <t>迷幻手稿 Illusory Script
@@ -4457,7 +4457,7 @@
 如果法术被解除，则幻象和原始手稿一同消失不见。拥有真实视觉的生物可以读出其内被隐藏的信息。</t>
   </si>
   <si>
-    <t>5e 禁锢术</t>
+    <t>禁锢术</t>
   </si>
   <si>
     <t>禁锢术 Imprisonment
@@ -4484,7 +4484,7 @@
 你在同一时间内，使用同一种特殊材料只能创造一个监牢。如果你使用了同样的材料再次施放本法术，则先前被监禁的生物立刻从禁锢中解脱摆脱恢复自由。</t>
   </si>
   <si>
-    <t>5e 焚云术</t>
+    <t>焚云术</t>
   </si>
   <si>
     <t>焚云术 Incendiary Cloud
@@ -4499,7 +4499,7 @@
 在你的每回合开始时，烟云会向你指定的方向直线移动10尺。</t>
   </si>
   <si>
-    <t>5e 致伤术</t>
+    <t>致伤术</t>
   </si>
   <si>
     <t>造成伤口</t>
@@ -4516,7 +4516,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，伤害就增加1d10。</t>
   </si>
   <si>
-    <t>5e 疫病虫群</t>
+    <t>疫病虫群</t>
   </si>
   <si>
     <t>疫病虫群 Insect Plague
@@ -4531,7 +4531,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比6环高一环，伤害就增加1d10。</t>
   </si>
   <si>
-    <t>5e 隐形术</t>
+    <t>隐形术</t>
   </si>
   <si>
     <t>隐身术</t>
@@ -4548,7 +4548,7 @@
 升环施法效应：使用3环或更高的法术位施放本法术时，你使用的法术位每比2环高一环就可以额外指定一个目标。</t>
   </si>
   <si>
-    <t>5e 跳跃术</t>
+    <t>跳跃术</t>
   </si>
   <si>
     <t>跳跃术 Jump
@@ -4561,7 +4561,7 @@
 你触碰一个生物，并使该生物的跳跃距离在法术持续时间内增至三倍。</t>
   </si>
   <si>
-    <t>5e 敲击术</t>
+    <t>敲击术</t>
   </si>
   <si>
     <t>敲击术 Knock
@@ -4577,7 +4577,7 @@
 施放本法术时，受术目标会发出一声响亮的敲击声，其声响最远300尺内都能听见。</t>
   </si>
   <si>
-    <t>5e 通晓传奇</t>
+    <t>通晓传奇</t>
   </si>
   <si>
     <t>通晓传奇 Legend Lore
@@ -4591,7 +4591,7 @@
 你由此得到的信息必定是准确的，但仍可能会以隐晦的话语表达。例如，如果你拿着一把神秘的魔法斧，则本法术可能会给你如下信息：“斧头嫉恶如仇，触碰其之邪恶者即受其苦痛惩戒，哪怕仅是光身斧柄也会反噬恶人之手。斧头的真正威力正在沉睡，唯有真正的石之子——那些爱慕着摩拉丁又被其眷恋之人在双唇咏出圣言鲁那格 Rudnogg 时才能将其唤醒。”</t>
   </si>
   <si>
-    <t>5e 李欧蒙秘藏箱</t>
+    <t>李欧蒙秘藏箱</t>
   </si>
   <si>
     <t>李欧蒙秘藏箱 Leomund's Secret Chest
@@ -4606,7 +4606,7 @@
 60日之后，法术的效应会每日累计5%的概率自动结束。如果你再次施放本法术或箱子的模型被摧毁，又或者以一个动作终止本法术时，本法术的效应将随之终止。如果法术终止时箱子处于以太界，则其将不可挽回地丢失。</t>
   </si>
   <si>
-    <t>5e 李欧蒙小屋</t>
+    <t>李欧蒙小屋</t>
   </si>
   <si>
     <t>李欧蒙小屋 Leomund's Tiny Hut
@@ -4621,7 +4621,7 @@
 你可以在法术终止前使半球内的光照变为微光或黑暗。半球从外侧看是不透明的，并且呈现出由你选定的颜色，但从内侧看它则是透明的。</t>
   </si>
   <si>
-    <t>5e 次级复原术</t>
+    <t>次级复原术</t>
   </si>
   <si>
     <t>次级复原术 Lesser Restoration
@@ -4634,7 +4634,7 @@
 你触碰一个生物，并终止正影响它的一项疾病或一种状态。该状态可以是目盲，耳聋，麻痹或中毒其一。</t>
   </si>
   <si>
-    <t>5e 浮空术</t>
+    <t>浮空术</t>
   </si>
   <si>
     <t>浮空术 Levitate
@@ -4649,7 +4649,7 @@
 法术终止时，仍处于空中的目标会缓缓飘落到地面。</t>
   </si>
   <si>
-    <t>5e 光亮术</t>
+    <t>光亮术</t>
   </si>
   <si>
     <t>光亮术 Light
@@ -4663,7 +4663,7 @@
 如果你指定敌对生物所持握或着装的一个物件作为目标，则该生物必须进行一次敏捷豁免以尝试摆脱本法术的效应。</t>
   </si>
   <si>
-    <t>5e 闪电箭</t>
+    <t>闪电箭</t>
   </si>
   <si>
     <t>闪电箭 Lightning Arrow
@@ -4680,7 +4680,7 @@
 1d8。</t>
   </si>
   <si>
-    <t>5e 闪电束</t>
+    <t>闪电束</t>
   </si>
   <si>
     <t>闪电束 Lightning Bolt
@@ -4696,7 +4696,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 动植物定位术</t>
+    <t>动植物定位术</t>
   </si>
   <si>
     <t>动植物定位术 Locate Animals or Plants
@@ -4709,7 +4709,7 @@
 你点名或描述一种野兽或植物，并专注于附近的自然之音。如果5里内存在该类生物，你将知晓其中最接近个体与你的相对方位和距离。</t>
   </si>
   <si>
-    <t>5e 生物定位术</t>
+    <t>生物定位术</t>
   </si>
   <si>
     <t>生物定位术 Locate Creature
@@ -4724,7 +4724,7 @@
 如果至少10尺宽的流水横亘于你和被定位生物之间阻挡了二者间的通路，则该生物也无法被本法术所定位。</t>
   </si>
   <si>
-    <t>5e 物件定位术</t>
+    <t>物件定位术</t>
   </si>
   <si>
     <t>物件定位术 Locate Object
@@ -4739,7 +4739,7 @@
 如果有任意厚度的铅，即使只是薄薄一片铅片阻挡了你与被定位物件间的通路，则该物件也无法被本法术所定位。</t>
   </si>
   <si>
-    <t>5e 大步奔行</t>
+    <t>大步奔行</t>
   </si>
   <si>
     <t>大步奔行 Longstrider
@@ -4753,7 +4753,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，你就可以额外指定一个目标。</t>
   </si>
   <si>
-    <t>5e 法师护甲</t>
+    <t>法师护甲</t>
   </si>
   <si>
     <t>法师护甲 Mage Armor
@@ -4766,7 +4766,7 @@
 你触碰一个未着装护甲的自愿生物，使其受一个保护性魔法力场环绕直至法术终止。目标的基础AC变为13+它的敏捷调整值。目标着装护甲或你以一个动作解散本法术后法术随之终止。</t>
   </si>
   <si>
-    <t>5e 法师之手</t>
+    <t>法师之手</t>
   </si>
   <si>
     <t>法师之手 Mage Hand
@@ -4781,7 +4781,7 @@
 该幽灵手不能攻击，也不能激活魔法物品或承载超过10磅重的物质。</t>
   </si>
   <si>
-    <t>5e 防护法阵</t>
+    <t>防护法阵</t>
   </si>
   <si>
     <t>防护法阵 Magic Circle
@@ -4800,7 +4800,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，法术持续时间就增加1小时。</t>
   </si>
   <si>
-    <t>5e 魔魂壶</t>
+    <t>魔魂壶</t>
   </si>
   <si>
     <t>魔魂壶 Magic Jar
@@ -4819,7 +4819,7 @@
 本法术终止时，其容器将随之被摧毁。</t>
   </si>
   <si>
-    <t>5e 魔法飞弹</t>
+    <t>魔法飞弹</t>
   </si>
   <si>
     <t>魔法飞弹 Magic Missile
@@ -4833,7 +4833,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，本法术就会多制造出一支飞镖。</t>
   </si>
   <si>
-    <t>5e 魔嘴术</t>
+    <t>魔嘴术</t>
   </si>
   <si>
     <t>魔嘴术 Magic Mouth
@@ -4848,7 +4848,7 @@
 你所决定的触发条件可以很概括也可以很具体，不过你只能根据目标物件30尺内的视觉或听觉状况来设定条件。例如，你可以命令魔嘴在任何生物移动至物件30尺内时说出信息，或者当其30尺内有银铃响起时说出信息。</t>
   </si>
   <si>
-    <t>5e 魔化武器</t>
+    <t>魔化武器</t>
   </si>
   <si>
     <t>魔化武器 Magic Weapon
@@ -4862,7 +4862,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，加值增加至+2。使用6环或更高法术位施放本法术时，加值增加至+3。</t>
   </si>
   <si>
-    <t>5e 高等幻影</t>
+    <t>高等幻影</t>
   </si>
   <si>
     <t>高等幻影 Major Image
@@ -4878,7 +4878,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，法术会持续至解除且不需要你保持专注。</t>
   </si>
   <si>
-    <t>5e 群体疗伤术</t>
+    <t>群体疗伤术</t>
   </si>
   <si>
     <t>群体疗伤术 Mass Cure Wounds
@@ -4892,7 +4892,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你使用的法术位每比5环高一环，其治疗量就增加1d8。</t>
   </si>
   <si>
-    <t>5e 群体医疗术</t>
+    <t>群体医疗术</t>
   </si>
   <si>
     <t>群体医疗术 Mass Heal
@@ -4905,7 +4905,7 @@
 泉涌般的治愈能量从你流向你周围受伤的生物。你为施法距离内任意数量你能看见的生物恢复总计至多700点生命值，而具体治疗量则由你随意分配。受本法术所治疗的生物其所有疾病以及导致它们目盲或耳聋的效应也一并被治愈。本法术对不死生物和构装生物无效。</t>
   </si>
   <si>
-    <t>5e 群体治愈真言</t>
+    <t>群体治愈真言</t>
   </si>
   <si>
     <t>群体治愈真言 Mass Healing Word
@@ -4919,7 +4919,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，其治疗量就增加1d4。</t>
   </si>
   <si>
-    <t>5e 群体暗示术</t>
+    <t>群体暗示术</t>
   </si>
   <si>
     <t>群体暗示术 Mass Suggestion
@@ -4936,7 +4936,7 @@
 升环施法效应：使用7环法术位施放本法术时，持续时间变为10日。使用8环法术位施放本法术时，持续时间变为30日。使用9环法术位施放本法术时，持续时间变为一年零一日。</t>
   </si>
   <si>
-    <t>5e 迷宫术</t>
+    <t>迷宫术</t>
   </si>
   <si>
     <t>迷宫术 Maze
@@ -4951,7 +4951,7 @@
 法术终止时，目标将重新出现在它之前消失的位置。如果该位置被占据，则目标出现在最近的未占据位置。</t>
   </si>
   <si>
-    <t>5e 融身入石</t>
+    <t>融身入石</t>
   </si>
   <si>
     <t>融身入石 Meld into Stone
@@ -4966,7 +4966,7 @@
 石头所受的轻微损伤不会对你造成伤害，不过石头部分损毁或者形状改变时（改变到不再适合容纳你的程度），会将你从石中排挤出并对你造成6d6的钝击伤害。石头完全损毁（或材质改变）时，也会将你从石中排挤出并对你造成50点钝击伤害。被排挤出石头时，你将被摔至距离第一次进入石头处最近一处未被占据的空间位置，并陷入倒地状态。</t>
   </si>
   <si>
-    <t>5e 马友夫强酸箭</t>
+    <t>马友夫强酸箭</t>
   </si>
   <si>
     <t>马友夫强酸箭 Melf's Acid Arrow
@@ -4980,7 +4980,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，其初始伤害和后续伤害就各增加1d4。</t>
   </si>
   <si>
-    <t>5e 修复术</t>
+    <t>修复术</t>
   </si>
   <si>
     <t>修复术 Mending
@@ -4994,7 +4994,7 @@
 本法术可以从物理上修复一件魔法物品或一个构装体，但不会恢复这类物件上的魔法。</t>
   </si>
   <si>
-    <t>5e 传讯术</t>
+    <t>传讯术</t>
   </si>
   <si>
     <t>传讯术 Message
@@ -5008,7 +5008,7 @@
 你可以隔着固态物件施放本法术，但你必须熟悉法术目标并知晓其就在屏障后方。魔法的沉默，1尺厚的石头、1寸厚的普通金属、一片薄铅片，或者3尺厚的木料都可以阻挡本法术。本法术不需要直线传递信息，它可以自由地转过拐角或穿过孔洞。</t>
   </si>
   <si>
-    <t>5e 流星爆</t>
+    <t>流星爆</t>
   </si>
   <si>
     <t>流星爆 Meteor Swarm
@@ -5022,7 +5022,7 @@
 本法术会对区域内的物件造成伤害，并点燃所有未被着装或携带的易燃物。</t>
   </si>
   <si>
-    <t>5e 心灵屏障</t>
+    <t>心灵屏障</t>
   </si>
   <si>
     <t>心灵屏障 Mind Blank
@@ -5035,7 +5035,7 @@
 直至法术终止前，你所触碰的一个自愿生物对下列项目具有免疫：心灵伤害；任何可以感知到其情绪或阅读其思想的效应；预言法术；魅惑状态。当目标受祈愿术 wish 或者其他威力相当的法术或效应影响心智或窃获信息时，其也能以本法术进行阻挡。</t>
   </si>
   <si>
-    <t>5e 次级幻影</t>
+    <t>次级幻影</t>
   </si>
   <si>
     <t>次级幻影 Minor Illusion
@@ -5051,7 +5051,7 @@
 生物用其动作调查该声响或影像时，必须进行一次对抗本法术豁免DC的智力（调查）检定，检定成功则判断出眼前即是幻象。幻象在看穿它的生物面前会显得模糊不清。</t>
   </si>
   <si>
-    <t>5e 海市蜃楼</t>
+    <t>海市蜃楼</t>
   </si>
   <si>
     <t>海市蜃楼 Mirage Arcane
@@ -5067,7 +5067,7 @@
 拥有真实视觉的生物可以看穿幻术，洞悉地形的真实形态； 然而幻象的所有其它元素仍会得以保留，所以一个意识到这是幻象的生物仍然可以与该幻象进行物理互动。</t>
   </si>
   <si>
-    <t>5e 镜影术</t>
+    <t>镜影术</t>
   </si>
   <si>
     <t>镜影术 Mirror Image
@@ -5084,7 +5084,7 @@
 如果一个生物无法视物，或者它可以依靠视觉之外的其它感官（例如盲视），又或者它可以如同真实视觉一样洞察幻象，则本法术无法影响该生物。</t>
   </si>
   <si>
-    <t>5e 假象术</t>
+    <t>假象术</t>
   </si>
   <si>
     <t>假象术 Mislead
@@ -5099,7 +5099,7 @@
 你可以通过分身的眼睛视物，用分身的耳朵聆听，如同你处于它的位置一样。你可以在自己回合内以一个附赠动作在自己与分身的感官间切换。而当你使用分身的感官时，本体周边的事物对你而言等同于处于目盲且耳聋的状态。</t>
   </si>
   <si>
-    <t>5e 迷踪步</t>
+    <t>迷踪步</t>
   </si>
   <si>
     <t>迷踪步 Misty Step
@@ -5112,7 +5112,7 @@
 你短暂地被银白的雾气所笼罩，传送到至多30尺内一个你能看见且未被占据的位置。</t>
   </si>
   <si>
-    <t>5e 篡改记忆</t>
+    <t>篡改记忆</t>
   </si>
   <si>
     <t>修改记忆</t>
@@ -5134,7 +5134,7 @@
 升环施法效应：使用6环或更高法术位施放本法术时，你可以改变目标关于过去7日内（6环）、30日内（7环）、1年内（8环）或者在过去任意时刻（9环）所发生事件的记忆。</t>
   </si>
   <si>
-    <t>5e 月华之光</t>
+    <t>月华之光</t>
   </si>
   <si>
     <t>月华之光 Moonbeam
@@ -5151,7 +5151,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，其伤害就增加1d10。</t>
   </si>
   <si>
-    <t>5e 魔邓肯忠犬</t>
+    <t>魔邓肯忠犬</t>
   </si>
   <si>
     <t>魔邓肯忠犬 Mordenkainen's Faithful Hound
@@ -5166,7 +5166,7 @@
 在你的每回合开始时，守护犬会尝试啮咬其5尺范围内一个与你敌对的生物。它的攻击加值等于你施法关键属性调整值+你的熟练加值。若命中，则造成4d8点穿刺伤害。</t>
   </si>
   <si>
-    <t>5e 魔邓肯豪宅术</t>
+    <t>魔邓肯豪宅术</t>
   </si>
   <si>
     <t>魔邓肯豪宅术 Mordenkainen's Magnificent Mansion
@@ -5181,7 +5181,7 @@
 你可以随意创造自己喜欢的房间构造，但其总体积不得超过50个边长10尺的立方体。房间内依你喜好配置好家具和装饰，其内储备的食材足以制作供100人享用的九道菜大餐。一组共100名的半透明仆从会招待任何进入房间的人。仆从的外观衣着由你决定，而它们会完全服从你的命令。每个仆从都可以完成一个普通人程度的工作，但它们不能攻击或者进行任何直接伤害其他生物的行动。因而仆从可以完成的工作包括：取来物品、清洁、修理、叠衣服、生火、上菜、倒酒等等。仆从可以去豪宅中的任何地方，但不能里开宅子。由本法术创造的家具和其他物品如果被移出豪宅，就会消散成烟雾。本法术终止时，任何处于该异次元空间内的生物和物件都将被移出空间内，并出现在距离入口最近的开放空间内。</t>
   </si>
   <si>
-    <t>5e 魔邓肯私人密室</t>
+    <t>魔邓肯私人密室</t>
   </si>
   <si>
     <t>魔邓肯私人密室 Mordenkainen's Private Sanctum
@@ -5203,7 +5203,7 @@
 升环施法效应：使用5环或更高法术位施放本法术时，你使用的法术位每比4环高一环，你就可以将被保护的立方区域边长增加100尺。比如使用5环法术位时，你就能保护边长至多200尺的立方区域。</t>
   </si>
   <si>
-    <t>5e 魔邓肯之剑</t>
+    <t>魔邓肯之剑</t>
   </si>
   <si>
     <t>魔邓肯之剑 Mordenkainen's Sword
@@ -5217,7 +5217,7 @@
 秘法剑出现时，你可以对该剑5尺内的一个自选目标发动一次近战法术攻击。命中时，目标受到3d10点力场伤害。在法术持续时间内，你可以在自己回合使用一个附赠动作将剑移动至多20尺。移动的目的地你必须能够看见，而移动完成后你还可以对同一目标或不同的目标再发动一次该攻击。</t>
   </si>
   <si>
-    <t>5e 地动术</t>
+    <t>地动术</t>
   </si>
   <si>
     <t>地动术 Move Earth
@@ -5234,7 +5234,7 @@
 此外，本法术也无法直接影响植物生长。而被移走的土壤会带走任何生长在其上的植物。</t>
   </si>
   <si>
-    <t>5e 回避侦测</t>
+    <t>回避侦测</t>
   </si>
   <si>
     <t>回避侦测 Nondetection
@@ -5247,7 +5247,7 @@
 在法术持续时间内，你触碰一个目标并使其躲开来自预言魔法的侦测。目标可以是一个自愿生物，一处地点或一个在各个方向上不超过10尺的物件。目标在持续时间内不能成为预言魔法的目标，也不能通过魔法探知传感器被感测到。</t>
   </si>
   <si>
-    <t>5e 涅斯图魔法灵光</t>
+    <t>涅斯图魔法灵光</t>
   </si>
   <si>
     <t>涅斯图魔法灵光 Nystul's Magic Aura
@@ -5263,7 +5263,7 @@
 伪装 Mask。针对目标生物类别的侦测法术和魔法效应（例如圣武士的“神圣感知”，或法术徽记术的触发条件）将显示不  同的信息。你选择一种生物类别，其他法术和魔法效应将会认为目标生物属于该类别或者属于该类别所属阵营。</t>
   </si>
   <si>
-    <t>5e 欧提路克冰封法球</t>
+    <t>欧提路克冰封法球</t>
   </si>
   <si>
     <t>欧提路克冰封法球 Otiluke's Freezingsphere
@@ -5281,7 +5281,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，其伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 欧提路克弹力法球</t>
+    <t>欧提路克弹力法球</t>
   </si>
   <si>
     <t>欧提路克弹力法球 Otiluke's Resilientsphere
@@ -5297,7 +5297,7 @@
 对球体施放解离术disintegrate 后可以摧毁球体而不伤害球内的任何事物。</t>
   </si>
   <si>
-    <t>5e 奥图迷舞</t>
+    <t>奥图迷舞</t>
   </si>
   <si>
     <t>奥图迷舞 Otto's Irresistible Dance
@@ -5311,7 +5311,7 @@
 正在跳舞的生物必须用掉它全部的移动力在原地跳舞，其进行敏捷豁免和攻击检定时具有劣势。目标受本法术影响时，其它生物对其进行的攻击检定具有优势。正在跳舞的生物可以使用一个动作来进行一次感知豁免，豁免成功则法术终止。</t>
   </si>
   <si>
-    <t>5e 行动无踪</t>
+    <t>行动无踪</t>
   </si>
   <si>
     <t>行动无踪 Pass without Trace
@@ -5324,7 +5324,7 @@
 阴影和沉默的幕障从你身上辐射而出，并隔绝任何对你和你的同伴进行的探测。你指定自身30尺内的若干生物（包括你自己）。在法术持续时间内，目标生物进行敏捷（隐匿）检定时具有+10加值，且不能被魔法手段以外的方式追踪。拥有该加值的生物走过某处时不会留下足印或其他踪迹。</t>
   </si>
   <si>
-    <t>5e 穿墙术</t>
+    <t>穿墙术</t>
   </si>
   <si>
     <t>穿墙术 Passwall
@@ -5338,7 +5338,7 @@
 开口消失时，任何还留在该通道中的生物或物件都会被安全的弹至距受术表面最近的未占据空间。</t>
   </si>
   <si>
-    <t>5e 魅影之力</t>
+    <t>魅影之力</t>
   </si>
   <si>
     <t>魅影之力 Phantasmal Force
@@ -5355,7 +5355,7 @@
 受法术影响的目标对幻象的真实性深信不疑，甚至还会受到幻象的直接伤害。一个生物模样的幻象可以攻击目标。比如，显现为火焰，酸池或岩浆的幻象能够烧伤目标。在你的每一回合，如果目标在幻象的伤害区域内或在其显现的生物周边5尺攻击范围内，则幻象可以对目标造成1d6点心灵伤害。而此时目标则会感觉该伤害与幻象所显现的类型相符。</t>
   </si>
   <si>
-    <t>5e 魅影杀手</t>
+    <t>魅影杀手</t>
   </si>
   <si>
     <t>魅影杀手 Phantasmal Killer
@@ -5369,7 +5369,7 @@
 升环施法效应：使用5环或更高的法术位施放本法术时，你使用的法术位每比4环高一环，伤害就增加1d10。</t>
   </si>
   <si>
-    <t>5e 魅影驹</t>
+    <t>魅影驹</t>
   </si>
   <si>
     <t>魅影驹 Phantom Steed
@@ -5383,7 +5383,7 @@
 在法术持续时间内，你或者一个你指定的生物可以骑乘此战驹。战驹使用骑乘用马的属性数据，不过其具有速度100尺，其每小时路程普通时可达10里，以快速步调行进时可达13里。法术终止时，战驹会慢慢消失，让骑手有1分钟的时间下马结束骑乘。你用一个动作解散战驹，或是当战驹受到伤害时，法术也将随即终止。</t>
   </si>
   <si>
-    <t>5e 异界誓盟</t>
+    <t>异界誓盟</t>
   </si>
   <si>
     <t>异界誓盟 Planar Ally
@@ -5401,7 +5401,7 @@
 应召加入你队伍的生物算作队伍成员，并正常分享获得的经验值。</t>
   </si>
   <si>
-    <t>5e 异界誓缚</t>
+    <t>异界誓缚</t>
   </si>
   <si>
     <t>异界誓缚 Planar Binding
@@ -5417,7 +5417,7 @@
 时间增为10日，7环则增为30日，8环为180日，9环为一年零一日。</t>
   </si>
   <si>
-    <t>5e 异界传送</t>
+    <t>异界传送</t>
   </si>
   <si>
     <t>异界传送 Plane Shift
@@ -5432,7 +5432,7 @@
 你可以用本法术放逐一个非自愿的生物到另一位面。指定一个你触及范围内的生物并对它进行一次近战法术攻击。命中时，此生物必须进行一次魅力豁免。豁免失败者将被传送到你指定位面的一个随机地点。被这样传送走的生物必须自行寻找回到你现在位面的路。</t>
   </si>
   <si>
-    <t>5e 植物滋长</t>
+    <t>植物滋长</t>
   </si>
   <si>
     <t>植物滋长 Plant Growth
@@ -5448,7 +5448,7 @@
 用8小时施放本法术时，你可以使这片土地肥沃。你指定施法距离内一点，该点周边半径半里的的植物将在1年内变的茂盛。这些植物收获时将产出两倍于正常产量的作物。</t>
   </si>
   <si>
-    <t>5e 毒气喷溅</t>
+    <t>毒气喷溅</t>
   </si>
   <si>
     <t>毒气喷溅 Poisonspray
@@ -5462,7 +5462,7 @@
 第5级时，本法术的伤害增加1d12（变为2d12）。11级时再增加1d12（变为3d12），17级时再增加1d12（变为4d12）。</t>
   </si>
   <si>
-    <t>5e 变形术</t>
+    <t>变形术</t>
   </si>
   <si>
     <t>变形术 Polymorph
@@ -5479,7 +5479,7 @@
 目标的装备融入新形态中，但其不能启动，使用，持握或以其他方式从其装备上获得增益。</t>
   </si>
   <si>
-    <t>5e 律令医疗</t>
+    <t>律令医疗</t>
   </si>
   <si>
     <t>律令医疗 Power Word Heal
@@ -5492,7 +5492,7 @@
 一波治疗能量覆盖你所触碰的生物，并使目标恢复其所有的生命值。如果该生物正处于魅惑，惊惧，麻痹或震慑状态，则终止相应状态。如果该生物正处于倒地状态，则他可以执行其反应站起。本法术无法对不死生物和构装生物生效。</t>
   </si>
   <si>
-    <t>5e 律令死亡</t>
+    <t>律令死亡</t>
   </si>
   <si>
     <t>律令死亡 Power Word Kill
@@ -5505,7 +5505,7 @@
 你发出一个威力满溢的单词，其足以使施法距离内一个你能看见的生物立即死亡。如果你所指定的生物现有生命值为100或更少，则其立即死亡。否则本法术不产生任何效应。</t>
   </si>
   <si>
-    <t>5e 律令震慑</t>
+    <t>律令震慑</t>
   </si>
   <si>
     <t>律令震慑 Power Word Stun
@@ -5519,7 +5519,7 @@
 被震慑目标必须在其每回合结束时进行一次体质豁免。豁免成功，则此震慑效果终止。</t>
   </si>
   <si>
-    <t>5e 治疗祷言</t>
+    <t>治疗祷言</t>
   </si>
   <si>
     <t>治疗祷言 Prayer of Healing
@@ -5533,7 +5533,7 @@
 升环施法效应：当你使用3环或更高法术位施放本法术时，你使用的法术位每比2环高一环，治疗量就增加1d8。</t>
   </si>
   <si>
-    <t>5e 魔法伎俩</t>
+    <t>魔法伎俩</t>
   </si>
   <si>
     <t>魔法伎俩 Prestidigitation
@@ -5553,7 +5553,7 @@
 如果你多次施放本法术，则可以同时维持至多三个不同的非即时效应，并且可以用一个动作解散其中一种效应。</t>
   </si>
   <si>
-    <t>5e 虹光喷射</t>
+    <t>虹光喷射</t>
   </si>
   <si>
     <t>虹光喷射 Prismaticspray
@@ -5574,7 +5574,7 @@
 8.特殊special。目标被两条射线打中。再掷两次，结果为8时再重掷。</t>
   </si>
   <si>
-    <t>5e 虹光法墙</t>
+    <t>虹光法墙</t>
   </si>
   <si>
     <t>虹光法墙 Prismatic Wall
@@ -5597,7 +5597,7 @@
 7.紫 Violet。生物豁免失败时陷入目盲。其必须在你下一回合开始时进行一次感知豁免。豁免成功则目盲状态终止。豁免失败则该生物被传送到另一个DM指定的位面并且不再目盲。（典型情况是不在家乡位面的生物被驱逐回家，而其他生物通常会被传送到星界或以太位面。）该光层在受法术解除魔法dispel magic，或者其他类似的相同或更高环阶法术所产生的终止法术魔法效应的影响时被摧毁。</t>
   </si>
   <si>
-    <t>5e 燃火术</t>
+    <t>燃火术</t>
   </si>
   <si>
     <t>燃火术 Produce Flame
@@ -5612,7 +5612,7 @@
 第5级时，本法术的伤害增加1d8（变为2d8）。11级时再增加1d8（变为3d8），17级时再增加1d8（变为4d8）。</t>
   </si>
   <si>
-    <t>5e 预置幻影</t>
+    <t>预置幻影</t>
   </si>
   <si>
     <t>预置幻影 Programmed Illusion
@@ -5628,7 +5628,7 @@
 由于幻象无法被碰到，任何与该幻象进行的物理互动都会暴露其幻觉本质。一个生物用其动作调查幻象时，它可以进行一次对抗法术豁免DC的智力（调查）检定，以判定是否看穿幻象。辨出幻象的生物可以看穿该影像，其产生的声响对该生物而言显得虚假。</t>
   </si>
   <si>
-    <t>5e 投影术</t>
+    <t>投影术</t>
   </si>
   <si>
     <t>投影术 Project Image
@@ -5644,7 +5644,7 @@
 由于幻象无法被碰到，任何与该幻象进行的物理互动都会暴露其幻觉本质。一个生物用其动作调查幻象时，它可以进行一次对抗法术豁免DC的智力（调查）检定，以判定是否看穿幻象。辨出幻象的生物可以看穿该影像，其产生的声响对该生物而言显得虚假。</t>
   </si>
   <si>
-    <t>5e 防护能量伤害</t>
+    <t>防护能量伤害</t>
   </si>
   <si>
     <t>防护能量伤害 Protection from Energy
@@ -5657,7 +5657,7 @@
 受你触碰的一个自愿生物在法术持续时间内对下列你指定的一种伤害类型具有抗性：强酸、冷冻、火焰、闪电、雷鸣。</t>
   </si>
   <si>
-    <t>5e 防护善恶</t>
+    <t>防护善恶</t>
   </si>
   <si>
     <t>防护善恶 Protection from Evil and Good
@@ -5671,7 +5671,7 @@
 该防护提供以下增益：该类生物对目标生物进行的攻击检定具有劣势；目标不会被该类生物魅惑、恐慌或附身；如果目标已被该类生物影响而陷入魅惑、恐慌，或被附身，则目标之后进行对抗相关效应的豁免检定时具有优势。</t>
   </si>
   <si>
-    <t>5e 防护毒素</t>
+    <t>防护毒素</t>
   </si>
   <si>
     <t>防护毒素 Protection from Poison
@@ -5685,7 +5685,7 @@
 在法术持续时间内，目标对抗中毒所豁免具有优势，并且对毒素伤害具有抗性。</t>
   </si>
   <si>
-    <t>5e 净化食粮</t>
+    <t>净化食粮</t>
   </si>
   <si>
     <t>净化食粮 Purify Food and Drink
@@ -5698,7 +5698,7 @@
 你指定施法距离内一点，净化指定点周围半径5尺球状区域内的非魔法饮食品，并驱除其浸染的所有毒素和疾病。</t>
   </si>
   <si>
-    <t>5e 死者复活</t>
+    <t>死者复活</t>
   </si>
   <si>
     <t>死者复活 Raise Dead
@@ -5713,7 +5713,7 @@
 死而复生是一个痛苦的体验。复活的目标在随后进行攻击检定、豁免检定和属性检定时具有-4减值。该目标每完成一次长休，其减值就减少1，依次叠加直至减值完全消失。</t>
   </si>
   <si>
-    <t>5e 拉瑞心灵联结</t>
+    <t>拉瑞心灵联结</t>
   </si>
   <si>
     <t>拉瑞心灵连接/拉瑞心灵链接/心灵连接/心灵链接</t>
@@ -5730,7 +5730,7 @@
 在本法术终止前，所有受术生物都可以通过心灵连线与其他受术生物进行心灵交流，而不论他们是否语言相通。该交流方式可以跨越任意远近的距离但不能跨位面进行。</t>
   </si>
   <si>
-    <t>5e 衰弱射线</t>
+    <t>衰弱射线</t>
   </si>
   <si>
     <t>衰弱射线 Ray of Enfeeblement
@@ -5744,7 +5744,7 @@
 目标在其每回合结束时可以进行一次对抗本法术的体质豁免。豁免成功则法术终止。</t>
   </si>
   <si>
-    <t>5e 冷冻射线</t>
+    <t>冷冻射线</t>
   </si>
   <si>
     <t>寒冰射线</t>
@@ -5761,7 +5761,7 @@
 第5级时，本法术的伤害增加1d8（变为2d8）。11级时再增加1d8（变为3d8），17级时再增加1d8（变为4d8）。</t>
   </si>
   <si>
-    <t>5e 致病射线</t>
+    <t>致病射线</t>
   </si>
   <si>
     <t>致病射线 Ray of Sickness
@@ -5775,7 +5775,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 再生术</t>
+    <t>再生术</t>
   </si>
   <si>
     <t>再生术 Regenerate
@@ -5789,7 +5789,7 @@
 如果目标失去了某些身体部位（手指、腿、尾巴等等），则这些部位将在2分钟后会重新长出。如果你持有失去的身体部位并且将其手动固定到创口上，则本法术会使该身体部位和创口立即接合。</t>
   </si>
   <si>
-    <t>5e 转生术</t>
+    <t>转生术</t>
   </si>
   <si>
     <t>转生术 Reincarnate
@@ -5819,7 +5819,7 @@
 转生后的生物保留其前生记忆和经验。受术者保留原形的一切能力，不过其种族特性将以新种族的相应特性做更替。</t>
   </si>
   <si>
-    <t>5e 移除诅咒</t>
+    <t>移除诅咒</t>
   </si>
   <si>
     <t>解除诅咒</t>
@@ -5835,7 +5835,7 @@
 你的触碰立即为一个生物或一个物件解除其身上的所有诅咒。如果目标物体是一件被诅咒的魔法物品则其上的诅咒不会因此解除，不过本法术可以打破诅咒物品与其所有者之间的同调，使其所有者可以将其卸下或丢弃。</t>
   </si>
   <si>
-    <t>5e 提升抗性</t>
+    <t>提升抗性</t>
   </si>
   <si>
     <t>提升抗性 Resistance
@@ -5848,7 +5848,7 @@
 你触碰一个自愿的生物。在法术终止前，目标可以选择在一次豁免检定时额外掷一粒d4，并将所得数值加入检定结果中。他可以在进行豁免检定之前或之后掷骰。法术随后即终止。</t>
   </si>
   <si>
-    <t>5e 复生术</t>
+    <t>复生术</t>
   </si>
   <si>
     <t>复生术 Resurrection
@@ -5865,7 +5865,7 @@
 使用本法术复活一个已死去一年或更久的生物会使你耗费大量精力。你将无法在完成一次长休前再施放任何法术，且此时你进行的一切攻击检定、属性检定和豁免检定具有劣势。</t>
   </si>
   <si>
-    <t>5e 反重力</t>
+    <t>反重力</t>
   </si>
   <si>
     <t>反重力 Reverse Gravity
@@ -5879,7 +5879,7 @@
 如果在坠落过程中遇到任何固体（比如天花板），则坠落的物体和生物会受到同样情况下正常坠落时所会受到的冲击。如果一个物体或生物到达该区域的顶部并且没有撞到任何实体，则它将停留在该处并微微振动，直至法术终止。法术持续时间结束后，受术物件和生物将重新坠落下来。</t>
   </si>
   <si>
-    <t>5e 回生术</t>
+    <t>回生术</t>
   </si>
   <si>
     <t>回生术 Revivify
@@ -5892,7 +5892,7 @@
 你触碰一个在前一分钟内刚刚死去的生物，使该生物以1点生命值重生。本法术不能复活老死的生物，也不能恢复失去的身体部位。</t>
   </si>
   <si>
-    <t>5e 魔绳术</t>
+    <t>魔绳术</t>
   </si>
   <si>
     <t>魔绳术 Rope Trick
@@ -5908,7 +5908,7 @@
 法术终止时，异次元空间内的一切东西都会掉出来。</t>
   </si>
   <si>
-    <t>5e 圣火术</t>
+    <t>圣火术</t>
   </si>
   <si>
     <t>圣火术 Sacred Flame
@@ -5922,7 +5922,7 @@
 第5级时，本法术的伤害增加1d8（变为2d8）。11级时再增加1d8（变为3d8），17级时再增加1d8（变为4d8）。</t>
   </si>
   <si>
-    <t>5e 庇护术</t>
+    <t>庇护术</t>
   </si>
   <si>
     <t>圣域术</t>
@@ -5939,7 +5939,7 @@
 若受保护生物发动一次攻击、施放一个影响敌人的法术、或对其他生物造成伤害，则本法术随之终止。</t>
   </si>
   <si>
-    <t>5e 灼热射线</t>
+    <t>灼热射线</t>
   </si>
   <si>
     <t>灼热射线 Scorching Ray
@@ -5953,7 +5953,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，使用的法术位每比2环高一环，你就能多创造出一道射线。</t>
   </si>
   <si>
-    <t>5e 探知</t>
+    <t>探知</t>
   </si>
   <si>
     <t>探知 Scrying
@@ -5977,7 +5977,7 @@
 除生物之外，你也可以选择一个你以前见过的地点作为本法术的目标。这时，传感器会出现在目标地点且不会移动。</t>
   </si>
   <si>
-    <t>5e 炽焰斩</t>
+    <t>炽焰斩</t>
   </si>
   <si>
     <t>炽焰斩 Searing Smite
@@ -5991,7 +5991,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，最初一次攻击造成的额外伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 识破隐形</t>
+    <t>识破隐形</t>
   </si>
   <si>
     <t>识破隐形 See Invisibility
@@ -6004,7 +6004,7 @@
 你能在法术持续时间内能看见任何隐形的生物和物件，如同其处于正常可见状态一样。你还能够看见以太位面，以太位面的生物和物件在你眼中会以幽灵般的半透明形状显现。</t>
   </si>
   <si>
-    <t>5e 伪装术</t>
+    <t>伪装术</t>
   </si>
   <si>
     <t>伪装术 Seeming
@@ -6020,7 +6020,7 @@
 一个生物可以使用其动作仔细观察一个目标，并进行一次对抗法术豁免DC的智力（调查）检定以。检定成功则观察者将一时到目标进行了伪装。</t>
   </si>
   <si>
-    <t>5e 短讯术</t>
+    <t>短讯术</t>
   </si>
   <si>
     <t>短讯术 Sending
@@ -6034,7 +6034,7 @@
 你的传讯可以跨越任意长的距离，甚至能跨越位面。但如果目标和你不在同一个存在位面，则短讯术有5%的概率无法到达。</t>
   </si>
   <si>
-    <t>5e 隔离术</t>
+    <t>隔离术</t>
   </si>
   <si>
     <t>隔离术 Sequester
@@ -6050,7 +6050,7 @@
 你可以设置一个让本法术提前终止的条件。该条件由你自由设定，但必须是发生在目标周围1里内或目标在周围一英里内能看见的事件。例如：“1000年以后”或者“当泰拉斯奎巨兽觉醒时”。如果受术者受到任何伤害，则本法术立刻终止。</t>
   </si>
   <si>
-    <t>5e 形体变化</t>
+    <t>形体变化</t>
   </si>
   <si>
     <t>形体变化 Shapechange
@@ -6068,7 +6068,7 @@
 在法术持续时间内，你可以用你的动作转换为另一形态。重新变形的规则与限制与第一次变形相同，只有一点不同：如果新形态的生命值比你当前的形态要多，那么你的生命值将保持为当前值不变。</t>
   </si>
   <si>
-    <t>5e 粉碎音波</t>
+    <t>粉碎音波</t>
   </si>
   <si>
     <t>粉碎音波 Shatter
@@ -6083,7 +6083,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，使用的法术位每比2环高一环，法术伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 护盾术</t>
+    <t>护盾术</t>
   </si>
   <si>
     <t>护盾术 Shield
@@ -6096,7 +6096,7 @@
 一道看不见的法力护盾浮现在你身边，保护着你。在你的下一回合开始前，你的AC具有+5加值（在触发本法术的攻击之前生效），并且不会受到魔法飞弹的伤害。</t>
   </si>
   <si>
-    <t>5e 虔诚护盾</t>
+    <t>虔诚护盾</t>
   </si>
   <si>
     <t>虔诚护盾 Shield of Faith
@@ -6109,7 +6109,7 @@
 围绕着施法距离内你指定的一个生物出现一片闪着微光的魔法力场。使目标在法术持续时间内AC获得+2加值。</t>
   </si>
   <si>
-    <t>5e 橡棍术</t>
+    <t>橡棍术</t>
   </si>
   <si>
     <t>橡棍术 Shillelagh
@@ -6122,7 +6122,7 @@
 你将自然之力灌入手中持握的一根短棒或长棍中。你在法术持续时间内使用该武器进行近战攻击时，可以用你的施法关键属性值代替力量值来进行攻击检定和伤害掷骰，且该武器的伤害骰变为d8。此外，若该武器原来不是魔法武器，则它将变成魔法武器。你再次施放本法术或丢掉该武器时，本法术也随之终止。</t>
   </si>
   <si>
-    <t>5e 电爪</t>
+    <t>电爪</t>
   </si>
   <si>
     <t>电爪 Shocking Grasp
@@ -6136,7 +6136,7 @@
 第5级时，本法术的伤害增加1d8（变为2d8）。11级时再增加1d8（变为3d8），17级时再增加1d8（变为4d8）。</t>
   </si>
   <si>
-    <t>5e 沉默术</t>
+    <t>沉默术</t>
   </si>
   <si>
     <t>沉默术 Silence
@@ -6149,7 +6149,7 @@
 你指定施法距离内一点，以该点为中心半径20尺的球状区域在法术持续时间内将无法产生任何声音，且外界的声音也无法进入该区域内。任何完全位于该区域内的生物和物件都将免疫雷鸣伤害，而任何生物在完全位于该区域内时都将陷入耳聋。此外，该区域内无法施放需要言语成分的法术。</t>
   </si>
   <si>
-    <t>5e 无声幻影</t>
+    <t>无声幻影</t>
   </si>
   <si>
     <t>无声幻影 Silent Image
@@ -6163,7 +6163,7 @@
 由于影像无法被碰到，任何与该影像进行的物理互动都会暴露其幻象的本质。一个生物用其动作调查影像时，它可以进行一次对抗法术豁免DC的智力（调查）检定，以判定是否看穿幻象。辨出幻象的生物可以看破该影像，在该生物看来会透过影像看到其背后的事物。</t>
   </si>
   <si>
-    <t>5e 拟像术</t>
+    <t>拟像术</t>
   </si>
   <si>
     <t>拟像术 Simulacrum
@@ -6178,7 +6178,7 @@
 再次施放本法术时，任何你已用本法术创造出来并且正在活动中的分身都会立刻被摧毁。</t>
   </si>
   <si>
-    <t>5e 睡眠术</t>
+    <t>睡眠术</t>
   </si>
   <si>
     <t>睡眠术 Sleep
@@ -6194,7 +6194,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，使用的法术位每比1环高一环，法术的掷骰就增加2d8。</t>
   </si>
   <si>
-    <t>5e 雪雨暴</t>
+    <t>雪雨暴</t>
   </si>
   <si>
     <t>雪雨暴 Sleet Storm
@@ -6209,7 +6209,7 @@
 在本法术区域内开始其回合的生物若正在进行专注，则该生物必须进行一次对抗你法术豁免DC的体质豁免，豁免失败则其专注被打断。</t>
   </si>
   <si>
-    <t>5e 缓慢术</t>
+    <t>缓慢术</t>
   </si>
   <si>
     <t>缓慢术 Slow
@@ -6225,7 +6225,7 @@
 受术生物在每个其自己回合结束时可以再进行一次该感知豁免，豁免成功则终止其身上的本法术效应。</t>
   </si>
   <si>
-    <t>5e 维生术</t>
+    <t>维生术</t>
   </si>
   <si>
     <t>维生术 Spare the Dying
@@ -6238,7 +6238,7 @@
 你触碰一个生命值为0的活体生物，使该生物的伤势立刻稳定下来。本法术对不死生物和构装生物无效。</t>
   </si>
   <si>
-    <t>5e 动物交谈</t>
+    <t>动物交谈</t>
   </si>
   <si>
     <t>动物交谈 Speak with Animals
@@ -6251,7 +6251,7 @@
 你在法术持续时间内获得理解野兽并与其沟通的能力。许多野兽智力不高，因此它们的认知水平相当有限，但它们至少能向你提供关于周围地域和怪物的情报，包括任何它们现在以及在前一日内察觉到的东西。你也许可以说服野兽帮你一些小忙，是否成功则由DM来判断。</t>
   </si>
   <si>
-    <t>5e 死者交谈</t>
+    <t>死者交谈</t>
   </si>
   <si>
     <t>死者交谈 Speak with Dead
@@ -6265,7 +6265,7 @@
 你可以在法术终止前向尸体提出最多五个问题。尸体的知识仅限于其生前所知，包括它所讲的语言。回答通常是简短，含糊或重复的语句，而且如果你对尸体抱有敌意或者尸体认为你是其敌人，它也不必一定要给你正确的答复。本法术并不能让该生物的灵魂返回其身体中，只是活化了其精神。因此，该尸体不能认知新的信息，不能理解它死后发生的任何事情，也不能对未来的事件作出猜测。</t>
   </si>
   <si>
-    <t>5e 植物交谈</t>
+    <t>植物交谈</t>
   </si>
   <si>
     <t>植物交谈 Speak with Plants
@@ -6282,7 +6282,7 @@
 本法术能让纠缠术 entangle 创造出来的植物放开一个被束缚的生物。</t>
   </si>
   <si>
-    <t>5e 蛛行术</t>
+    <t>蛛行术</t>
   </si>
   <si>
     <t>蛛行术 Spider Climb
@@ -6295,7 +6295,7 @@
 你触碰一个自愿的生物，并使其在法术终止前能够在垂直表面上下或横向移动，其甚至可以在天花板上倒挂着移动而不需要用到双手。另外，目标获得与步行速度相等的攀爬速度。</t>
   </si>
   <si>
-    <t>5e 荆棘丛生</t>
+    <t>荆棘丛生</t>
   </si>
   <si>
     <t>荆棘丛生 Spike Growth
@@ -6309,7 +6309,7 @@
 法术导致的地面变形经过刻意的掩饰，使其看起来并无异样。如果生物在你施放本法术时不能看见该区域，则它必须进行一次感知（察觉）检定，检定成功则能发现该区域隐藏的危险。</t>
   </si>
   <si>
-    <t>5e 灵体卫士</t>
+    <t>灵体卫士</t>
   </si>
   <si>
     <t>灵体卫士 Spirit Guardians
@@ -6324,7 +6324,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 灵体武器</t>
+    <t>灵体武器</t>
   </si>
   <si>
     <t>灵体武器 Spiritual Weapon
@@ -6339,7 +6339,7 @@
 升环施法效应：使用3环或更高法术位施放本法术时，你使用的法术位每比2环高两环，法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 惊惧斩</t>
+    <t>惊惧斩</t>
   </si>
   <si>
     <t>惊惧斩 Staggering Smite
@@ -6352,7 +6352,7 @@
 你在法术持续时间内下一次用近战武器攻击命中某个生物时你的武器将同时贯穿对方的身体与心智。该攻击对目标造成额外4d6的心灵伤害。该目标必须进行一次感知豁免，豁免失败则目标进行攻击检定和属性检定时具有劣势，且不能执行反应直至其下一回合结束。</t>
   </si>
   <si>
-    <t>5e 臭云术</t>
+    <t>臭云术</t>
   </si>
   <si>
     <t>臭云术 Stinking Cloud
@@ -6367,7 +6367,7 @@
 云团被和风（风速至少每小时10里）吹袭4轮后消散。而强风（风速至少每小时20英里）只需1轮就能将其吹散。</t>
   </si>
   <si>
-    <t>5e 塑石术</t>
+    <t>塑石术</t>
   </si>
   <si>
     <t>塑石术 Stone Shape
@@ -6380,7 +6380,7 @@
 你触碰一个体积为中型或更小的石质物件或某块岩石长宽高都不超过5尺的一部分，并将其塑造成你想要的任意形状。比如你可以将一块大石头变成一件武器、一尊塑像、一具棺材，也可以在石墙上开出一条小通道，前提是墙的厚度不能超过5尺。你也可以使一扇石门或石质门框变形来将门封死。你创造的物件最多可以有两条铰链和一道闩，除此之外不能以本法术能塑造出更复杂的机械结构。</t>
   </si>
   <si>
-    <t>5e 石肤术</t>
+    <t>石肤术</t>
   </si>
   <si>
     <t>石肤术 Stoneskin
@@ -6393,7 +6393,7 @@
 本法术使你触碰的一个自愿生物皮肤变得硬如岩石。目标在法术终止前对非魔法的钝击、穿刺和挥砍伤害具有抗性。</t>
   </si>
   <si>
-    <t>5e 复仇风暴</t>
+    <t>复仇风暴</t>
   </si>
   <si>
     <t>复仇风暴 Storm of Vengeance
@@ -6411,7 +6411,7 @@
 第5~10轮。狂风和冰雨冲袭着云团下的区域，使该区域变为困难地形并造成重度遮蔽。该区域内的所有生物受到1d6点冷冻伤害。该区域内无法进行远程武器攻击。而其内的强风和暴雨将对维持法术专注造成严重干扰。此外，区域内的强风（风速在每小时20到50里）会自动吹散区域内的一切魔法或非魔法的烟雾以及其他类似现象。</t>
   </si>
   <si>
-    <t>5e 暗示术</t>
+    <t>暗示术</t>
   </si>
   <si>
     <t>暗示术 Suggestion
@@ -6427,7 +6427,7 @@
 若你或你同伴中任何人伤害了受术者，则本法术随即终止。</t>
   </si>
   <si>
-    <t>5e 阳炎射线</t>
+    <t>阳炎射线</t>
   </si>
   <si>
     <t>阳炎射线 Sunbeam
@@ -6442,7 +6442,7 @@
 在法术持续时间内，你的手中一点散发出耀眼的光芒。其光耀为周围提供30尺的明亮光照，以及该范围外30尺的微光光照。这些光芒均视为等同于阳光。</t>
   </si>
   <si>
-    <t>5e 阳炎爆</t>
+    <t>阳炎爆</t>
   </si>
   <si>
     <t>阳炎爆 Sunburst
@@ -6457,7 +6457,7 @@
 本法术将解除法术区域内所有由法术所创造的黑暗。</t>
   </si>
   <si>
-    <t>5e 迅捷箭袋</t>
+    <t>迅捷箭袋</t>
   </si>
   <si>
     <t>迅捷箭袋 Swift Quiver
@@ -6471,7 +6471,7 @@
 直至法术结束前，你的每一回合都可以用一个附赠动作发动两次攻击，但用以发动攻击的武器必须使用受术箭袋中的弹药。你每次完成这种攻击时，箭袋上的魔法便会自动创造出一发同样的非魔法弹药作为补充。法术终止时，本法术创造出来的所有弹药都将自行分解消失。当你不再持有该箭袋时，本法术也即刻终止。</t>
   </si>
   <si>
-    <t>5e 魔法徽记</t>
+    <t>魔法徽记</t>
   </si>
   <si>
     <t>魔法徽记 Symbol
@@ -6496,7 +6496,7 @@
 震慑 Stunning。所有目标必须进行一次感知豁免，豁免失败则陷入1分钟的被震慑状态。</t>
   </si>
   <si>
-    <t>5e 塔莎狂笑术</t>
+    <t>塔莎狂笑术</t>
   </si>
   <si>
     <t>塔莎狂笑术 Tasha's Hideous Laughter
@@ -6510,7 +6510,7 @@
 目标在其每回合结束或受到伤害时，可以再进行一次感知豁免。豁免成功则法术终止。再进行豁免时，如果是因受到伤害所致则该次豁免具有优势。</t>
   </si>
   <si>
-    <t>5e 心灵遥控</t>
+    <t>心灵遥控</t>
   </si>
   <si>
     <t>心灵遥控 Telekinesis
@@ -6525,7 +6525,7 @@
 物件 Object。你可以尝试移动一个重量不超过1000磅的物件。如果该物品没有被任何生物所着装或携带，则你可以自动使它朝任何方向移动30尺，但不能让它离开施法距离。如果该物件已被着装或携带，则你必须以你的施法关键属性进行一次属性检定，并与该生物的力量检定进行对抗。如果你在对抗中胜出，则你可以把目标物件从该生物身上拿走，并且使该物体朝任意方向移动30尺（但不能让它离开施法距离）。你可以使用心灵遥控来对物体进行精密操作，例如操纵一件简单的工具，打开一扇门或一个容器，把东西放进或拿出一个打开的容器中，或是把一个小瓶子里的东西倒出来。</t>
   </si>
   <si>
-    <t>5e 心灵感应</t>
+    <t>心灵感应</t>
   </si>
   <si>
     <t>心灵感应 Telepathy
@@ -6539,7 +6539,7 @@
 直至法术终止前，你可以和目标生物通过心灵连接即时共享任何言语、图像、声音以及其他形式的感官信息，而目标也能够辨认出与之交流的对象正是你本人。本法术可以让智力值至少为1的目标生物理解你的言语并接收任何你所发送的感官信息。</t>
   </si>
   <si>
-    <t>5e 传送术</t>
+    <t>传送术</t>
   </si>
   <si>
     <t>传送术 Teleport
@@ -6572,7 +6572,7 @@
 遇难 Mishap。本法术的意外魔法效果导致这次旅行特别艰难。尝试传送的所有生物（或目标物件）受到3d10点力场伤害，随后DM重投d100并查阅上表来决定你们出现在哪里（你们可能再次遇难，而每次遇难都要承受该伤害）。</t>
   </si>
   <si>
-    <t>5e 传送法阵</t>
+    <t>传送法阵</t>
   </si>
   <si>
     <t>传送法阵 Teleportation Circle
@@ -6587,7 +6587,7 @@
 当你在一年里对同一地点每日连续施放本法术后，将创造出一个永久的传送法阵。而你在如此创造法阵时并不需要使用该法阵进行传送。</t>
   </si>
   <si>
-    <t>5e 谭森浮碟术</t>
+    <t>谭森浮碟术</t>
   </si>
   <si>
     <t>谭森浮碟术 Tenser's Floating Disk
@@ -6602,7 +6602,7 @@
 如果你和浮碟间的距离超过100尺（通常是因为它受障碍所阻无法跟上你），则法术随即终止。</t>
   </si>
   <si>
-    <t>5e 奇术</t>
+    <t>奇术</t>
   </si>
   <si>
     <t>奇术 Thaumaturgy
@@ -6622,7 +6622,7 @@
 多次施放本法术时，你可以同时维持最多三个持续1分钟的效应。你也可以用一个动作取消其中一种效应。</t>
   </si>
   <si>
-    <t>5e 荆棘之鞭</t>
+    <t>荆棘之鞭</t>
   </si>
   <si>
     <t>荆棘之鞭 Thorn Whip
@@ -6636,7 +6636,7 @@
 第5级时，本法术的伤害增加1d6（变为2d6）。11级时再增加1d6（变为3d6），17级时再增加1d6（变为4d6）。</t>
   </si>
   <si>
-    <t>5e 雷鸣斩</t>
+    <t>雷鸣斩</t>
   </si>
   <si>
     <t>雷鸣斩 Thunderous Smite
@@ -6649,7 +6649,7 @@
 你在法术持续时间内下一次用近战武器攻击命中某个生物时将发出雷霆巨响，并使你周围300尺都能听见该响声。该攻击对目标造成额外2d6点雷鸣伤害，如果目标是一个生物，则它必须要进行一次力量豁免，豁免失败则目标往远离你的方向推动10尺并应击倒地。</t>
   </si>
   <si>
-    <t>5e 雷鸣波</t>
+    <t>雷鸣波</t>
   </si>
   <si>
     <t>雷鸣波 Thunderwave
@@ -6664,7 +6664,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 时间停止</t>
+    <t>时间停止</t>
   </si>
   <si>
     <t>时间停止 Time Stop
@@ -6678,7 +6678,7 @@
 在法术持续时间内，如果你的一个动作或任何你创造出来的效应影响到除你之外的任何生物，或影响到其他生物着装或携带的物件时，本法术将立即终止。此外，如果你在施法后移动离开施法位置超过1000尺，则法术也将因此终止。</t>
   </si>
   <si>
-    <t>5e 巧言术</t>
+    <t>巧言术</t>
   </si>
   <si>
     <t>巧言术 Tongues
@@ -6691,7 +6691,7 @@
 本法术赋予你所触碰生物听懂任何语言的能力。此外，当目标生物说话时，任何能听见其话语且掌握至少一门语言的生物都能听懂它的话。</t>
   </si>
   <si>
-    <t>5e 木遁术</t>
+    <t>木遁术</t>
   </si>
   <si>
     <t>木遁术 Transport via Plants
@@ -6703,7 +6703,7 @@
 本法术将施法距离内一棵大型或更大的静态植物用魔法与同位面上任意距离外的另一棵植物相连接。施法时，你必须见过或触碰过出口植物至少一次。此后，任何生物都可以在法术持续时间内花费5尺移动力进入目标植物内，然后从出口植物处出来。</t>
   </si>
   <si>
-    <t>5e 树跃术</t>
+    <t>树跃术</t>
   </si>
   <si>
     <t>树跃术 Tree Stride
@@ -6718,7 +6718,7 @@
 你可以在法术持续时间内的每轮里使用一次这样的传送能力。而且你必须在树外结束你的回合。</t>
   </si>
   <si>
-    <t>5e 完全变形术</t>
+    <t>完全变形术</t>
   </si>
   <si>
     <t>完全变形术 True Polymorph
@@ -6735,7 +6735,7 @@
 生物变物件。如果你将一个生物变形成一个物件，则它连同其穿着携带物一起变成新的形态。变成物件的体型不能比原生物大。受术者的数据变成和该物件一样，在法术终止而受术者变回原形后，它将不会记得在变成物件时所发生的任何事情。</t>
   </si>
   <si>
-    <t>5e 完全复生术</t>
+    <t>完全复生术</t>
   </si>
   <si>
     <t>完全复生术 True Resurrection
@@ -6750,7 +6750,7 @@
 如果受术生物的遗体已经不再存在，本法术甚至能给它再造一个新的身体。此时，你必须喊出该生物的名字，随后该生物便出现在你指定点周围10尺内一处未被占据的空间。</t>
   </si>
   <si>
-    <t>5e 真知术</t>
+    <t>真知术</t>
   </si>
   <si>
     <t>真知术 True Seeing
@@ -6763,7 +6763,7 @@
 你触碰一个自愿的生物，让本法术赋予其看到事物真实面目的能力。受术者在法术持续时间内拥有120尺的真实视觉，其能发现被魔法隐藏的暗门，也能看到以太位面。</t>
   </si>
   <si>
-    <t>5e 克敌机先</t>
+    <t>克敌机先</t>
   </si>
   <si>
     <t>克敌机先 True Strike
@@ -6776,7 +6776,7 @@
 你伸出手并以手指指向施法距离内的一个生物，并以魔力刹那间看穿目标的防御。若在你的下一个回合中法术还未终止，你本回合内对该目标发动的第一次攻击检定具有优势。</t>
   </si>
   <si>
-    <t>5e 海啸术</t>
+    <t>海啸术</t>
   </si>
   <si>
     <t>海啸术 Tsunami
@@ -6792,7 +6792,7 @@
 淹没在水墙中的生物可以用游泳的方式移动，由于波涛阻力影响，该生物必须要进行一次对抗本法术DC的力量（运动）检定以决定起能否成功移动，而检定失败者则无法移动。通过移动离开水墙区域的生物会直接掉到地上。</t>
   </si>
   <si>
-    <t>5e 隐形仆役</t>
+    <t>隐形仆役</t>
   </si>
   <si>
     <t>隐形仆役 Unseen Servant
@@ -6807,7 +6807,7 @@
 如果你命令仆从做一件需要它离开你身边60尺的工作，则法术随之终止。</t>
   </si>
   <si>
-    <t>5e 吸血鬼之触</t>
+    <t>吸血鬼之触</t>
   </si>
   <si>
     <t>吸血鬼之触 Vampiric Touch
@@ -6821,7 +6821,7 @@
 升环施法效应：使用4环或更高法术位施放本法术时，你使用的法术位每比3环高一环，法术的伤害就增加1d6。</t>
   </si>
   <si>
-    <t>5e 恶言相加</t>
+    <t>恶言相加</t>
   </si>
   <si>
     <t>恶毒嘲笑</t>
@@ -6838,7 +6838,7 @@
 第5级时，本法术的伤害增加1d4（变为2d4）。11级时再增加1d4（变为3d4），17级时再增加1d4（变为4d4）。</t>
   </si>
   <si>
-    <t>5e 火墙术</t>
+    <t>火墙术</t>
   </si>
   <si>
     <t>火墙术 Wall of Fire
@@ -6854,7 +6854,7 @@
 升环施法效应：使用5环或更高法术位施放本法术时，你使用的法术位每比4环高一环，法术的伤害就增加1d8。</t>
   </si>
   <si>
-    <t>5e 力场墙</t>
+    <t>力场墙</t>
   </si>
   <si>
     <t>立场墙/力墙术</t>
@@ -6871,7 +6871,7 @@
 没有任何事物可以通过物理方式穿过力墙。力墙免疫所有伤害，也不能被解除魔法 dispel magic 所解除，但法术解离术disintegrate 可以使其立即摧毁。力墙能够延伸进以太位面，因此可以阻断进入以太位面穿过墙壁旅行。</t>
   </si>
   <si>
-    <t>5e 冰墙术</t>
+    <t>冰墙术</t>
   </si>
   <si>
     <t>冰墙术 Wall of Ice
@@ -6887,7 +6887,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，冰墙出现时造成的伤害就增加2d6，并且通过寒气时受到的伤害也增加1d6。</t>
   </si>
   <si>
-    <t>5e 石墙术</t>
+    <t>石墙术</t>
   </si>
   <si>
     <t>石墙术 Wall of Stone
@@ -6904,7 +6904,7 @@
 如果你在整个法术持续时间内一直保持本法术的专注，则石墙将永久存在且不能被解除。如果你没能这么做，则石墙在法术终止时随即消失。</t>
   </si>
   <si>
-    <t>5e 棘墙术</t>
+    <t>棘墙术</t>
   </si>
   <si>
     <t>棘墙术 Wall of Thorns
@@ -6920,7 +6920,7 @@
 升环施法效应：使用7环或更高法术位施放本法术时，你使用的法术位每比6环高一环，两种类型的伤害就都增加1d8。</t>
   </si>
   <si>
-    <t>5e 守护之链</t>
+    <t>守护之链</t>
   </si>
   <si>
     <t>守护之链 Warding Bond
@@ -6934,7 +6934,7 @@
 如果你的生命值降至0，或你与目标距离超过60尺，则本法术终止。如果本法术被再次施放于两个已被连接生物中的任意一方，则原法术即时终止。你还可以用一个动作主动解除本法术。</t>
   </si>
   <si>
-    <t>5e 水下呼吸</t>
+    <t>水下呼吸</t>
   </si>
   <si>
     <t>水中呼吸</t>
@@ -6950,7 +6950,7 @@
 在法术终止前，本法术让施法距离内你能看见的至多十个自愿生物获得在水下呼吸的能力。此外，受术者依然保有正常的呼吸能力。</t>
   </si>
   <si>
-    <t>5e 水上行走</t>
+    <t>水上行走</t>
   </si>
   <si>
     <t>水面行走</t>
@@ -6967,7 +6967,7 @@
 如果你选择一个浸没在水中的生物作为本法术的目标，则受术者将会以每轮60尺的速度上升，直至浮上液面。</t>
   </si>
   <si>
-    <t>5e 蛛网术</t>
+    <t>蛛网术</t>
   </si>
   <si>
     <t>蛛网术 Web
@@ -6984,7 +6984,7 @@
 这些蛛网都是可燃物。每5尺立方的蛛网触及明火时将在1轮内被烧尽。而任何在燃烧区域内开始其回合的生物将因此受2d4点火焰伤害。</t>
   </si>
   <si>
-    <t>5e 怪影杀手</t>
+    <t>怪影杀手</t>
   </si>
   <si>
     <t>怪影杀手 Weird
@@ -6997,7 +6997,7 @@
 你利用一群生物最恐惧的事物，在它们的心中创造出一个只有它们自己能看见的虚幻生物。指定施法距离内一点为中心，其周边半径30尺球状区域内的所有生物必须进行一次感知豁免。豁免失败者将在法术终止前陷入恐慌。本法术造出的幻象能唤起受术者心中最深的恐惧，使它最恐怖的噩梦显现为一个永远无法摆脱的威胁。如果生物因本法术陷入恐慌，则它在自己每回合结束时必须进行一次感知豁免，豁免失败则受到4d10点心灵伤害。豁免成功则本法术在该生物身上的效应终止。</t>
   </si>
   <si>
-    <t>5e 御风而行</t>
+    <t>御风而行</t>
   </si>
   <si>
     <t>御风而行 Wind Walk
@@ -7011,7 +7011,7 @@
 在1分钟内以每轮60尺的速度降落直至安全着陆。如果该生物降落1分钟后还没着陆，则在余下的距离中它将会如正常情况一样坠落。</t>
   </si>
   <si>
-    <t>5e 风墙术</t>
+    <t>风墙术</t>
   </si>
   <si>
     <t>风墙术 Wind Wall
@@ -7026,7 +7026,7 @@
 烈风可以阻隔浓雾、烟尘和其他气体。体型为小型或更小的飞行生物或物件无法飞过风墙。重量轻的物质带进风墙中时将被向上吹飞。对墙后目标射出的箭、矢和其他普通飞行物会被朝上吹走而直接判为未命中（巨人或攻城器械投出的巨石和类似的飞行物不受影响）。处于气化形态的生物无法穿过风墙。</t>
   </si>
   <si>
-    <t>5e 祈愿术</t>
+    <t>祈愿术</t>
   </si>
   <si>
     <t>许愿术</t>
@@ -7051,7 +7051,7 @@
 施放本法术来达成除了模仿其他法术外的任何目的都会使你承受极大的负担。承受这种负担之后，直到你完成一次长休之前，你每次施放法术时都将受到一定伤害（伤害数值与施放法术的环阶相关，每环1d10的黯蚀伤害）。你无法以任何方式减轻或防止这种伤害，而你的力量值在也将在2d4日内降至3（除非它已经是3或更低）。在这段时间里，你每花一整日休息（不从事任何费力的工作），恢复需要的日数就减少2日。最后，如果你承受了这种负担，你将有33%的概率再也无法施放祈愿术。</t>
   </si>
   <si>
-    <t>5e 巫术箭</t>
+    <t>巫术箭</t>
   </si>
   <si>
     <t>巫术箭 Witch Bolt
@@ -7065,7 +7065,7 @@
 升环施法效应：使用2环或更高法术位施放本法术时，你使用的法术位每比1环高一环，法术的初始伤害就增加1d12。</t>
   </si>
   <si>
-    <t>5e 回返真言</t>
+    <t>回返真言</t>
   </si>
   <si>
     <t>回返真言 Word of Recall
@@ -7079,7 +7079,7 @@
 设置避难所时，你必须身处一个你所信仰神祇的神庙或与该神祇密切相关的地点，然后在该处施放本法术。如果你试图在一个并不供奉你所信仰神祇的地方施放本法术，则本法术将不产生任何效应。</t>
   </si>
   <si>
-    <t>5e 激愤斩</t>
+    <t>激愤斩</t>
   </si>
   <si>
     <t>怒火斩</t>
@@ -7095,7 +7095,7 @@
 你在法术持续时间内，下一次近战武器攻击命中时，对目标造成额外1d6点心灵伤害。此外，如果目标是一个生物，则其必须进行一次感知豁免。豁免失败则目标生物将在法术终止前持续陷入对你恐慌的状态。该生物可以用一个动作来尝试重拾斗志，并进行一次对抗本法术DC的感知检定，检定成功则法术即刻终止。</t>
   </si>
   <si>
-    <t>5e 诚实之域</t>
+    <t>诚实之域</t>
   </si>
   <si>
     <t>诚实之域 Zone of Truth
@@ -22031,451 +22031,463 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.2685185185185" customWidth="1"/>
-    <col min="3" max="3" width="146.37037037037" style="9" customWidth="1"/>
+    <col min="1" max="1" width="24.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="146.372727272727" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="2" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="13"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="3" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="4" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="5" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="13"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="6" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="13"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="7" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="13"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="8" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="13"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="9" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="13"/>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="10" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="13"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="11" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="12" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="13" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="14" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="15" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="16" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A16" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="13"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="17" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="18" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A18" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="19" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="20" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="21" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="22" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A22" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="23" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A23" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="13"/>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="24" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A24" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B24" s="13"/>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="25" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="13"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="26" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="26" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A26" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="13"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="27" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A27" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="13"/>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="28" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="13"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="29" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="30" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A30" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B30" s="13"/>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="31" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A31" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B31" s="13"/>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="32" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="13"/>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="33" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A33" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="34" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A34" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="35" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="13"/>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="36" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A36" s="9" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="13"/>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="37" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A37" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="13"/>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="38" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A38" s="9" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="39" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A39" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="40" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="40" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A40" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B40" s="13"/>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="41" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="41" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A41" s="9" t="s">
         <v>84</v>
       </c>
       <c r="B41" s="13"/>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="42" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A42" s="9" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="13"/>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="43" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A43" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B43" s="13"/>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="44" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A44" s="9" t="s">
         <v>90</v>
       </c>
       <c r="B44" s="13"/>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="45" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="45" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A45" s="9" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="13"/>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="46" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="13"/>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" s="9" customFormat="1" customHeight="1" spans="1:3">
+    <row r="47" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:3">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="48" s="9" customFormat="1" ht="14.4" customHeight="1" spans="2:3">
+      <c r="B48" s="13"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" s="9" customFormat="1" ht="14.4" customHeight="1" spans="2:3">
+      <c r="B49" s="13"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" s="9" customFormat="1" ht="14.4" customHeight="1" spans="2:3">
+      <c r="B50" s="13"/>
+      <c r="C50" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -22493,12 +22505,12 @@
       <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22518,7 +22530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>3408</v>
       </c>
@@ -22528,7 +22540,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>3410</v>
       </c>
@@ -22538,7 +22550,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>3412</v>
       </c>
@@ -22548,7 +22560,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>3414</v>
       </c>
@@ -22558,7 +22570,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>3416</v>
       </c>
@@ -22568,7 +22580,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>3418</v>
       </c>
@@ -22578,7 +22590,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>3420</v>
       </c>
@@ -22588,7 +22600,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>3422</v>
       </c>
@@ -22598,7 +22610,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" ht="14.4" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>3424</v>
       </c>
@@ -22608,7 +22620,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" ht="14.4" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>3426</v>
       </c>
@@ -22618,7 +22630,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" ht="14.4" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>3428</v>
       </c>
@@ -22628,7 +22640,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" ht="14.4" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>3430</v>
       </c>
@@ -22638,7 +22650,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" ht="14.4" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>3432</v>
       </c>
@@ -22648,7 +22660,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" ht="14.4" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>3434</v>
       </c>
@@ -22658,7 +22670,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" ht="14.4" customHeight="1" spans="1:6">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -22680,11 +22692,11 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.9074074074074" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1851851851852" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -22707,7 +22719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:6">
+    <row r="2" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>3436</v>
       </c>
@@ -22717,7 +22729,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>3438</v>
       </c>
@@ -22727,7 +22739,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>3440</v>
       </c>
@@ -22737,7 +22749,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>3442</v>
       </c>
@@ -22747,7 +22759,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" customHeight="1" spans="1:6">
+    <row r="6" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>3444</v>
       </c>
@@ -22757,7 +22769,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" customHeight="1" spans="1:6">
+    <row r="7" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>3446</v>
       </c>
@@ -22767,7 +22779,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>3448</v>
       </c>
@@ -22777,7 +22789,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" customHeight="1" spans="1:6">
+    <row r="9" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>3450</v>
       </c>
@@ -22787,7 +22799,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" customHeight="1" spans="1:6">
+    <row r="10" ht="14.4" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>3452</v>
       </c>
@@ -22797,7 +22809,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" customHeight="1" spans="1:6">
+    <row r="11" ht="14.4" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>3454</v>
       </c>
@@ -22807,7 +22819,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" customHeight="1" spans="1:6">
+    <row r="12" ht="14.4" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>3456</v>
       </c>
@@ -22817,7 +22829,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" customHeight="1" spans="1:6">
+    <row r="13" ht="14.4" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>3458</v>
       </c>
@@ -22827,7 +22839,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" customHeight="1" spans="1:6">
+    <row r="14" ht="14.4" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>3460</v>
       </c>
@@ -22837,7 +22849,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" customHeight="1" spans="1:6">
+    <row r="15" ht="14.4" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>3462</v>
       </c>
@@ -22847,7 +22859,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" customHeight="1" spans="1:6">
+    <row r="16" ht="14.4" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>3464</v>
       </c>
@@ -22857,7 +22869,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" customHeight="1" spans="1:6">
+    <row r="17" ht="14.4" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>3466</v>
       </c>
@@ -22867,7 +22879,7 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" customHeight="1" spans="1:6">
+    <row r="18" ht="14.4" customHeight="1" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>3468</v>
       </c>
@@ -22877,7 +22889,7 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" customHeight="1" spans="1:6">
+    <row r="19" ht="14.4" customHeight="1" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>3470</v>
       </c>
@@ -22887,7 +22899,7 @@
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" customHeight="1" spans="1:6">
+    <row r="20" ht="14.4" customHeight="1" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>3472</v>
       </c>
@@ -22897,7 +22909,7 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" customHeight="1" spans="1:6">
+    <row r="21" ht="14.4" customHeight="1" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>3474</v>
       </c>
@@ -22907,7 +22919,7 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" customHeight="1" spans="1:6">
+    <row r="22" ht="14.4" customHeight="1" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>3476</v>
       </c>
@@ -22917,7 +22929,7 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" customHeight="1" spans="1:6">
+    <row r="23" ht="14.4" customHeight="1" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>3478</v>
       </c>
@@ -22927,7 +22939,7 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" customHeight="1" spans="1:6">
+    <row r="24" ht="14.4" customHeight="1" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>3480</v>
       </c>
@@ -22937,7 +22949,7 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" customHeight="1" spans="1:6">
+    <row r="25" ht="14.4" customHeight="1" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>3482</v>
       </c>
@@ -22947,7 +22959,7 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" customHeight="1" spans="1:6">
+    <row r="26" ht="14.4" customHeight="1" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>3484</v>
       </c>
@@ -22957,7 +22969,7 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" customHeight="1" spans="1:6">
+    <row r="27" ht="14.4" customHeight="1" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>3486</v>
       </c>
@@ -22969,7 +22981,7 @@
       </c>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="28" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A28" s="2" t="s">
         <v>3489</v>
       </c>
@@ -22981,7 +22993,7 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="29" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A29" s="2" t="s">
         <v>3492</v>
       </c>
@@ -22993,7 +23005,7 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="30" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A30" s="2" t="s">
         <v>3495</v>
       </c>
@@ -23005,7 +23017,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="31" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A31" s="2" t="s">
         <v>3498</v>
       </c>
@@ -23017,7 +23029,7 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="32" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A32" s="2" t="s">
         <v>3501</v>
       </c>
@@ -23029,7 +23041,7 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="33" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>3504</v>
       </c>
@@ -23041,7 +23053,7 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:6">
+    <row r="34" s="1" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>3507</v>
       </c>
@@ -23066,15 +23078,15 @@
   <sheetPr/>
   <dimension ref="A1:F363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="A359" sqref="A359"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A54" sqref="$A54:$XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="20" style="9" customWidth="1"/>
-    <col min="3" max="3" width="93.2222222222222" style="6" customWidth="1"/>
-    <col min="4" max="4" width="29.3333333333333" style="9" customWidth="1"/>
+    <col min="3" max="3" width="93.2181818181818" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.3363636363636" style="9" customWidth="1"/>
     <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
@@ -28170,10 +28182,10 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="19.2685185185185" customWidth="1"/>
-    <col min="3" max="3" width="131.37037037037" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="131.372727272727" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -28196,7 +28208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="2" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>856</v>
       </c>
@@ -28208,7 +28220,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="3" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>859</v>
       </c>
@@ -28220,7 +28232,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="4" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>861</v>
       </c>
@@ -28232,7 +28244,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="5" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>863</v>
       </c>
@@ -28244,7 +28256,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="6" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>865</v>
       </c>
@@ -28256,7 +28268,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="7" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="7" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>867</v>
       </c>
@@ -28268,7 +28280,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="8" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>869</v>
       </c>
@@ -28280,7 +28292,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="9" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="9" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>871</v>
       </c>
@@ -28292,7 +28304,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="10" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="10" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>873</v>
       </c>
@@ -28304,7 +28316,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="11" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="11" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>875</v>
       </c>
@@ -28316,7 +28328,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="12" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>877</v>
       </c>
@@ -28328,7 +28340,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="13" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="13" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>879</v>
       </c>
@@ -28340,7 +28352,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="14" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>881</v>
       </c>
@@ -28352,7 +28364,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="15" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="15" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>883</v>
       </c>
@@ -28364,7 +28376,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="16" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="16" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A16" s="9" t="s">
         <v>885</v>
       </c>
@@ -28376,7 +28388,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="17" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="17" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A17" s="9" t="s">
         <v>886</v>
       </c>
@@ -28388,7 +28400,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="18" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A18" s="9" t="s">
         <v>888</v>
       </c>
@@ -28400,7 +28412,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="19" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A19" s="9" t="s">
         <v>890</v>
       </c>
@@ -28412,7 +28424,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="20" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A20" s="9" t="s">
         <v>892</v>
       </c>
@@ -28424,7 +28436,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="21" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="21" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A21" s="9" t="s">
         <v>894</v>
       </c>
@@ -28436,7 +28448,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="22" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="22" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A22" s="9" t="s">
         <v>896</v>
       </c>
@@ -28448,7 +28460,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="23" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A23" s="9" t="s">
         <v>898</v>
       </c>
@@ -28460,7 +28472,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="24" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="24" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A24" s="9" t="s">
         <v>900</v>
       </c>
@@ -28472,7 +28484,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="25" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="25" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A25" s="9" t="s">
         <v>902</v>
       </c>
@@ -28484,7 +28496,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="26" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="26" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A26" s="9" t="s">
         <v>904</v>
       </c>
@@ -28496,7 +28508,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="27" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="27" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A27" s="9" t="s">
         <v>906</v>
       </c>
@@ -28508,7 +28520,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="28" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="28" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A28" s="9" t="s">
         <v>908</v>
       </c>
@@ -28520,7 +28532,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="29" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="29" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A29" s="9" t="s">
         <v>910</v>
       </c>
@@ -28532,7 +28544,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="30" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="30" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A30" s="9" t="s">
         <v>912</v>
       </c>
@@ -28544,7 +28556,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="31" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A31" s="9" t="s">
         <v>914</v>
       </c>
@@ -28556,7 +28568,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="32" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="32" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A32" s="9" t="s">
         <v>916</v>
       </c>
@@ -28568,7 +28580,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="33" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="33" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A33" s="9" t="s">
         <v>918</v>
       </c>
@@ -28580,7 +28592,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="34" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A34" s="9" t="s">
         <v>920</v>
       </c>
@@ -28592,7 +28604,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="35" s="9" customFormat="1" customHeight="1" spans="1:6">
+    <row r="35" s="9" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A35" s="9" t="s">
         <v>922</v>
       </c>
@@ -28616,15 +28628,15 @@
   <sheetPr/>
   <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.8888888888889" style="6" customWidth="1"/>
+    <col min="1" max="1" width="26.8909090909091" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="114.222222222222" style="6" customWidth="1"/>
+    <col min="3" max="3" width="114.218181818182" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -30347,7 +30359,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" ht="14.5" spans="1:3">
       <c r="A179" s="6" t="s">
         <v>1288</v>
       </c>
@@ -30355,7 +30367,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" ht="14.5" spans="1:3">
       <c r="A180" s="6" t="s">
         <v>1290</v>
       </c>
@@ -30363,7 +30375,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" ht="14.5" spans="1:3">
       <c r="A181" s="6" t="s">
         <v>1292</v>
       </c>
@@ -30371,7 +30383,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="182" ht="15.6" spans="1:3">
+    <row r="182" ht="16.5" spans="1:3">
       <c r="A182" s="6" t="s">
         <v>1294</v>
       </c>
@@ -30379,7 +30391,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" ht="14.5" spans="1:3">
       <c r="A183" s="6" t="s">
         <v>1296</v>
       </c>
@@ -30387,7 +30399,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" ht="14.5" spans="1:3">
       <c r="A184" s="6" t="s">
         <v>1298</v>
       </c>
@@ -30395,7 +30407,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" ht="14.5" spans="1:3">
       <c r="A185" s="6" t="s">
         <v>1300</v>
       </c>
@@ -30403,7 +30415,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" ht="14.5" spans="1:3">
       <c r="A186" s="6" t="s">
         <v>1302</v>
       </c>
@@ -31054,11 +31066,11 @@
       <selection activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="9.4537037037037" customWidth="1"/>
-    <col min="3" max="3" width="60.7314814814815" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.3363636363636" customWidth="1"/>
+    <col min="2" max="2" width="9.45454545454546" customWidth="1"/>
+    <col min="3" max="3" width="60.7272727272727" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -31801,7 +31813,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:6">
+    <row r="57" ht="14.4" customHeight="1" spans="1:6">
       <c r="A57" t="s">
         <v>1534</v>
       </c>
@@ -31812,7 +31824,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:6">
+    <row r="58" ht="14.4" customHeight="1" spans="1:6">
       <c r="A58" t="s">
         <v>1537</v>
       </c>
@@ -31823,7 +31835,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:6">
+    <row r="59" ht="14.4" customHeight="1" spans="1:6">
       <c r="A59" t="s">
         <v>1539</v>
       </c>
@@ -31834,7 +31846,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:6">
+    <row r="60" ht="14.4" customHeight="1" spans="1:6">
       <c r="A60" t="s">
         <v>1541</v>
       </c>
@@ -31845,7 +31857,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:6">
+    <row r="61" ht="14.4" customHeight="1" spans="1:6">
       <c r="A61" t="s">
         <v>1543</v>
       </c>
@@ -31856,7 +31868,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:6">
+    <row r="62" ht="14.4" customHeight="1" spans="1:6">
       <c r="A62" s="9" t="s">
         <v>1545</v>
       </c>
@@ -31867,7 +31879,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:6">
+    <row r="63" ht="14.4" customHeight="1" spans="1:6">
       <c r="A63" t="s">
         <v>1547</v>
       </c>
@@ -31881,7 +31893,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:6">
+    <row r="64" ht="14.4" customHeight="1" spans="1:6">
       <c r="A64" t="s">
         <v>1550</v>
       </c>
@@ -31895,7 +31907,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:6">
+    <row r="65" ht="14.4" customHeight="1" spans="1:6">
       <c r="A65" t="s">
         <v>1552</v>
       </c>
@@ -31909,7 +31921,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:6">
+    <row r="66" ht="14.4" customHeight="1" spans="1:6">
       <c r="A66" t="s">
         <v>1555</v>
       </c>
@@ -31923,7 +31935,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:6">
+    <row r="67" ht="14.4" customHeight="1" spans="1:6">
       <c r="A67" t="s">
         <v>1557</v>
       </c>
@@ -31937,7 +31949,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:6">
+    <row r="68" ht="14.4" customHeight="1" spans="1:6">
       <c r="A68" t="s">
         <v>1559</v>
       </c>
@@ -31951,7 +31963,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:6">
+    <row r="69" ht="14.4" customHeight="1" spans="1:6">
       <c r="A69" t="s">
         <v>1561</v>
       </c>
@@ -31965,7 +31977,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:6">
+    <row r="70" ht="14.4" customHeight="1" spans="1:6">
       <c r="A70" t="s">
         <v>1563</v>
       </c>
@@ -31976,7 +31988,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:6">
+    <row r="71" ht="14.4" customHeight="1" spans="1:6">
       <c r="A71" s="6" t="s">
         <v>1566</v>
       </c>
@@ -31989,7 +32001,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:6">
+    <row r="72" ht="14.4" customHeight="1" spans="1:6">
       <c r="A72" t="s">
         <v>1568</v>
       </c>
@@ -32003,7 +32015,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:6">
+    <row r="73" ht="14.4" customHeight="1" spans="1:6">
       <c r="A73" t="s">
         <v>1571</v>
       </c>
@@ -32017,7 +32029,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:6">
+    <row r="74" ht="14.4" customHeight="1" spans="1:6">
       <c r="A74" t="s">
         <v>1574</v>
       </c>
@@ -32031,7 +32043,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:6">
+    <row r="75" ht="14.4" customHeight="1" spans="1:6">
       <c r="A75" t="s">
         <v>1576</v>
       </c>
@@ -32045,7 +32057,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:6">
+    <row r="76" ht="14.4" customHeight="1" spans="1:6">
       <c r="A76" t="s">
         <v>1578</v>
       </c>
@@ -32059,7 +32071,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:6">
+    <row r="77" ht="14.4" customHeight="1" spans="1:6">
       <c r="A77" t="s">
         <v>1580</v>
       </c>
@@ -32070,7 +32082,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:6">
+    <row r="78" ht="14.4" customHeight="1" spans="1:6">
       <c r="A78" t="s">
         <v>1583</v>
       </c>
@@ -32081,7 +32093,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:6">
+    <row r="79" ht="14.4" customHeight="1" spans="1:6">
       <c r="A79" t="s">
         <v>1585</v>
       </c>
@@ -32095,7 +32107,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:6">
+    <row r="80" ht="14.4" customHeight="1" spans="1:6">
       <c r="A80" t="s">
         <v>1588</v>
       </c>
@@ -32109,7 +32121,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:6">
+    <row r="81" ht="14.4" customHeight="1" spans="1:6">
       <c r="A81" t="s">
         <v>1590</v>
       </c>
@@ -32123,7 +32135,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:6">
+    <row r="82" ht="14.4" customHeight="1" spans="1:6">
       <c r="A82" t="s">
         <v>1593</v>
       </c>
@@ -32137,7 +32149,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:6">
+    <row r="83" ht="14.4" customHeight="1" spans="1:6">
       <c r="A83" t="s">
         <v>1595</v>
       </c>
@@ -32151,7 +32163,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:6">
+    <row r="84" ht="14.4" customHeight="1" spans="1:6">
       <c r="A84" t="s">
         <v>1597</v>
       </c>
@@ -32165,7 +32177,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:6">
+    <row r="85" ht="14.4" customHeight="1" spans="1:6">
       <c r="A85" t="s">
         <v>1599</v>
       </c>
@@ -32176,7 +32188,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:6">
+    <row r="86" ht="14.4" customHeight="1" spans="1:6">
       <c r="A86" t="s">
         <v>1602</v>
       </c>
@@ -32187,7 +32199,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:6">
+    <row r="87" ht="14.4" customHeight="1" spans="1:6">
       <c r="A87" t="s">
         <v>1604</v>
       </c>
@@ -32201,7 +32213,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:6">
+    <row r="88" ht="14.4" customHeight="1" spans="1:6">
       <c r="A88" t="s">
         <v>1607</v>
       </c>
@@ -32215,7 +32227,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:6">
+    <row r="89" ht="14.4" customHeight="1" spans="1:6">
       <c r="A89" t="s">
         <v>1609</v>
       </c>
@@ -32229,7 +32241,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:6">
+    <row r="90" ht="14.4" customHeight="1" spans="1:6">
       <c r="A90" t="s">
         <v>1612</v>
       </c>
@@ -32243,7 +32255,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:6">
+    <row r="91" ht="14.4" customHeight="1" spans="1:6">
       <c r="A91" t="s">
         <v>1614</v>
       </c>
@@ -32257,7 +32269,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:6">
+    <row r="92" ht="14.4" customHeight="1" spans="1:6">
       <c r="A92" t="s">
         <v>1616</v>
       </c>
@@ -32271,7 +32283,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:6">
+    <row r="93" ht="14.4" customHeight="1" spans="1:6">
       <c r="A93" t="s">
         <v>1618</v>
       </c>
@@ -32282,7 +32294,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:6">
+    <row r="94" ht="14.4" customHeight="1" spans="1:6">
       <c r="A94" t="s">
         <v>1621</v>
       </c>
@@ -32293,7 +32305,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:6">
+    <row r="95" ht="14.4" customHeight="1" spans="1:6">
       <c r="A95" t="s">
         <v>1623</v>
       </c>
@@ -32307,7 +32319,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:6">
+    <row r="96" ht="14.4" customHeight="1" spans="1:6">
       <c r="A96" t="s">
         <v>1626</v>
       </c>
@@ -32321,7 +32333,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:6">
+    <row r="97" ht="14.4" customHeight="1" spans="1:6">
       <c r="A97" t="s">
         <v>1628</v>
       </c>
@@ -32335,7 +32347,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:6">
+    <row r="98" ht="14.4" customHeight="1" spans="1:6">
       <c r="A98" t="s">
         <v>1631</v>
       </c>
@@ -32349,7 +32361,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:6">
+    <row r="99" ht="14.4" customHeight="1" spans="1:6">
       <c r="A99" t="s">
         <v>1633</v>
       </c>
@@ -32363,7 +32375,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:6">
+    <row r="100" ht="14.4" customHeight="1" spans="1:6">
       <c r="A100" t="s">
         <v>1635</v>
       </c>
@@ -32377,7 +32389,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:6">
+    <row r="101" ht="14.4" customHeight="1" spans="1:6">
       <c r="A101" t="s">
         <v>1637</v>
       </c>
@@ -32388,7 +32400,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:6">
+    <row r="102" ht="14.4" customHeight="1" spans="1:6">
       <c r="A102" t="s">
         <v>1640</v>
       </c>
@@ -32399,7 +32411,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:6">
+    <row r="103" ht="14.4" customHeight="1" spans="1:6">
       <c r="A103" t="s">
         <v>1642</v>
       </c>
@@ -32413,7 +32425,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:6">
+    <row r="104" ht="14.4" customHeight="1" spans="1:6">
       <c r="A104" t="s">
         <v>1645</v>
       </c>
@@ -32430,7 +32442,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:6">
+    <row r="105" ht="14.4" customHeight="1" spans="1:6">
       <c r="A105" t="s">
         <v>1648</v>
       </c>
@@ -32444,7 +32456,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:6">
+    <row r="106" ht="14.4" customHeight="1" spans="1:6">
       <c r="A106" t="s">
         <v>1651</v>
       </c>
@@ -32458,7 +32470,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:6">
+    <row r="107" ht="14.4" customHeight="1" spans="1:6">
       <c r="A107" t="s">
         <v>1653</v>
       </c>
@@ -32472,7 +32484,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:6">
+    <row r="108" ht="14.4" customHeight="1" spans="1:6">
       <c r="A108" t="s">
         <v>1655</v>
       </c>
@@ -32486,7 +32498,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:6">
+    <row r="109" ht="14.4" customHeight="1" spans="1:6">
       <c r="A109" t="s">
         <v>1657</v>
       </c>
@@ -32497,7 +32509,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:6">
+    <row r="110" ht="14.4" customHeight="1" spans="1:6">
       <c r="A110" t="s">
         <v>1660</v>
       </c>
@@ -32508,7 +32520,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:6">
+    <row r="111" ht="14.4" customHeight="1" spans="1:6">
       <c r="A111" t="s">
         <v>1662</v>
       </c>
@@ -32522,7 +32534,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:6">
+    <row r="112" ht="14.4" customHeight="1" spans="1:6">
       <c r="A112" t="s">
         <v>1665</v>
       </c>
@@ -32536,7 +32548,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:6">
+    <row r="113" ht="14.4" customHeight="1" spans="1:6">
       <c r="A113" t="s">
         <v>1668</v>
       </c>
@@ -32550,7 +32562,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:6">
+    <row r="114" ht="14.4" customHeight="1" spans="1:6">
       <c r="A114" t="s">
         <v>1670</v>
       </c>
@@ -32564,7 +32576,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:6">
+    <row r="115" ht="14.4" customHeight="1" spans="1:6">
       <c r="A115" t="s">
         <v>1672</v>
       </c>
@@ -32578,7 +32590,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:6">
+    <row r="116" ht="14.4" customHeight="1" spans="1:6">
       <c r="A116" t="s">
         <v>1674</v>
       </c>
@@ -32589,7 +32601,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:6">
+    <row r="117" ht="14.4" customHeight="1" spans="1:6">
       <c r="A117" t="s">
         <v>1677</v>
       </c>
@@ -32600,7 +32612,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:6">
+    <row r="118" ht="14.4" customHeight="1" spans="1:6">
       <c r="A118" t="s">
         <v>1679</v>
       </c>
@@ -32614,7 +32626,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:6">
+    <row r="119" ht="14.4" customHeight="1" spans="1:6">
       <c r="A119" t="s">
         <v>1682</v>
       </c>
@@ -32628,7 +32640,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:6">
+    <row r="120" ht="14.4" customHeight="1" spans="1:6">
       <c r="A120" t="s">
         <v>1684</v>
       </c>
@@ -32642,7 +32654,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:6">
+    <row r="121" ht="14.4" customHeight="1" spans="1:6">
       <c r="A121" t="s">
         <v>1687</v>
       </c>
@@ -32656,7 +32668,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:6">
+    <row r="122" ht="14.4" customHeight="1" spans="1:6">
       <c r="A122" t="s">
         <v>1689</v>
       </c>
@@ -32670,7 +32682,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:6">
+    <row r="123" ht="14.4" customHeight="1" spans="1:6">
       <c r="A123" t="s">
         <v>1691</v>
       </c>
@@ -32684,7 +32696,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:6">
+    <row r="124" ht="14.4" customHeight="1" spans="1:6">
       <c r="A124" t="s">
         <v>1693</v>
       </c>
@@ -32695,7 +32707,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:6">
+    <row r="125" ht="14.4" customHeight="1" spans="1:6">
       <c r="A125" t="s">
         <v>1696</v>
       </c>
@@ -32706,7 +32718,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:6">
+    <row r="126" ht="14.4" customHeight="1" spans="1:6">
       <c r="A126" t="s">
         <v>1698</v>
       </c>
@@ -32720,7 +32732,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:6">
+    <row r="127" ht="14.4" customHeight="1" spans="1:6">
       <c r="A127" t="s">
         <v>1701</v>
       </c>
@@ -32734,7 +32746,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:6">
+    <row r="128" ht="14.4" customHeight="1" spans="1:6">
       <c r="A128" t="s">
         <v>1703</v>
       </c>
@@ -32748,7 +32760,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:6">
+    <row r="129" ht="14.4" customHeight="1" spans="1:6">
       <c r="A129" t="s">
         <v>1706</v>
       </c>
@@ -32762,7 +32774,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:6">
+    <row r="130" ht="14.4" customHeight="1" spans="1:6">
       <c r="A130" t="s">
         <v>1708</v>
       </c>
@@ -32776,7 +32788,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:6">
+    <row r="131" ht="14.4" customHeight="1" spans="1:6">
       <c r="A131" t="s">
         <v>1710</v>
       </c>
@@ -32790,7 +32802,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:6">
+    <row r="132" ht="14.4" customHeight="1" spans="1:6">
       <c r="A132" t="s">
         <v>1712</v>
       </c>
@@ -32801,7 +32813,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:6">
+    <row r="133" ht="14.4" customHeight="1" spans="1:6">
       <c r="A133" t="s">
         <v>1715</v>
       </c>
@@ -32812,7 +32824,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:6">
+    <row r="134" ht="14.4" customHeight="1" spans="1:6">
       <c r="A134" s="6" t="s">
         <v>1717</v>
       </c>
@@ -32823,7 +32835,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:6">
+    <row r="135" ht="14.4" customHeight="1" spans="1:6">
       <c r="A135" t="s">
         <v>1719</v>
       </c>
@@ -32834,7 +32846,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:6">
+    <row r="136" ht="14.4" customHeight="1" spans="1:6">
       <c r="A136" t="s">
         <v>1721</v>
       </c>
@@ -32845,7 +32857,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:6">
+    <row r="137" ht="14.4" customHeight="1" spans="1:6">
       <c r="A137" t="s">
         <v>1723</v>
       </c>
@@ -32856,7 +32868,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:6">
+    <row r="138" ht="14.4" customHeight="1" spans="1:6">
       <c r="A138" t="s">
         <v>1725</v>
       </c>
@@ -32870,7 +32882,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:6">
+    <row r="139" ht="14.4" customHeight="1" spans="1:6">
       <c r="A139" t="s">
         <v>1728</v>
       </c>
@@ -32884,7 +32896,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:6">
+    <row r="140" ht="14.4" customHeight="1" spans="1:6">
       <c r="A140" t="s">
         <v>1730</v>
       </c>
@@ -32898,7 +32910,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:6">
+    <row r="141" ht="14.4" customHeight="1" spans="1:6">
       <c r="A141" t="s">
         <v>1732</v>
       </c>
@@ -32912,7 +32924,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:6">
+    <row r="142" ht="14.4" customHeight="1" spans="1:6">
       <c r="A142" t="s">
         <v>1734</v>
       </c>
@@ -32926,7 +32938,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:6">
+    <row r="143" ht="14.4" customHeight="1" spans="1:6">
       <c r="A143" t="s">
         <v>1736</v>
       </c>
@@ -32940,7 +32952,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:6">
+    <row r="144" ht="14.4" customHeight="1" spans="1:6">
       <c r="A144" t="s">
         <v>1738</v>
       </c>
@@ -32954,7 +32966,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:6">
+    <row r="145" ht="14.4" customHeight="1" spans="1:6">
       <c r="A145" t="s">
         <v>1740</v>
       </c>
@@ -32968,7 +32980,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:6">
+    <row r="146" ht="14.4" customHeight="1" spans="1:6">
       <c r="A146" t="s">
         <v>1743</v>
       </c>
@@ -32985,7 +32997,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:6">
+    <row r="147" ht="14.4" customHeight="1" spans="1:6">
       <c r="A147" t="s">
         <v>1746</v>
       </c>
@@ -32996,7 +33008,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:6">
+    <row r="148" ht="14.4" customHeight="1" spans="1:6">
       <c r="A148" t="s">
         <v>1749</v>
       </c>
@@ -33010,7 +33022,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:6">
+    <row r="149" ht="14.4" customHeight="1" spans="1:6">
       <c r="A149" t="s">
         <v>1752</v>
       </c>
@@ -33024,7 +33036,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:6">
+    <row r="150" ht="14.4" customHeight="1" spans="1:6">
       <c r="A150" t="s">
         <v>1754</v>
       </c>
@@ -33038,7 +33050,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:6">
+    <row r="151" ht="14.4" customHeight="1" spans="1:6">
       <c r="A151" t="s">
         <v>1756</v>
       </c>
@@ -33052,7 +33064,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:6">
+    <row r="152" ht="14.4" customHeight="1" spans="1:6">
       <c r="A152" t="s">
         <v>1758</v>
       </c>
@@ -33066,7 +33078,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:6">
+    <row r="153" ht="14.4" customHeight="1" spans="1:6">
       <c r="A153" t="s">
         <v>1760</v>
       </c>
@@ -33080,7 +33092,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:6">
+    <row r="154" ht="14.4" customHeight="1" spans="1:6">
       <c r="A154" t="s">
         <v>1762</v>
       </c>
@@ -33094,7 +33106,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:6">
+    <row r="155" ht="14.4" customHeight="1" spans="1:6">
       <c r="A155" t="s">
         <v>1764</v>
       </c>
@@ -33108,7 +33120,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:6">
+    <row r="156" ht="14.4" customHeight="1" spans="1:6">
       <c r="A156" t="s">
         <v>1766</v>
       </c>
@@ -33122,7 +33134,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:6">
+    <row r="157" ht="14.4" customHeight="1" spans="1:6">
       <c r="A157" t="s">
         <v>1768</v>
       </c>
@@ -33136,7 +33148,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:6">
+    <row r="158" ht="14.4" customHeight="1" spans="1:6">
       <c r="A158" t="s">
         <v>1770</v>
       </c>
@@ -33150,7 +33162,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:6">
+    <row r="159" ht="14.4" customHeight="1" spans="1:6">
       <c r="A159" t="s">
         <v>1772</v>
       </c>
@@ -33164,7 +33176,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:6">
+    <row r="160" ht="14.4" customHeight="1" spans="1:6">
       <c r="A160" t="s">
         <v>1774</v>
       </c>
@@ -33178,7 +33190,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:6">
+    <row r="161" ht="14.4" customHeight="1" spans="1:6">
       <c r="A161" t="s">
         <v>1776</v>
       </c>
@@ -33192,7 +33204,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:6">
+    <row r="162" ht="14.4" customHeight="1" spans="1:6">
       <c r="A162" t="s">
         <v>1778</v>
       </c>
@@ -33203,7 +33215,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:6">
+    <row r="163" ht="14.4" customHeight="1" spans="1:6">
       <c r="A163" t="s">
         <v>1781</v>
       </c>
@@ -33217,7 +33229,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:6">
+    <row r="164" ht="14.4" customHeight="1" spans="1:6">
       <c r="A164" t="s">
         <v>1784</v>
       </c>
@@ -33231,7 +33243,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:6">
+    <row r="165" ht="14.4" customHeight="1" spans="1:6">
       <c r="A165" t="s">
         <v>1786</v>
       </c>
@@ -33245,7 +33257,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:6">
+    <row r="166" ht="14.4" customHeight="1" spans="1:6">
       <c r="A166" t="s">
         <v>1788</v>
       </c>
@@ -33259,7 +33271,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:6">
+    <row r="167" ht="14.4" customHeight="1" spans="1:6">
       <c r="A167" t="s">
         <v>1790</v>
       </c>
@@ -36732,7 +36744,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="429" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="429" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A429" s="6" t="s">
         <v>2375</v>
       </c>
@@ -36746,7 +36758,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="430" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="430" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A430" s="6" t="s">
         <v>2379</v>
       </c>
@@ -36757,7 +36769,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="431" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="431" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A431" s="6" t="s">
         <v>2381</v>
       </c>
@@ -36768,7 +36780,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="432" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="432" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A432" s="6" t="s">
         <v>2383</v>
       </c>
@@ -36779,7 +36791,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="433" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="433" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A433" s="6" t="s">
         <v>2385</v>
       </c>
@@ -36790,7 +36802,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="434" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="434" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A434" s="6" t="s">
         <v>2387</v>
       </c>
@@ -36804,7 +36816,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="435" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="435" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A435" s="6" t="s">
         <v>2390</v>
       </c>
@@ -36818,7 +36830,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="436" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="436" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A436" s="6" t="s">
         <v>2392</v>
       </c>
@@ -36832,7 +36844,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="437" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="437" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A437" s="6" t="s">
         <v>2394</v>
       </c>
@@ -36843,7 +36855,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="438" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="438" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A438" s="6" t="s">
         <v>2396</v>
       </c>
@@ -36857,7 +36869,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="439" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="439" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A439" s="6" t="s">
         <v>2399</v>
       </c>
@@ -36871,7 +36883,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="440" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="440" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A440" s="6" t="s">
         <v>2401</v>
       </c>
@@ -36885,7 +36897,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="441" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="441" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A441" s="6" t="s">
         <v>2403</v>
       </c>
@@ -36899,7 +36911,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="442" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="442" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A442" s="6" t="s">
         <v>2405</v>
       </c>
@@ -36913,7 +36925,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="443" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="443" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A443" s="6" t="s">
         <v>2407</v>
       </c>
@@ -36927,7 +36939,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="444" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="444" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A444" s="6" t="s">
         <v>2409</v>
       </c>
@@ -36938,7 +36950,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="445" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="445" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A445" s="6" t="s">
         <v>2412</v>
       </c>
@@ -36952,7 +36964,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="446" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="446" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A446" s="6" t="s">
         <v>2415</v>
       </c>
@@ -36966,7 +36978,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="447" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="447" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A447" s="6" t="s">
         <v>2417</v>
       </c>
@@ -36980,7 +36992,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="448" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="448" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A448" s="6" t="s">
         <v>2419</v>
       </c>
@@ -36994,7 +37006,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="449" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="449" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A449" s="6" t="s">
         <v>2421</v>
       </c>
@@ -37008,7 +37020,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="450" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="450" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A450" s="6" t="s">
         <v>2423</v>
       </c>
@@ -37022,7 +37034,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="451" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="451" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A451" s="6" t="s">
         <v>2426</v>
       </c>
@@ -37036,7 +37048,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="452" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="452" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A452" s="6" t="s">
         <v>2429</v>
       </c>
@@ -37050,7 +37062,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="453" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="453" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A453" s="6" t="s">
         <v>2431</v>
       </c>
@@ -37064,7 +37076,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="454" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="454" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A454" s="6" t="s">
         <v>2433</v>
       </c>
@@ -37078,7 +37090,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="455" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="455" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A455" s="6" t="s">
         <v>2435</v>
       </c>
@@ -37092,7 +37104,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="456" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="456" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A456" s="6" t="s">
         <v>2437</v>
       </c>
@@ -37106,7 +37118,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="457" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="457" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A457" s="6" t="s">
         <v>2440</v>
       </c>
@@ -37120,7 +37132,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="458" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="458" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A458" s="6" t="s">
         <v>2443</v>
       </c>
@@ -37134,7 +37146,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="459" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="459" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A459" s="6" t="s">
         <v>2445</v>
       </c>
@@ -37148,7 +37160,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="460" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="460" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A460" s="6" t="s">
         <v>2447</v>
       </c>
@@ -37162,7 +37174,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="461" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="461" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A461" s="6" t="s">
         <v>2449</v>
       </c>
@@ -37176,7 +37188,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="462" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="462" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A462" s="6" t="s">
         <v>2451</v>
       </c>
@@ -37187,7 +37199,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="463" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="463" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A463" s="6" t="s">
         <v>2454</v>
       </c>
@@ -37198,7 +37210,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="464" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="464" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A464" s="6" t="s">
         <v>2456</v>
       </c>
@@ -37209,7 +37221,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="465" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="465" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A465" s="6" t="s">
         <v>2458</v>
       </c>
@@ -37220,7 +37232,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="466" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="466" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A466" s="6" t="s">
         <v>2460</v>
       </c>
@@ -37231,7 +37243,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="467" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="467" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A467" s="6" t="s">
         <v>2462</v>
       </c>
@@ -37242,7 +37254,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="468" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="468" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A468" s="6" t="s">
         <v>2464</v>
       </c>
@@ -37253,7 +37265,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="469" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="469" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A469" s="6" t="s">
         <v>2466</v>
       </c>
@@ -37264,7 +37276,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="470" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="470" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A470" s="6" t="s">
         <v>2468</v>
       </c>
@@ -37275,7 +37287,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="471" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="471" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A471" s="6" t="s">
         <v>2470</v>
       </c>
@@ -37286,7 +37298,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="472" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="472" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A472" s="6" t="s">
         <v>2472</v>
       </c>
@@ -37297,7 +37309,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="473" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="473" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A473" s="6" t="s">
         <v>2474</v>
       </c>
@@ -37308,7 +37320,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="474" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="474" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A474" s="6" t="s">
         <v>2476</v>
       </c>
@@ -37319,7 +37331,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="475" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="475" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A475" s="6" t="s">
         <v>2478</v>
       </c>
@@ -37330,7 +37342,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="476" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="476" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A476" s="6" t="s">
         <v>2480</v>
       </c>
@@ -37341,7 +37353,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="477" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="477" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A477" s="6" t="s">
         <v>2482</v>
       </c>
@@ -37352,7 +37364,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="478" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="478" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A478" s="6" t="s">
         <v>2484</v>
       </c>
@@ -37363,7 +37375,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="479" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="479" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A479" s="6" t="s">
         <v>2486</v>
       </c>
@@ -37374,7 +37386,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="480" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="480" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A480" s="6" t="s">
         <v>2488</v>
       </c>
@@ -37385,7 +37397,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="481" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="481" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A481" s="6" t="s">
         <v>2490</v>
       </c>
@@ -37396,7 +37408,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="482" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="482" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A482" s="6" t="s">
         <v>2492</v>
       </c>
@@ -37407,7 +37419,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="483" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="483" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A483" s="6" t="s">
         <v>2494</v>
       </c>
@@ -37418,7 +37430,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="484" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="484" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A484" s="6" t="s">
         <v>2496</v>
       </c>
@@ -37429,7 +37441,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="485" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="485" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A485" s="6" t="s">
         <v>2498</v>
       </c>
@@ -37440,7 +37452,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="486" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="486" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A486" s="6" t="s">
         <v>2500</v>
       </c>
@@ -37451,7 +37463,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="487" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="487" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A487" s="6" t="s">
         <v>2502</v>
       </c>
@@ -37462,7 +37474,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="488" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="488" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A488" s="6" t="s">
         <v>2504</v>
       </c>
@@ -37473,7 +37485,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="489" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="489" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A489" s="6" t="s">
         <v>2506</v>
       </c>
@@ -37484,7 +37496,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="490" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="490" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A490" s="6" t="s">
         <v>2508</v>
       </c>
@@ -37495,7 +37507,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="491" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="491" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A491" s="6" t="s">
         <v>2510</v>
       </c>
@@ -37506,7 +37518,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="492" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="492" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A492" s="6" t="s">
         <v>2512</v>
       </c>
@@ -37517,7 +37529,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="493" s="6" customFormat="1" customHeight="1" spans="1:6">
+    <row r="493" s="6" customFormat="1" ht="14.4" customHeight="1" spans="1:6">
       <c r="A493" s="6" t="s">
         <v>2514</v>
       </c>
@@ -38350,10 +38362,10 @@
       <selection activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="3" max="3" width="116.666666666667" style="9" customWidth="1"/>
+    <col min="3" max="3" width="116.663636363636" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
@@ -39782,12 +39794,12 @@
       <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3611111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.5740740740741" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="2" max="2" width="12.3636363636364" style="1" customWidth="1"/>
+    <col min="3" max="3" width="57.5727272727273" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -40363,10 +40375,10 @@
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="14.0925925925926" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="1" width="14.0909090909091" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -40898,11 +40910,11 @@
       <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81481481481481" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9.81481481481481" style="1"/>
-    <col min="3" max="3" width="37.0925925925926" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.81481481481481" style="1"/>
+    <col min="1" max="2" width="9.81818181818182" style="1"/>
+    <col min="3" max="3" width="37.0909090909091" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.81818181818182" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">

--- a/data/helpdoc/DND/01_玩家手册PHB.xlsx
+++ b/data/helpdoc/DND/01_玩家手册PHB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270" activeTab="3"/>
+    <workbookView windowWidth="18530" windowHeight="7270" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PHB背景" sheetId="1" r:id="rId1"/>
@@ -21650,7 +21650,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -21679,9 +21679,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -22034,7 +22031,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -23078,8 +23075,8 @@
   <sheetPr/>
   <dimension ref="A1:F363"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A54" sqref="$A54:$XFD54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelCol="5"/>
@@ -23090,11 +23087,11 @@
     <col min="5" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
+    <row r="1" s="9" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -23110,7 +23107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
+    <row r="2" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A2" s="9" t="s">
         <v>98</v>
       </c>
@@ -23124,7 +23121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
+    <row r="3" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>102</v>
       </c>
@@ -23138,7 +23135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:4">
+    <row r="4" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>104</v>
       </c>
@@ -23152,7 +23149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:4">
+    <row r="5" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A5" s="9" t="s">
         <v>106</v>
       </c>
@@ -23166,35 +23163,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:4">
+    <row r="6" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:4">
+    <row r="7" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A7" s="9" t="s">
         <v>110</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:4">
+    <row r="8" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A8" s="9" t="s">
         <v>112</v>
       </c>
@@ -23208,7 +23205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:4">
+    <row r="9" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>114</v>
       </c>
@@ -23222,7 +23219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:4">
+    <row r="10" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A10" s="9" t="s">
         <v>116</v>
       </c>
@@ -23236,7 +23233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:4">
+    <row r="11" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A11" s="9" t="s">
         <v>118</v>
       </c>
@@ -23250,7 +23247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:4">
+    <row r="12" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>121</v>
       </c>
@@ -23264,21 +23261,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:4">
+    <row r="13" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A13" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:4">
+    <row r="14" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>126</v>
       </c>
@@ -23292,21 +23289,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:4">
+    <row r="15" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A15" s="9" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:4">
+    <row r="16" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>130</v>
       </c>
@@ -23320,49 +23317,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:4">
+    <row r="17" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A17" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>133</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:4">
+    <row r="18" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A18" s="9" t="s">
         <v>134</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>135</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:4">
+    <row r="19" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:4">
+    <row r="20" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A20" s="9" t="s">
         <v>138</v>
       </c>
@@ -23376,7 +23373,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:4">
+    <row r="21" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
@@ -23390,7 +23387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
+    <row r="22" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A22" s="9" t="s">
         <v>143</v>
       </c>
@@ -23404,7 +23401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:4">
+    <row r="23" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A23" s="9" t="s">
         <v>145</v>
       </c>
@@ -23418,7 +23415,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:4">
+    <row r="24" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A24" s="9" t="s">
         <v>147</v>
       </c>
@@ -23432,21 +23429,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:4">
+    <row r="25" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>149</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>150</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:4">
+    <row r="26" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>151</v>
       </c>
@@ -23460,21 +23457,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:4">
+    <row r="27" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A27" s="9" t="s">
         <v>153</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:4">
+    <row r="28" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>155</v>
       </c>
@@ -23488,7 +23485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:4">
+    <row r="29" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A29" s="9" t="s">
         <v>157</v>
       </c>
@@ -23502,7 +23499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:4">
+    <row r="30" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>159</v>
       </c>
@@ -23516,7 +23513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:4">
+    <row r="31" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A31" s="9" t="s">
         <v>161</v>
       </c>
@@ -23530,21 +23527,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:4">
+    <row r="32" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A32" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:4">
+    <row r="33" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A33" s="9" t="s">
         <v>165</v>
       </c>
@@ -23558,49 +23555,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:4">
+    <row r="34" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A34" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>168</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:4">
+    <row r="35" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A35" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>170</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:4">
+    <row r="36" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>171</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>172</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:4">
+    <row r="37" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A37" s="9" t="s">
         <v>173</v>
       </c>
@@ -23614,7 +23611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:4">
+    <row r="38" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A38" s="9" t="s">
         <v>175</v>
       </c>
@@ -23628,7 +23625,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:4">
+    <row r="39" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A39" s="9" t="s">
         <v>178</v>
       </c>
@@ -23642,7 +23639,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:4">
+    <row r="40" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A40" s="9" t="s">
         <v>180</v>
       </c>
@@ -23656,7 +23653,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:4">
+    <row r="41" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A41" s="9" t="s">
         <v>182</v>
       </c>
@@ -23670,7 +23667,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:4">
+    <row r="42" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A42" s="9" t="s">
         <v>184</v>
       </c>
@@ -23684,7 +23681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:4">
+    <row r="43" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A43" s="9" t="s">
         <v>186</v>
       </c>
@@ -23698,21 +23695,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:4">
+    <row r="44" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A44" s="9" t="s">
         <v>188</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:4">
+    <row r="45" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A45" s="9" t="s">
         <v>191</v>
       </c>
@@ -23726,33 +23723,33 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:4">
+    <row r="46" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A46" s="9" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>194</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:4">
+    <row r="47" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A47" s="9" t="s">
         <v>195</v>
       </c>
       <c r="B47" s="13"/>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="6" t="s">
         <v>196</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:4">
+    <row r="48" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A48" s="9" t="s">
         <v>197</v>
       </c>
@@ -23766,21 +23763,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:4">
+    <row r="49" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A49" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>201</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:4">
+    <row r="50" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A50" s="9" t="s">
         <v>202</v>
       </c>
@@ -23794,7 +23791,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:4">
+    <row r="51" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A51" s="9" t="s">
         <v>204</v>
       </c>
@@ -23808,35 +23805,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:4">
+    <row r="52" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A52" s="9" t="s">
         <v>206</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="6" t="s">
         <v>207</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:4">
+    <row r="53" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A53" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>209</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:4">
+    <row r="54" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A54" s="9" t="s">
         <v>210</v>
       </c>
@@ -23850,7 +23847,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:4">
+    <row r="55" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A55" s="9" t="s">
         <v>212</v>
       </c>
@@ -23864,21 +23861,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:4">
+    <row r="56" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A56" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>215</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:4">
+    <row r="57" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A57" s="9" t="s">
         <v>216</v>
       </c>
@@ -23892,7 +23889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:4">
+    <row r="58" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A58" s="9" t="s">
         <v>218</v>
       </c>
@@ -23906,49 +23903,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:4">
+    <row r="59" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A59" s="9" t="s">
         <v>220</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>222</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:4">
+    <row r="60" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>223</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:4">
+    <row r="61" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A61" s="9" t="s">
         <v>225</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>226</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:4">
+    <row r="62" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A62" s="9" t="s">
         <v>227</v>
       </c>
@@ -23962,21 +23959,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:4">
+    <row r="63" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A63" s="9" t="s">
         <v>229</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:4">
+    <row r="64" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A64" s="9" t="s">
         <v>231</v>
       </c>
@@ -23990,7 +23987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:4">
+    <row r="65" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A65" s="9" t="s">
         <v>233</v>
       </c>
@@ -24004,7 +24001,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:4">
+    <row r="66" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>235</v>
       </c>
@@ -24018,7 +24015,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:4">
+    <row r="67" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A67" s="9" t="s">
         <v>237</v>
       </c>
@@ -24032,21 +24029,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:4">
+    <row r="68" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A68" s="9" t="s">
         <v>239</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>240</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:4">
+    <row r="69" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>241</v>
       </c>
@@ -24060,7 +24057,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:4">
+    <row r="70" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A70" s="9" t="s">
         <v>243</v>
       </c>
@@ -24074,7 +24071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:4">
+    <row r="71" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A71" s="9" t="s">
         <v>245</v>
       </c>
@@ -24088,21 +24085,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:4">
+    <row r="72" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>247</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>248</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:4">
+    <row r="73" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A73" s="9" t="s">
         <v>249</v>
       </c>
@@ -24116,21 +24113,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:4">
+    <row r="74" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A74" s="9" t="s">
         <v>251</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>252</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:4">
+    <row r="75" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A75" s="9" t="s">
         <v>253</v>
       </c>
@@ -24144,11 +24141,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:4">
+    <row r="76" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A76" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>256</v>
       </c>
       <c r="C76" s="6" t="s">
@@ -24158,21 +24155,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:4">
+    <row r="77" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="6" t="s">
         <v>260</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:4">
+    <row r="78" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A78" s="9" t="s">
         <v>261</v>
       </c>
@@ -24186,21 +24183,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:4">
+    <row r="79" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>263</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="6" t="s">
         <v>264</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:4">
+    <row r="80" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A80" s="9" t="s">
         <v>265</v>
       </c>
@@ -24214,7 +24211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:4">
+    <row r="81" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A81" s="9" t="s">
         <v>267</v>
       </c>
@@ -24228,21 +24225,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:4">
+    <row r="82" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A82" s="9" t="s">
         <v>270</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="6" t="s">
         <v>271</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:4">
+    <row r="83" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A83" s="9" t="s">
         <v>272</v>
       </c>
@@ -24256,21 +24253,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:4">
+    <row r="84" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A84" s="9" t="s">
         <v>274</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="6" t="s">
         <v>275</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:4">
+    <row r="85" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A85" s="9" t="s">
         <v>276</v>
       </c>
@@ -24284,7 +24281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:4">
+    <row r="86" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A86" s="9" t="s">
         <v>278</v>
       </c>
@@ -24298,7 +24295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:4">
+    <row r="87" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>281</v>
       </c>
@@ -24312,21 +24309,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:4">
+    <row r="88" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>283</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>284</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:4">
+    <row r="89" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A89" s="9" t="s">
         <v>285</v>
       </c>
@@ -24340,7 +24337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:4">
+    <row r="90" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A90" s="9" t="s">
         <v>287</v>
       </c>
@@ -24354,7 +24351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:4">
+    <row r="91" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A91" s="9" t="s">
         <v>290</v>
       </c>
@@ -24368,7 +24365,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:4">
+    <row r="92" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A92" s="9" t="s">
         <v>292</v>
       </c>
@@ -24382,21 +24379,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:4">
+    <row r="93" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A93" s="9" t="s">
         <v>294</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="6" t="s">
         <v>295</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:4">
+    <row r="94" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A94" s="9" t="s">
         <v>296</v>
       </c>
@@ -24410,7 +24407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:4">
+    <row r="95" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A95" s="9" t="s">
         <v>298</v>
       </c>
@@ -24424,7 +24421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:4">
+    <row r="96" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A96" s="9" t="s">
         <v>300</v>
       </c>
@@ -24438,7 +24435,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" customHeight="1" spans="1:4">
+    <row r="97" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A97" s="9" t="s">
         <v>302</v>
       </c>
@@ -24452,7 +24449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" customHeight="1" spans="1:4">
+    <row r="98" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A98" s="9" t="s">
         <v>305</v>
       </c>
@@ -24466,21 +24463,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" customHeight="1" spans="1:4">
+    <row r="99" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A99" s="9" t="s">
         <v>307</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="6" t="s">
         <v>308</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:4">
+    <row r="100" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A100" s="9" t="s">
         <v>309</v>
       </c>
@@ -24494,7 +24491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="101" customHeight="1" spans="1:4">
+    <row r="101" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A101" s="9" t="s">
         <v>311</v>
       </c>
@@ -24508,49 +24505,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" customHeight="1" spans="1:4">
+    <row r="102" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A102" s="9" t="s">
         <v>313</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="6" t="s">
         <v>314</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" customHeight="1" spans="1:4">
+    <row r="103" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A103" s="9" t="s">
         <v>315</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="6" t="s">
         <v>316</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" customHeight="1" spans="1:4">
+    <row r="104" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A104" s="9" t="s">
         <v>317</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="6" t="s">
         <v>318</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="105" customHeight="1" spans="1:4">
+    <row r="105" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A105" s="9" t="s">
         <v>319</v>
       </c>
@@ -24564,7 +24561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" customHeight="1" spans="1:4">
+    <row r="106" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A106" s="9" t="s">
         <v>321</v>
       </c>
@@ -24578,7 +24575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" customHeight="1" spans="1:4">
+    <row r="107" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A107" s="9" t="s">
         <v>323</v>
       </c>
@@ -24592,49 +24589,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:4">
+    <row r="108" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A108" s="9" t="s">
         <v>325</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="6" t="s">
         <v>326</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:4">
+    <row r="109" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A109" s="9" t="s">
         <v>327</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="6" t="s">
         <v>328</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:4">
+    <row r="110" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A110" s="9" t="s">
         <v>329</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="6" t="s">
         <v>330</v>
       </c>
       <c r="D110" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:4">
+    <row r="111" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A111" s="9" t="s">
         <v>331</v>
       </c>
@@ -24648,21 +24645,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" customHeight="1" spans="1:4">
+    <row r="112" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A112" s="9" t="s">
         <v>333</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="6" t="s">
         <v>334</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="113" customHeight="1" spans="1:4">
+    <row r="113" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A113" s="9" t="s">
         <v>335</v>
       </c>
@@ -24676,7 +24673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" customHeight="1" spans="1:4">
+    <row r="114" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A114" s="9" t="s">
         <v>337</v>
       </c>
@@ -24690,21 +24687,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" customHeight="1" spans="1:4">
+    <row r="115" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A115" s="9" t="s">
         <v>339</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="6" t="s">
         <v>340</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:4">
+    <row r="116" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A116" s="9" t="s">
         <v>341</v>
       </c>
@@ -24718,7 +24715,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:4">
+    <row r="117" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A117" s="9" t="s">
         <v>343</v>
       </c>
@@ -24732,7 +24729,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:4">
+    <row r="118" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A118" s="9" t="s">
         <v>345</v>
       </c>
@@ -24746,7 +24743,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" customHeight="1" spans="1:4">
+    <row r="119" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A119" s="9" t="s">
         <v>348</v>
       </c>
@@ -24760,7 +24757,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:4">
+    <row r="120" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A120" s="9" t="s">
         <v>350</v>
       </c>
@@ -24774,35 +24771,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:4">
+    <row r="121" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A121" s="9" t="s">
         <v>352</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="6" t="s">
         <v>353</v>
       </c>
       <c r="D121" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="122" customHeight="1" spans="1:4">
+    <row r="122" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A122" s="9" t="s">
         <v>354</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="C122" s="6" t="s">
         <v>355</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="123" customHeight="1" spans="1:4">
+    <row r="123" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A123" s="9" t="s">
         <v>356</v>
       </c>
@@ -24816,33 +24813,33 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" customHeight="1" spans="1:4">
+    <row r="124" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A124" s="9" t="s">
         <v>358</v>
       </c>
       <c r="B124" s="13"/>
-      <c r="C124" s="9" t="s">
+      <c r="C124" s="6" t="s">
         <v>359</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="125" customHeight="1" spans="1:4">
+    <row r="125" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A125" s="9" t="s">
         <v>360</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="6" t="s">
         <v>361</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="126" customHeight="1" spans="1:4">
+    <row r="126" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A126" s="9" t="s">
         <v>362</v>
       </c>
@@ -24856,7 +24853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" customHeight="1" spans="1:4">
+    <row r="127" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A127" s="9" t="s">
         <v>364</v>
       </c>
@@ -24870,7 +24867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" customHeight="1" spans="1:4">
+    <row r="128" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A128" s="9" t="s">
         <v>366</v>
       </c>
@@ -24884,21 +24881,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" customHeight="1" spans="1:4">
+    <row r="129" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A129" s="9" t="s">
         <v>368</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="6" t="s">
         <v>369</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="130" customHeight="1" spans="1:4">
+    <row r="130" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A130" s="9" t="s">
         <v>370</v>
       </c>
@@ -24912,21 +24909,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" customHeight="1" spans="1:4">
+    <row r="131" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A131" s="9" t="s">
         <v>372</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="6" t="s">
         <v>373</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:4">
+    <row r="132" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A132" s="9" t="s">
         <v>374</v>
       </c>
@@ -24940,21 +24937,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" customHeight="1" spans="1:4">
+    <row r="133" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A133" s="9" t="s">
         <v>376</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="C133" s="6" t="s">
         <v>378</v>
       </c>
       <c r="D133" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="134" customHeight="1" spans="1:4">
+    <row r="134" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A134" s="9" t="s">
         <v>379</v>
       </c>
@@ -24968,7 +24965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" customHeight="1" spans="1:4">
+    <row r="135" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A135" s="9" t="s">
         <v>382</v>
       </c>
@@ -24982,7 +24979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" customHeight="1" spans="1:4">
+    <row r="136" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A136" s="9" t="s">
         <v>384</v>
       </c>
@@ -24996,21 +24993,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:4">
+    <row r="137" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A137" s="9" t="s">
         <v>386</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C137" s="6" t="s">
         <v>387</v>
       </c>
       <c r="D137" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" customHeight="1" spans="1:4">
+    <row r="138" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A138" s="9" t="s">
         <v>388</v>
       </c>
@@ -25024,7 +25021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" customHeight="1" spans="1:4">
+    <row r="139" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A139" s="9" t="s">
         <v>390</v>
       </c>
@@ -25038,7 +25035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" customHeight="1" spans="1:4">
+    <row r="140" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A140" s="9" t="s">
         <v>392</v>
       </c>
@@ -25052,7 +25049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" customHeight="1" spans="1:4">
+    <row r="141" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A141" s="9" t="s">
         <v>394</v>
       </c>
@@ -25066,7 +25063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" customHeight="1" spans="1:4">
+    <row r="142" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A142" s="9" t="s">
         <v>396</v>
       </c>
@@ -25080,7 +25077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="143" customHeight="1" spans="1:4">
+    <row r="143" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A143" s="9" t="s">
         <v>398</v>
       </c>
@@ -25094,7 +25091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="144" customHeight="1" spans="1:4">
+    <row r="144" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A144" s="9" t="s">
         <v>400</v>
       </c>
@@ -25108,35 +25105,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="145" customHeight="1" spans="1:4">
+    <row r="145" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A145" s="9" t="s">
         <v>402</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C145" s="9" t="s">
+      <c r="C145" s="6" t="s">
         <v>403</v>
       </c>
       <c r="D145" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="146" customHeight="1" spans="1:4">
+    <row r="146" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A146" s="9" t="s">
         <v>404</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" s="6" t="s">
         <v>405</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="147" customHeight="1" spans="1:4">
+    <row r="147" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A147" s="9" t="s">
         <v>406</v>
       </c>
@@ -25150,7 +25147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" customHeight="1" spans="1:4">
+    <row r="148" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A148" s="9" t="s">
         <v>408</v>
       </c>
@@ -25164,35 +25161,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" customHeight="1" spans="1:4">
+    <row r="149" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A149" s="9" t="s">
         <v>410</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="6" t="s">
         <v>412</v>
       </c>
       <c r="D149" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="150" customHeight="1" spans="1:4">
+    <row r="150" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A150" s="9" t="s">
         <v>413</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C150" s="9" t="s">
+      <c r="C150" s="6" t="s">
         <v>414</v>
       </c>
       <c r="D150" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="151" customHeight="1" spans="1:4">
+    <row r="151" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A151" s="9" t="s">
         <v>415</v>
       </c>
@@ -25206,63 +25203,63 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" customHeight="1" spans="1:4">
+    <row r="152" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A152" s="9" t="s">
         <v>417</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C152" s="9" t="s">
+      <c r="C152" s="6" t="s">
         <v>418</v>
       </c>
       <c r="D152" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="153" customHeight="1" spans="1:4">
+    <row r="153" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A153" s="9" t="s">
         <v>419</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C153" s="9" t="s">
+      <c r="C153" s="6" t="s">
         <v>420</v>
       </c>
       <c r="D153" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="154" customHeight="1" spans="1:4">
+    <row r="154" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A154" s="9" t="s">
         <v>421</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="6" t="s">
         <v>422</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="155" customHeight="1" spans="1:4">
+    <row r="155" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A155" s="9" t="s">
         <v>423</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="6" t="s">
         <v>424</v>
       </c>
       <c r="D155" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="156" customHeight="1" spans="1:4">
+    <row r="156" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A156" s="9" t="s">
         <v>425</v>
       </c>
@@ -25276,7 +25273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" customHeight="1" spans="1:4">
+    <row r="157" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A157" s="9" t="s">
         <v>427</v>
       </c>
@@ -25290,21 +25287,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="158" customHeight="1" spans="1:4">
+    <row r="158" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A158" s="9" t="s">
         <v>429</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="6" t="s">
         <v>430</v>
       </c>
       <c r="D158" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="159" customHeight="1" spans="1:4">
+    <row r="159" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A159" s="9" t="s">
         <v>431</v>
       </c>
@@ -25318,7 +25315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:4">
+    <row r="160" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A160" s="9" t="s">
         <v>433</v>
       </c>
@@ -25332,7 +25329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" customHeight="1" spans="1:4">
+    <row r="161" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A161" s="9" t="s">
         <v>436</v>
       </c>
@@ -25346,7 +25343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" customHeight="1" spans="1:4">
+    <row r="162" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A162" s="9" t="s">
         <v>439</v>
       </c>
@@ -25360,7 +25357,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="163" customHeight="1" spans="1:4">
+    <row r="163" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A163" s="9" t="s">
         <v>441</v>
       </c>
@@ -25374,7 +25371,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" customHeight="1" spans="1:4">
+    <row r="164" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A164" s="9" t="s">
         <v>443</v>
       </c>
@@ -25388,7 +25385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="165" customHeight="1" spans="1:4">
+    <row r="165" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A165" s="9" t="s">
         <v>446</v>
       </c>
@@ -25402,7 +25399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" customHeight="1" spans="1:4">
+    <row r="166" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A166" s="9" t="s">
         <v>448</v>
       </c>
@@ -25416,7 +25413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="167" customHeight="1" spans="1:4">
+    <row r="167" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A167" s="9" t="s">
         <v>450</v>
       </c>
@@ -25430,7 +25427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" customHeight="1" spans="1:4">
+    <row r="168" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A168" s="9" t="s">
         <v>452</v>
       </c>
@@ -25444,21 +25441,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" customHeight="1" spans="1:4">
+    <row r="169" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A169" s="9" t="s">
         <v>454</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="6" t="s">
         <v>455</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="170" customHeight="1" spans="1:4">
+    <row r="170" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A170" s="9" t="s">
         <v>456</v>
       </c>
@@ -25472,7 +25469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="171" customHeight="1" spans="1:4">
+    <row r="171" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A171" s="9" t="s">
         <v>458</v>
       </c>
@@ -25486,11 +25483,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:4">
+    <row r="172" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A172" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="13" t="s">
         <v>461</v>
       </c>
       <c r="C172" s="6" t="s">
@@ -25500,21 +25497,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="173" customHeight="1" spans="1:4">
+    <row r="173" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A173" s="9" t="s">
         <v>463</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="6" t="s">
         <v>464</v>
       </c>
       <c r="D173" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="174" customHeight="1" spans="1:4">
+    <row r="174" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A174" s="9" t="s">
         <v>465</v>
       </c>
@@ -25528,7 +25525,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" customHeight="1" spans="1:4">
+    <row r="175" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A175" s="9" t="s">
         <v>467</v>
       </c>
@@ -25542,7 +25539,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" customHeight="1" spans="1:4">
+    <row r="176" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A176" s="9" t="s">
         <v>469</v>
       </c>
@@ -25556,7 +25553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" customHeight="1" spans="1:4">
+    <row r="177" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A177" s="9" t="s">
         <v>471</v>
       </c>
@@ -25570,35 +25567,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" customHeight="1" spans="1:4">
+    <row r="178" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A178" s="9" t="s">
         <v>473</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="6" t="s">
         <v>474</v>
       </c>
       <c r="D178" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="179" customHeight="1" spans="1:4">
+    <row r="179" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A179" s="9" t="s">
         <v>475</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C179" s="9" t="s">
+      <c r="C179" s="6" t="s">
         <v>476</v>
       </c>
       <c r="D179" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="180" customHeight="1" spans="1:4">
+    <row r="180" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A180" s="9" t="s">
         <v>477</v>
       </c>
@@ -25612,63 +25609,63 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" customHeight="1" spans="1:4">
+    <row r="181" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A181" s="9" t="s">
         <v>479</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C181" s="9" t="s">
+      <c r="C181" s="6" t="s">
         <v>480</v>
       </c>
       <c r="D181" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="182" customHeight="1" spans="1:4">
+    <row r="182" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A182" s="9" t="s">
         <v>481</v>
       </c>
       <c r="B182" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C182" s="9" t="s">
+      <c r="C182" s="6" t="s">
         <v>482</v>
       </c>
       <c r="D182" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="183" customHeight="1" spans="1:4">
+    <row r="183" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A183" s="9" t="s">
         <v>483</v>
       </c>
       <c r="B183" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C183" s="9" t="s">
+      <c r="C183" s="6" t="s">
         <v>484</v>
       </c>
       <c r="D183" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:4">
+    <row r="184" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A184" s="9" t="s">
         <v>485</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C184" s="9" t="s">
+      <c r="C184" s="6" t="s">
         <v>486</v>
       </c>
       <c r="D184" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="185" customHeight="1" spans="1:4">
+    <row r="185" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A185" s="9" t="s">
         <v>487</v>
       </c>
@@ -25682,21 +25679,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" customHeight="1" spans="1:4">
+    <row r="186" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A186" s="9" t="s">
         <v>489</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C186" s="9" t="s">
+      <c r="C186" s="6" t="s">
         <v>490</v>
       </c>
       <c r="D186" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="187" customHeight="1" spans="1:4">
+    <row r="187" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A187" s="9" t="s">
         <v>491</v>
       </c>
@@ -25710,21 +25707,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" customHeight="1" spans="1:4">
+    <row r="188" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A188" s="9" t="s">
         <v>493</v>
       </c>
       <c r="B188" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C188" s="9" t="s">
+      <c r="C188" s="6" t="s">
         <v>494</v>
       </c>
       <c r="D188" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:4">
+    <row r="189" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A189" s="9" t="s">
         <v>495</v>
       </c>
@@ -25738,7 +25735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" customHeight="1" spans="1:4">
+    <row r="190" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A190" s="9" t="s">
         <v>497</v>
       </c>
@@ -25752,35 +25749,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:4">
+    <row r="191" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A191" s="9" t="s">
         <v>499</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C191" s="9" t="s">
+      <c r="C191" s="6" t="s">
         <v>500</v>
       </c>
       <c r="D191" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="192" customHeight="1" spans="1:4">
+    <row r="192" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A192" s="9" t="s">
         <v>501</v>
       </c>
       <c r="B192" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C192" s="9" t="s">
+      <c r="C192" s="6" t="s">
         <v>502</v>
       </c>
       <c r="D192" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="193" customHeight="1" spans="1:4">
+    <row r="193" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A193" s="9" t="s">
         <v>503</v>
       </c>
@@ -25794,7 +25791,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" customHeight="1" spans="1:4">
+    <row r="194" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A194" s="9" t="s">
         <v>505</v>
       </c>
@@ -25808,7 +25805,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" customHeight="1" spans="1:4">
+    <row r="195" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A195" s="9" t="s">
         <v>508</v>
       </c>
@@ -25822,21 +25819,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" customHeight="1" spans="1:4">
+    <row r="196" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A196" s="9" t="s">
         <v>510</v>
       </c>
       <c r="B196" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="C196" s="9" t="s">
+      <c r="C196" s="6" t="s">
         <v>512</v>
       </c>
       <c r="D196" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="197" customHeight="1" spans="1:4">
+    <row r="197" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A197" s="9" t="s">
         <v>513</v>
       </c>
@@ -25850,7 +25847,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" customHeight="1" spans="1:4">
+    <row r="198" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A198" s="9" t="s">
         <v>515</v>
       </c>
@@ -25864,7 +25861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" customHeight="1" spans="1:4">
+    <row r="199" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A199" s="9" t="s">
         <v>517</v>
       </c>
@@ -25878,7 +25875,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" customHeight="1" spans="1:4">
+    <row r="200" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A200" s="9" t="s">
         <v>519</v>
       </c>
@@ -25892,7 +25889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" customHeight="1" spans="1:4">
+    <row r="201" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A201" s="9" t="s">
         <v>521</v>
       </c>
@@ -25906,7 +25903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" customHeight="1" spans="1:4">
+    <row r="202" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A202" s="9" t="s">
         <v>523</v>
       </c>
@@ -25920,7 +25917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:4">
+    <row r="203" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A203" s="9" t="s">
         <v>525</v>
       </c>
@@ -25934,7 +25931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" customHeight="1" spans="1:4">
+    <row r="204" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A204" s="9" t="s">
         <v>527</v>
       </c>
@@ -25948,7 +25945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="205" customHeight="1" spans="1:4">
+    <row r="205" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A205" s="9" t="s">
         <v>529</v>
       </c>
@@ -25962,7 +25959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="206" customHeight="1" spans="1:4">
+    <row r="206" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A206" s="9" t="s">
         <v>531</v>
       </c>
@@ -25976,7 +25973,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="207" customHeight="1" spans="1:4">
+    <row r="207" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A207" s="9" t="s">
         <v>533</v>
       </c>
@@ -25990,7 +25987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" customHeight="1" spans="1:4">
+    <row r="208" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A208" s="9" t="s">
         <v>535</v>
       </c>
@@ -26004,7 +26001,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" customHeight="1" spans="1:4">
+    <row r="209" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A209" s="9" t="s">
         <v>537</v>
       </c>
@@ -26018,7 +26015,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" customHeight="1" spans="1:4">
+    <row r="210" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A210" s="9" t="s">
         <v>539</v>
       </c>
@@ -26032,7 +26029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" customHeight="1" spans="1:4">
+    <row r="211" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A211" s="9" t="s">
         <v>541</v>
       </c>
@@ -26046,35 +26043,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="212" customHeight="1" spans="1:4">
+    <row r="212" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A212" s="9" t="s">
         <v>543</v>
       </c>
       <c r="B212" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C212" s="9" t="s">
+      <c r="C212" s="6" t="s">
         <v>544</v>
       </c>
       <c r="D212" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="213" customHeight="1" spans="1:4">
+    <row r="213" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A213" s="9" t="s">
         <v>545</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="6" t="s">
         <v>546</v>
       </c>
       <c r="D213" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="214" customHeight="1" spans="1:4">
+    <row r="214" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A214" s="9" t="s">
         <v>547</v>
       </c>
@@ -26088,7 +26085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" customHeight="1" spans="1:4">
+    <row r="215" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A215" s="9" t="s">
         <v>549</v>
       </c>
@@ -26102,7 +26099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" customHeight="1" spans="1:4">
+    <row r="216" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A216" s="9" t="s">
         <v>551</v>
       </c>
@@ -26116,7 +26113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" customHeight="1" spans="1:4">
+    <row r="217" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A217" s="9" t="s">
         <v>553</v>
       </c>
@@ -26130,21 +26127,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" customHeight="1" spans="1:4">
+    <row r="218" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A218" s="9" t="s">
         <v>555</v>
       </c>
       <c r="B218" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="6" t="s">
         <v>556</v>
       </c>
       <c r="D218" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="219" customHeight="1" spans="1:4">
+    <row r="219" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A219" s="9" t="s">
         <v>557</v>
       </c>
@@ -26158,7 +26155,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" customHeight="1" spans="1:4">
+    <row r="220" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A220" s="9" t="s">
         <v>559</v>
       </c>
@@ -26172,7 +26169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" customHeight="1" spans="1:4">
+    <row r="221" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A221" s="9" t="s">
         <v>561</v>
       </c>
@@ -26186,21 +26183,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" customHeight="1" spans="1:4">
+    <row r="222" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A222" s="9" t="s">
         <v>563</v>
       </c>
       <c r="B222" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C222" s="6" t="s">
         <v>564</v>
       </c>
       <c r="D222" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="223" customHeight="1" spans="1:4">
+    <row r="223" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A223" s="9" t="s">
         <v>565</v>
       </c>
@@ -26214,7 +26211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" customHeight="1" spans="1:4">
+    <row r="224" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A224" s="9" t="s">
         <v>567</v>
       </c>
@@ -26228,7 +26225,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" customHeight="1" spans="1:4">
+    <row r="225" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A225" s="9" t="s">
         <v>569</v>
       </c>
@@ -26242,7 +26239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" customHeight="1" spans="1:4">
+    <row r="226" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A226" s="9" t="s">
         <v>571</v>
       </c>
@@ -26256,7 +26253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="227" customHeight="1" spans="1:4">
+    <row r="227" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A227" s="9" t="s">
         <v>573</v>
       </c>
@@ -26270,7 +26267,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="228" customHeight="1" spans="1:4">
+    <row r="228" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A228" s="9" t="s">
         <v>575</v>
       </c>
@@ -26284,7 +26281,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="229" customHeight="1" spans="1:4">
+    <row r="229" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A229" s="9" t="s">
         <v>577</v>
       </c>
@@ -26298,21 +26295,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="230" customHeight="1" spans="1:4">
+    <row r="230" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A230" s="9" t="s">
         <v>579</v>
       </c>
       <c r="B230" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C230" s="9" t="s">
+      <c r="C230" s="6" t="s">
         <v>580</v>
       </c>
       <c r="D230" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="231" customHeight="1" spans="1:4">
+    <row r="231" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A231" s="9" t="s">
         <v>581</v>
       </c>
@@ -26326,63 +26323,63 @@
         <v>101</v>
       </c>
     </row>
-    <row r="232" customHeight="1" spans="1:4">
+    <row r="232" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A232" s="9" t="s">
         <v>583</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C232" s="9" t="s">
+      <c r="C232" s="6" t="s">
         <v>584</v>
       </c>
       <c r="D232" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="233" customHeight="1" spans="1:4">
+    <row r="233" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A233" s="9" t="s">
         <v>585</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C233" s="9" t="s">
+      <c r="C233" s="6" t="s">
         <v>586</v>
       </c>
       <c r="D233" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="234" customHeight="1" spans="1:4">
+    <row r="234" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A234" s="9" t="s">
         <v>587</v>
       </c>
       <c r="B234" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C234" s="9" t="s">
+      <c r="C234" s="6" t="s">
         <v>588</v>
       </c>
       <c r="D234" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="235" customHeight="1" spans="1:4">
+    <row r="235" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A235" s="9" t="s">
         <v>589</v>
       </c>
       <c r="B235" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="C235" s="9" t="s">
+      <c r="C235" s="6" t="s">
         <v>591</v>
       </c>
       <c r="D235" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="236" customHeight="1" spans="1:4">
+    <row r="236" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A236" s="9" t="s">
         <v>592</v>
       </c>
@@ -26396,7 +26393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="237" customHeight="1" spans="1:4">
+    <row r="237" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A237" s="9" t="s">
         <v>594</v>
       </c>
@@ -26410,35 +26407,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="238" customHeight="1" spans="1:4">
+    <row r="238" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A238" s="9" t="s">
         <v>596</v>
       </c>
       <c r="B238" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C238" s="10" t="s">
+      <c r="C238" s="6" t="s">
         <v>597</v>
       </c>
       <c r="D238" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="239" customHeight="1" spans="1:4">
+    <row r="239" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A239" s="9" t="s">
         <v>598</v>
       </c>
       <c r="B239" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C239" s="10" t="s">
+      <c r="C239" s="6" t="s">
         <v>599</v>
       </c>
       <c r="D239" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="240" customHeight="1" spans="1:4">
+    <row r="240" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A240" s="9" t="s">
         <v>600</v>
       </c>
@@ -26452,7 +26449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="241" customHeight="1" spans="1:4">
+    <row r="241" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A241" s="9" t="s">
         <v>602</v>
       </c>
@@ -26466,7 +26463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="242" customHeight="1" spans="1:4">
+    <row r="242" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A242" s="9" t="s">
         <v>604</v>
       </c>
@@ -26480,7 +26477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="243" customHeight="1" spans="1:4">
+    <row r="243" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A243" s="9" t="s">
         <v>606</v>
       </c>
@@ -26494,7 +26491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="244" customHeight="1" spans="1:4">
+    <row r="244" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A244" s="9" t="s">
         <v>608</v>
       </c>
@@ -26508,7 +26505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="245" customHeight="1" spans="1:4">
+    <row r="245" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A245" s="9" t="s">
         <v>610</v>
       </c>
@@ -26522,21 +26519,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="246" customHeight="1" spans="1:4">
+    <row r="246" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A246" s="9" t="s">
         <v>612</v>
       </c>
       <c r="B246" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C246" s="9" t="s">
+      <c r="C246" s="6" t="s">
         <v>613</v>
       </c>
       <c r="D246" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="247" customHeight="1" spans="1:4">
+    <row r="247" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A247" s="9" t="s">
         <v>614</v>
       </c>
@@ -26550,7 +26547,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="248" customHeight="1" spans="1:4">
+    <row r="248" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A248" s="9" t="s">
         <v>616</v>
       </c>
@@ -26564,7 +26561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="249" customHeight="1" spans="1:4">
+    <row r="249" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A249" s="9" t="s">
         <v>618</v>
       </c>
@@ -26578,7 +26575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="250" customHeight="1" spans="1:4">
+    <row r="250" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A250" s="9" t="s">
         <v>620</v>
       </c>
@@ -26592,7 +26589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="251" customHeight="1" spans="1:4">
+    <row r="251" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A251" s="9" t="s">
         <v>622</v>
       </c>
@@ -26606,21 +26603,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="252" customHeight="1" spans="1:4">
+    <row r="252" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A252" s="9" t="s">
         <v>624</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C252" s="9" t="s">
+      <c r="C252" s="6" t="s">
         <v>625</v>
       </c>
       <c r="D252" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="253" customHeight="1" spans="1:4">
+    <row r="253" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A253" s="9" t="s">
         <v>626</v>
       </c>
@@ -26634,21 +26631,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="254" customHeight="1" spans="1:4">
+    <row r="254" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A254" s="9" t="s">
         <v>628</v>
       </c>
       <c r="B254" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C254" s="9" t="s">
+      <c r="C254" s="6" t="s">
         <v>629</v>
       </c>
       <c r="D254" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="255" customHeight="1" spans="1:4">
+    <row r="255" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A255" s="9" t="s">
         <v>630</v>
       </c>
@@ -26662,35 +26659,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="256" customHeight="1" spans="1:4">
+    <row r="256" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A256" s="9" t="s">
         <v>632</v>
       </c>
       <c r="B256" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C256" s="6" t="s">
         <v>633</v>
       </c>
       <c r="D256" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="257" customHeight="1" spans="1:4">
+    <row r="257" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A257" s="9" t="s">
         <v>634</v>
       </c>
       <c r="B257" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C257" s="9" t="s">
+      <c r="C257" s="6" t="s">
         <v>635</v>
       </c>
       <c r="D257" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="258" customHeight="1" spans="1:4">
+    <row r="258" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A258" s="9" t="s">
         <v>636</v>
       </c>
@@ -26704,35 +26701,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="259" customHeight="1" spans="1:4">
+    <row r="259" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A259" s="9" t="s">
         <v>638</v>
       </c>
       <c r="B259" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C259" s="9" t="s">
+      <c r="C259" s="6" t="s">
         <v>639</v>
       </c>
       <c r="D259" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="260" customHeight="1" spans="1:4">
+    <row r="260" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A260" s="9" t="s">
         <v>640</v>
       </c>
       <c r="B260" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C260" s="9" t="s">
+      <c r="C260" s="6" t="s">
         <v>641</v>
       </c>
       <c r="D260" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="261" customHeight="1" spans="1:4">
+    <row r="261" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A261" s="9" t="s">
         <v>642</v>
       </c>
@@ -26746,21 +26743,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="262" customHeight="1" spans="1:4">
+    <row r="262" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A262" s="9" t="s">
         <v>644</v>
       </c>
       <c r="B262" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C262" s="9" t="s">
+      <c r="C262" s="6" t="s">
         <v>645</v>
       </c>
       <c r="D262" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="263" customHeight="1" spans="1:4">
+    <row r="263" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A263" s="9" t="s">
         <v>646</v>
       </c>
@@ -26774,7 +26771,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="264" customHeight="1" spans="1:4">
+    <row r="264" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A264" s="9" t="s">
         <v>648</v>
       </c>
@@ -26788,7 +26785,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="265" customHeight="1" spans="1:4">
+    <row r="265" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A265" s="9" t="s">
         <v>650</v>
       </c>
@@ -26802,7 +26799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="266" customHeight="1" spans="1:4">
+    <row r="266" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A266" s="9" t="s">
         <v>652</v>
       </c>
@@ -26816,7 +26813,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="267" customHeight="1" spans="1:4">
+    <row r="267" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A267" s="9" t="s">
         <v>654</v>
       </c>
@@ -26830,7 +26827,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" customHeight="1" spans="1:4">
+    <row r="268" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A268" s="9" t="s">
         <v>656</v>
       </c>
@@ -26844,21 +26841,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="269" customHeight="1" spans="1:4">
+    <row r="269" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A269" s="9" t="s">
         <v>658</v>
       </c>
       <c r="B269" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C269" s="9" t="s">
+      <c r="C269" s="6" t="s">
         <v>659</v>
       </c>
       <c r="D269" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="270" customHeight="1" spans="1:4">
+    <row r="270" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A270" s="9" t="s">
         <v>660</v>
       </c>
@@ -26872,7 +26869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="271" customHeight="1" spans="1:4">
+    <row r="271" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A271" s="9" t="s">
         <v>662</v>
       </c>
@@ -26886,7 +26883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="272" customHeight="1" spans="1:4">
+    <row r="272" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A272" s="9" t="s">
         <v>664</v>
       </c>
@@ -26900,11 +26897,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="273" customHeight="1" spans="1:4">
+    <row r="273" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A273" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="B273" s="14" t="s">
+      <c r="B273" s="13" t="s">
         <v>667</v>
       </c>
       <c r="C273" s="6" t="s">
@@ -26914,21 +26911,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="274" customHeight="1" spans="1:4">
+    <row r="274" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A274" s="9" t="s">
         <v>669</v>
       </c>
       <c r="B274" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C274" s="9" t="s">
+      <c r="C274" s="6" t="s">
         <v>670</v>
       </c>
       <c r="D274" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="275" customHeight="1" spans="1:4">
+    <row r="275" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A275" s="9" t="s">
         <v>671</v>
       </c>
@@ -26942,7 +26939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="276" customHeight="1" spans="1:4">
+    <row r="276" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A276" s="9" t="s">
         <v>674</v>
       </c>
@@ -26956,7 +26953,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="277" customHeight="1" spans="1:4">
+    <row r="277" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A277" s="9" t="s">
         <v>676</v>
       </c>
@@ -26970,7 +26967,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="278" customHeight="1" spans="1:4">
+    <row r="278" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A278" s="9" t="s">
         <v>678</v>
       </c>
@@ -26984,21 +26981,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="279" customHeight="1" spans="1:4">
+    <row r="279" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A279" s="9" t="s">
         <v>680</v>
       </c>
       <c r="B279" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C279" s="9" t="s">
+      <c r="C279" s="6" t="s">
         <v>682</v>
       </c>
       <c r="D279" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="280" customHeight="1" spans="1:4">
+    <row r="280" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A280" s="9" t="s">
         <v>683</v>
       </c>
@@ -27012,7 +27009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="281" customHeight="1" spans="1:4">
+    <row r="281" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A281" s="9" t="s">
         <v>685</v>
       </c>
@@ -27026,7 +27023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="282" customHeight="1" spans="1:4">
+    <row r="282" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A282" s="9" t="s">
         <v>687</v>
       </c>
@@ -27040,7 +27037,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="283" customHeight="1" spans="1:4">
+    <row r="283" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A283" s="9" t="s">
         <v>689</v>
       </c>
@@ -27054,7 +27051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="284" customHeight="1" spans="1:4">
+    <row r="284" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A284" s="9" t="s">
         <v>691</v>
       </c>
@@ -27068,7 +27065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="285" customHeight="1" spans="1:4">
+    <row r="285" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A285" s="9" t="s">
         <v>693</v>
       </c>
@@ -27082,7 +27079,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="286" customHeight="1" spans="1:4">
+    <row r="286" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A286" s="9" t="s">
         <v>695</v>
       </c>
@@ -27096,7 +27093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="287" customHeight="1" spans="1:4">
+    <row r="287" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A287" s="9" t="s">
         <v>698</v>
       </c>
@@ -27110,21 +27107,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="288" customHeight="1" spans="1:4">
+    <row r="288" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A288" s="9" t="s">
         <v>700</v>
       </c>
       <c r="B288" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C288" s="9" t="s">
+      <c r="C288" s="6" t="s">
         <v>701</v>
       </c>
       <c r="D288" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="289" customHeight="1" spans="1:4">
+    <row r="289" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A289" s="9" t="s">
         <v>702</v>
       </c>
@@ -27138,7 +27135,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="290" customHeight="1" spans="1:4">
+    <row r="290" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A290" s="9" t="s">
         <v>704</v>
       </c>
@@ -27152,7 +27149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="291" customHeight="1" spans="1:4">
+    <row r="291" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A291" s="9" t="s">
         <v>706</v>
       </c>
@@ -27166,7 +27163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="292" customHeight="1" spans="1:4">
+    <row r="292" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A292" s="9" t="s">
         <v>708</v>
       </c>
@@ -27180,7 +27177,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="293" customHeight="1" spans="1:4">
+    <row r="293" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A293" s="9" t="s">
         <v>710</v>
       </c>
@@ -27194,7 +27191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="294" customHeight="1" spans="1:4">
+    <row r="294" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A294" s="9" t="s">
         <v>712</v>
       </c>
@@ -27208,21 +27205,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="295" customHeight="1" spans="1:4">
+    <row r="295" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A295" s="9" t="s">
         <v>714</v>
       </c>
       <c r="B295" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C295" s="9" t="s">
+      <c r="C295" s="6" t="s">
         <v>715</v>
       </c>
       <c r="D295" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="296" customHeight="1" spans="1:4">
+    <row r="296" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A296" s="9" t="s">
         <v>716</v>
       </c>
@@ -27236,7 +27233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="297" customHeight="1" spans="1:4">
+    <row r="297" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A297" s="9" t="s">
         <v>718</v>
       </c>
@@ -27250,7 +27247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="298" customHeight="1" spans="1:4">
+    <row r="298" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A298" s="9" t="s">
         <v>720</v>
       </c>
@@ -27264,7 +27261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="299" customHeight="1" spans="1:4">
+    <row r="299" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A299" s="9" t="s">
         <v>722</v>
       </c>
@@ -27278,7 +27275,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="300" customHeight="1" spans="1:4">
+    <row r="300" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A300" s="9" t="s">
         <v>724</v>
       </c>
@@ -27292,7 +27289,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="301" customHeight="1" spans="1:4">
+    <row r="301" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A301" s="9" t="s">
         <v>726</v>
       </c>
@@ -27306,7 +27303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="302" customHeight="1" spans="1:4">
+    <row r="302" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A302" s="9" t="s">
         <v>728</v>
       </c>
@@ -27320,21 +27317,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="303" customHeight="1" spans="1:4">
+    <row r="303" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A303" s="9" t="s">
         <v>730</v>
       </c>
       <c r="B303" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C303" s="9" t="s">
+      <c r="C303" s="6" t="s">
         <v>731</v>
       </c>
       <c r="D303" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="304" customHeight="1" spans="1:4">
+    <row r="304" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A304" s="9" t="s">
         <v>732</v>
       </c>
@@ -27348,7 +27345,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="305" customHeight="1" spans="1:4">
+    <row r="305" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A305" s="9" t="s">
         <v>734</v>
       </c>
@@ -27362,7 +27359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="306" customHeight="1" spans="1:4">
+    <row r="306" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A306" s="9" t="s">
         <v>736</v>
       </c>
@@ -27376,7 +27373,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="307" customHeight="1" spans="1:4">
+    <row r="307" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A307" s="9" t="s">
         <v>738</v>
       </c>
@@ -27390,7 +27387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="308" customHeight="1" spans="1:4">
+    <row r="308" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A308" s="9" t="s">
         <v>740</v>
       </c>
@@ -27404,7 +27401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="309" customHeight="1" spans="1:4">
+    <row r="309" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A309" s="9" t="s">
         <v>742</v>
       </c>
@@ -27418,21 +27415,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="310" customHeight="1" spans="1:4">
+    <row r="310" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A310" s="9" t="s">
         <v>744</v>
       </c>
       <c r="B310" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C310" s="9" t="s">
+      <c r="C310" s="6" t="s">
         <v>745</v>
       </c>
       <c r="D310" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="311" customHeight="1" spans="1:4">
+    <row r="311" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A311" s="9" t="s">
         <v>746</v>
       </c>
@@ -27446,7 +27443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="312" customHeight="1" spans="1:4">
+    <row r="312" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A312" s="9" t="s">
         <v>748</v>
       </c>
@@ -27460,7 +27457,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="313" customHeight="1" spans="1:4">
+    <row r="313" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A313" s="9" t="s">
         <v>750</v>
       </c>
@@ -27474,7 +27471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="314" customHeight="1" spans="1:4">
+    <row r="314" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A314" s="9" t="s">
         <v>752</v>
       </c>
@@ -27488,7 +27485,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="315" customHeight="1" spans="1:4">
+    <row r="315" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A315" s="9" t="s">
         <v>754</v>
       </c>
@@ -27502,7 +27499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="316" customHeight="1" spans="1:4">
+    <row r="316" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A316" s="9" t="s">
         <v>756</v>
       </c>
@@ -27516,7 +27513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="317" customHeight="1" spans="1:4">
+    <row r="317" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A317" s="9" t="s">
         <v>758</v>
       </c>
@@ -27530,7 +27527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="318" customHeight="1" spans="1:4">
+    <row r="318" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A318" s="9" t="s">
         <v>760</v>
       </c>
@@ -27544,21 +27541,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="319" customHeight="1" spans="1:4">
+    <row r="319" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A319" s="9" t="s">
         <v>762</v>
       </c>
       <c r="B319" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C319" s="9" t="s">
+      <c r="C319" s="6" t="s">
         <v>763</v>
       </c>
       <c r="D319" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="320" customHeight="1" spans="1:4">
+    <row r="320" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A320" s="9" t="s">
         <v>764</v>
       </c>
@@ -27572,7 +27569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="321" customHeight="1" spans="1:4">
+    <row r="321" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A321" s="9" t="s">
         <v>766</v>
       </c>
@@ -27586,7 +27583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="322" customHeight="1" spans="1:4">
+    <row r="322" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A322" s="9" t="s">
         <v>768</v>
       </c>
@@ -27600,7 +27597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="323" customHeight="1" spans="1:4">
+    <row r="323" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A323" s="9" t="s">
         <v>770</v>
       </c>
@@ -27614,21 +27611,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="324" customHeight="1" spans="1:4">
+    <row r="324" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A324" s="9" t="s">
         <v>772</v>
       </c>
       <c r="B324" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C324" s="9" t="s">
+      <c r="C324" s="6" t="s">
         <v>773</v>
       </c>
       <c r="D324" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="325" customHeight="1" spans="1:4">
+    <row r="325" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A325" s="9" t="s">
         <v>774</v>
       </c>
@@ -27642,7 +27639,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="326" customHeight="1" spans="1:4">
+    <row r="326" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A326" s="9" t="s">
         <v>776</v>
       </c>
@@ -27656,7 +27653,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="327" customHeight="1" spans="1:4">
+    <row r="327" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A327" s="9" t="s">
         <v>778</v>
       </c>
@@ -27670,21 +27667,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="328" customHeight="1" spans="1:4">
+    <row r="328" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A328" s="9" t="s">
         <v>780</v>
       </c>
       <c r="B328" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C328" s="9" t="s">
+      <c r="C328" s="6" t="s">
         <v>781</v>
       </c>
       <c r="D328" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="329" customHeight="1" spans="1:4">
+    <row r="329" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A329" s="9" t="s">
         <v>782</v>
       </c>
@@ -27698,7 +27695,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="330" customHeight="1" spans="1:4">
+    <row r="330" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A330" s="9" t="s">
         <v>784</v>
       </c>
@@ -27712,7 +27709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="331" customHeight="1" spans="1:4">
+    <row r="331" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A331" s="9" t="s">
         <v>786</v>
       </c>
@@ -27726,7 +27723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="332" customHeight="1" spans="1:4">
+    <row r="332" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A332" s="9" t="s">
         <v>788</v>
       </c>
@@ -27740,7 +27737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="333" customHeight="1" spans="1:4">
+    <row r="333" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A333" s="9" t="s">
         <v>790</v>
       </c>
@@ -27754,7 +27751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="334" customHeight="1" spans="1:4">
+    <row r="334" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A334" s="9" t="s">
         <v>792</v>
       </c>
@@ -27768,21 +27765,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="335" customHeight="1" spans="1:4">
+    <row r="335" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A335" s="9" t="s">
         <v>794</v>
       </c>
       <c r="B335" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C335" s="9" t="s">
+      <c r="C335" s="6" t="s">
         <v>795</v>
       </c>
       <c r="D335" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="336" customHeight="1" spans="1:4">
+    <row r="336" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A336" s="9" t="s">
         <v>796</v>
       </c>
@@ -27796,7 +27793,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="337" customHeight="1" spans="1:4">
+    <row r="337" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A337" s="9" t="s">
         <v>798</v>
       </c>
@@ -27810,21 +27807,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="338" customHeight="1" spans="1:4">
+    <row r="338" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A338" s="9" t="s">
         <v>800</v>
       </c>
       <c r="B338" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C338" s="9" t="s">
+      <c r="C338" s="6" t="s">
         <v>801</v>
       </c>
       <c r="D338" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="339" customHeight="1" spans="1:4">
+    <row r="339" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A339" s="9" t="s">
         <v>802</v>
       </c>
@@ -27838,35 +27835,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="340" customHeight="1" spans="1:4">
+    <row r="340" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A340" s="9" t="s">
         <v>804</v>
       </c>
       <c r="B340" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C340" s="9" t="s">
+      <c r="C340" s="6" t="s">
         <v>805</v>
       </c>
       <c r="D340" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="341" customHeight="1" spans="1:4">
+    <row r="341" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A341" s="9" t="s">
         <v>806</v>
       </c>
       <c r="B341" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C341" s="9" t="s">
+      <c r="C341" s="6" t="s">
         <v>807</v>
       </c>
       <c r="D341" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="342" customHeight="1" spans="1:4">
+    <row r="342" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A342" s="9" t="s">
         <v>808</v>
       </c>
@@ -27880,49 +27877,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="343" customHeight="1" spans="1:4">
+    <row r="343" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A343" s="9" t="s">
         <v>810</v>
       </c>
       <c r="B343" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C343" s="9" t="s">
+      <c r="C343" s="6" t="s">
         <v>811</v>
       </c>
       <c r="D343" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="344" customHeight="1" spans="1:4">
+    <row r="344" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A344" s="9" t="s">
         <v>812</v>
       </c>
       <c r="B344" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C344" s="9" t="s">
+      <c r="C344" s="6" t="s">
         <v>813</v>
       </c>
       <c r="D344" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="345" customHeight="1" spans="1:4">
+    <row r="345" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A345" s="9" t="s">
         <v>814</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>815</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="C345" s="6" t="s">
         <v>816</v>
       </c>
       <c r="D345" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="346" customHeight="1" spans="1:4">
+    <row r="346" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A346" s="9" t="s">
         <v>817</v>
       </c>
@@ -27936,7 +27933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="347" customHeight="1" spans="1:4">
+    <row r="347" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A347" s="9" t="s">
         <v>819</v>
       </c>
@@ -27950,7 +27947,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="348" customHeight="1" spans="1:4">
+    <row r="348" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A348" s="9" t="s">
         <v>822</v>
       </c>
@@ -27964,7 +27961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="349" customHeight="1" spans="1:4">
+    <row r="349" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A349" s="9" t="s">
         <v>824</v>
       </c>
@@ -27978,7 +27975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="350" customHeight="1" spans="1:4">
+    <row r="350" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A350" s="9" t="s">
         <v>826</v>
       </c>
@@ -27992,7 +27989,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="351" customHeight="1" spans="1:4">
+    <row r="351" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A351" s="9" t="s">
         <v>828</v>
       </c>
@@ -28006,7 +28003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="352" customHeight="1" spans="1:4">
+    <row r="352" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A352" s="9" t="s">
         <v>830</v>
       </c>
@@ -28020,7 +28017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="353" customHeight="1" spans="1:4">
+    <row r="353" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A353" s="9" t="s">
         <v>833</v>
       </c>
@@ -28034,7 +28031,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="354" customHeight="1" spans="1:4">
+    <row r="354" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A354" s="9" t="s">
         <v>836</v>
       </c>
@@ -28048,21 +28045,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="355" customHeight="1" spans="1:4">
+    <row r="355" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A355" s="9" t="s">
         <v>838</v>
       </c>
       <c r="B355" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C355" s="9" t="s">
+      <c r="C355" s="6" t="s">
         <v>839</v>
       </c>
       <c r="D355" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="356" customHeight="1" spans="1:4">
+    <row r="356" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A356" s="9" t="s">
         <v>840</v>
       </c>
@@ -28076,7 +28073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="357" customHeight="1" spans="1:4">
+    <row r="357" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A357" s="9" t="s">
         <v>842</v>
       </c>
@@ -28090,7 +28087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="358" customHeight="1" spans="1:4">
+    <row r="358" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A358" s="9" t="s">
         <v>844</v>
       </c>
@@ -28104,21 +28101,21 @@
         <v>101</v>
       </c>
     </row>
-    <row r="359" customHeight="1" spans="1:4">
+    <row r="359" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A359" s="9" t="s">
         <v>847</v>
       </c>
       <c r="B359" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C359" s="9" t="s">
+      <c r="C359" s="6" t="s">
         <v>848</v>
       </c>
       <c r="D359" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="360" customHeight="1" spans="1:4">
+    <row r="360" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A360" s="9" t="s">
         <v>849</v>
       </c>
@@ -28132,7 +28129,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="361" customHeight="1" spans="1:4">
+    <row r="361" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A361" s="9" t="s">
         <v>851</v>
       </c>
@@ -28146,24 +28143,25 @@
         <v>101</v>
       </c>
     </row>
-    <row r="362" customHeight="1" spans="1:4">
+    <row r="362" s="9" customFormat="1" customHeight="1" spans="1:4">
       <c r="A362" s="9" t="s">
         <v>854</v>
       </c>
       <c r="B362" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="C362" s="6" t="s">
         <v>855</v>
       </c>
       <c r="D362" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="363" customHeight="1" spans="2:2">
+    <row r="363" s="9" customFormat="1" customHeight="1" spans="2:3">
       <c r="B363" s="13" t="s">
         <v>99</v>
       </c>
+      <c r="C363" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28628,7 +28626,7 @@
   <sheetPr/>
   <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
@@ -31062,8 +31060,8 @@
   <sheetPr/>
   <dimension ref="A1:F552"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="$A6:$XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A30" sqref="$A30:$XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
